--- a/Resultados/Mercado mundial - Melón Cantalupo y otros melones.xlsx
+++ b/Resultados/Mercado mundial - Melón Cantalupo y otros melones.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" tabRatio="898" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" tabRatio="898" firstSheet="0" activeTab="3" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Mundial" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Países productores" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Países exportadores" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="Países importadores" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="China, mainland" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="India" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="Türkiye" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="Kazakhstan" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="Brazil" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Mundial" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Países productores" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Países exportadores" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Países importadores" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="China, Continental" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="India" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Türkiye" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Kazajstán" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brasil" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames>
     <definedName name="_AtRisk_SimSetting_AutomaticallyGenerateReports" hidden="1">FALSE</definedName>
@@ -227,7 +227,7 @@
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -307,7 +307,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="4" fontId="14" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="2"/>
     <xf numFmtId="166" fontId="3" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -407,13 +406,13 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr/>
-          <a:p>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -433,21 +432,21 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill>
+            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <cat>
             <numRef>
-              <f>'Mundial'!$B$12:$B$73</f>
+              <f>'Mundial'!$B$12:$B$74</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Mundial'!$C$12:$C$73</f>
+              <f>'Mundial'!$C$12:$C$74</f>
             </numRef>
           </val>
         </ser>
@@ -489,13 +488,13 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr/>
-          <a:p>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -515,21 +514,21 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill>
+            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <cat>
             <numRef>
-              <f>'Países productores'!$B$12:$B$22</f>
+              <f>'Países productores'!$B$12:$B$23</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Países productores'!$C$12:$C$22</f>
+              <f>'Países productores'!$C$12:$C$23</f>
             </numRef>
           </val>
         </ser>
@@ -571,18 +570,18 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr/>
-          <a:p>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:t>Exportaciones (Miles de Toneladas)</a:t>
+              <a:t>Exportaciones (Millones de Toneladas)</a:t>
             </a:r>
           </a:p>
         </rich>
@@ -597,21 +596,21 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill>
+            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <cat>
             <numRef>
-              <f>'Países exportadores'!$B$12:$B$22</f>
+              <f>'Países exportadores'!$B$12:$B$23</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Países exportadores'!$C$12:$C$22</f>
+              <f>'Países exportadores'!$C$12:$C$23</f>
             </numRef>
           </val>
         </ser>
@@ -640,7 +639,7 @@
         <delete val="0"/>
         <axPos val="l"/>
         <majorGridlines/>
-        <numFmt formatCode="#,##0.00," sourceLinked="0"/>
+        <numFmt formatCode="#,##0.00,," sourceLinked="0"/>
         <majorTickMark val="none"/>
         <minorTickMark val="none"/>
         <crossAx val="10"/>
@@ -653,18 +652,18 @@
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr/>
-          <a:p>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:t>Importaciones (Miles de Toneladas)</a:t>
+              <a:t>Importaciones (Millones de Toneladas)</a:t>
             </a:r>
           </a:p>
         </rich>
@@ -679,10 +678,10 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill>
+            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
@@ -722,7 +721,7 @@
         <delete val="0"/>
         <axPos val="l"/>
         <majorGridlines/>
-        <numFmt formatCode="#,##0.00," sourceLinked="0"/>
+        <numFmt formatCode="#,##0.00,," sourceLinked="0"/>
         <majorTickMark val="none"/>
         <minorTickMark val="none"/>
         <crossAx val="10"/>
@@ -735,13 +734,13 @@
 </file>
 
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr/>
-          <a:p>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -761,21 +760,21 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill>
+            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <cat>
             <numRef>
-              <f>'China, mainland'!$B$12:$B$73</f>
+              <f>'China, Continental'!$B$12:$B$74</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'China, mainland'!$C$12:$C$73</f>
+              <f>'China, Continental'!$C$12:$C$74</f>
             </numRef>
           </val>
         </ser>
@@ -817,13 +816,13 @@
 </file>
 
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr/>
-          <a:p>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -843,21 +842,21 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill>
+            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <cat>
             <numRef>
-              <f>'India'!$B$12:$B$73</f>
+              <f>'India'!$B$12:$B$74</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'India'!$C$12:$C$73</f>
+              <f>'India'!$C$12:$C$74</f>
             </numRef>
           </val>
         </ser>
@@ -899,13 +898,13 @@
 </file>
 
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr/>
-          <a:p>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -925,21 +924,21 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill>
+            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <cat>
             <numRef>
-              <f>'Türkiye'!$B$12:$B$73</f>
+              <f>'Türkiye'!$B$12:$B$74</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Türkiye'!$C$12:$C$73</f>
+              <f>'Türkiye'!$C$12:$C$74</f>
             </numRef>
           </val>
         </ser>
@@ -981,13 +980,13 @@
 </file>
 
 <file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr/>
-          <a:p>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -1007,21 +1006,21 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill>
+            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <cat>
             <numRef>
-              <f>'Kazakhstan'!$B$12:$B$73</f>
+              <f>'Kazajstán'!$B$12:$B$74</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Kazakhstan'!$C$12:$C$73</f>
+              <f>'Kazajstán'!$C$12:$C$74</f>
             </numRef>
           </val>
         </ser>
@@ -1063,13 +1062,13 @@
 </file>
 
 <file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr/>
-          <a:p>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -1089,21 +1088,21 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill>
+            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <cat>
             <numRef>
-              <f>'Brazil'!$B$12:$B$73</f>
+              <f>'Brasil'!$B$12:$B$74</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Brazil'!$C$12:$C$73</f>
+              <f>'Brasil'!$C$12:$C$74</f>
             </numRef>
           </val>
         </ser>
@@ -1145,7 +1144,7 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <twoCellAnchor editAs="oneCell">
     <from>
       <col>10</col>
@@ -1163,26 +1162,26 @@
       <nvPicPr>
         <cNvPr id="2" name="Imagen 1"/>
         <cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeAspect="1" noChangeArrowheads="1"/>
         </cNvPicPr>
       </nvPicPr>
       <blipFill>
-        <a:blip r:embed="rId2"/>
-        <a:srcRect/>
-        <a:stretch>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:srcRect xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr bwMode="auto">
-        <a:xfrm>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:off x="8128000" y="206375"/>
           <a:ext cx="2524125" cy="673100"/>
         </a:xfrm>
-        <a:prstGeom prst="rect">
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <avLst/>
         </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
+        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -1203,9 +1202,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1215,7 +1214,7 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <twoCellAnchor editAs="oneCell">
     <from>
       <col>9</col>
@@ -1233,26 +1232,26 @@
       <nvPicPr>
         <cNvPr id="2" name="Imagen 1"/>
         <cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeAspect="1" noChangeArrowheads="1"/>
         </cNvPicPr>
       </nvPicPr>
       <blipFill>
-        <a:blip r:embed="rId2"/>
-        <a:srcRect/>
-        <a:stretch>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:srcRect xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr bwMode="auto">
-        <a:xfrm>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:off x="7937500" y="244475"/>
           <a:ext cx="2524125" cy="695325"/>
         </a:xfrm>
-        <a:prstGeom prst="rect">
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <avLst/>
         </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
+        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -1273,9 +1272,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1285,7 +1284,7 @@
 </file>
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <twoCellAnchor editAs="oneCell">
     <from>
       <col>9</col>
@@ -1303,26 +1302,26 @@
       <nvPicPr>
         <cNvPr id="2" name="Imagen 1"/>
         <cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeAspect="1" noChangeArrowheads="1"/>
         </cNvPicPr>
       </nvPicPr>
       <blipFill>
-        <a:blip r:embed="rId2"/>
-        <a:srcRect/>
-        <a:stretch>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:srcRect xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr bwMode="auto">
-        <a:xfrm>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:off x="7981950" y="219075"/>
           <a:ext cx="2524125" cy="685800"/>
         </a:xfrm>
-        <a:prstGeom prst="rect">
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <avLst/>
         </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
+        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -1343,9 +1342,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1355,7 +1354,7 @@
 </file>
 
 <file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <twoCellAnchor editAs="oneCell">
     <from>
       <col>10</col>
@@ -1373,26 +1372,26 @@
       <nvPicPr>
         <cNvPr id="2" name="Imagen 1"/>
         <cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeAspect="1" noChangeArrowheads="1"/>
         </cNvPicPr>
       </nvPicPr>
       <blipFill>
-        <a:blip r:embed="rId2"/>
-        <a:srcRect/>
-        <a:stretch>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:srcRect xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr bwMode="auto">
-        <a:xfrm>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:off x="10175875" y="79375"/>
           <a:ext cx="2524125" cy="682625"/>
         </a:xfrm>
-        <a:prstGeom prst="rect">
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <avLst/>
         </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
+        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -1413,9 +1412,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1425,7 +1424,7 @@
 </file>
 
 <file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
       <col>8</col>
@@ -1440,9 +1439,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1462,13 +1461,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip cstate="print" r:embed="rId2"/>
-        <a:stretch>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId2"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom prst="rect"/>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -1477,7 +1476,7 @@
 </file>
 
 <file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
       <col>8</col>
@@ -1492,9 +1491,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1514,13 +1513,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip cstate="print" r:embed="rId2"/>
-        <a:stretch>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId2"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom prst="rect"/>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -1529,7 +1528,7 @@
 </file>
 
 <file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
       <col>8</col>
@@ -1544,9 +1543,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1566,13 +1565,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip cstate="print" r:embed="rId2"/>
-        <a:stretch>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId2"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom prst="rect"/>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -1581,7 +1580,7 @@
 </file>
 
 <file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
       <col>8</col>
@@ -1596,9 +1595,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1618,13 +1617,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip cstate="print" r:embed="rId2"/>
-        <a:stretch>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId2"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom prst="rect"/>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -1633,7 +1632,7 @@
 </file>
 
 <file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
       <col>8</col>
@@ -1648,9 +1647,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1670,13 +1669,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip cstate="print" r:embed="rId2"/>
-        <a:stretch>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId2"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom prst="rect"/>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -2011,8 +2010,8 @@
   </sheetPr>
   <dimension ref="B2:L124"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView showGridLines="0" zoomScale="69" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
@@ -2060,7 +2059,7 @@
       <c r="B7" s="14" t="n"/>
       <c r="C7" s="5" t="inlineStr">
         <is>
-          <t>Estadísticas del mercado mundial</t>
+          <t>Estadísticas del mercado mundial de (Producto)</t>
         </is>
       </c>
       <c r="D7" s="14" t="n"/>
@@ -2139,10 +2138,10 @@
         <v>1092354</v>
       </c>
       <c r="D12" s="29" t="n">
+        <v>27.0437</v>
+      </c>
+      <c r="E12" s="29" t="n">
         <v>29541294</v>
-      </c>
-      <c r="E12" s="29" t="n">
-        <v>27.0437</v>
       </c>
       <c r="F12" s="29" t="n">
         <v>2191483.55</v>
@@ -2161,10 +2160,10 @@
         <v>1117263</v>
       </c>
       <c r="D13" s="29" t="n">
+        <v>26.649</v>
+      </c>
+      <c r="E13" s="29" t="n">
         <v>29773949.61</v>
-      </c>
-      <c r="E13" s="29" t="n">
-        <v>26.649</v>
       </c>
       <c r="F13" s="29" t="n">
         <v>2146059.23</v>
@@ -2183,10 +2182,10 @@
         <v>1104740</v>
       </c>
       <c r="D14" s="29" t="n">
+        <v>26.4385</v>
+      </c>
+      <c r="E14" s="29" t="n">
         <v>29207643.51</v>
-      </c>
-      <c r="E14" s="29" t="n">
-        <v>26.4385</v>
       </c>
       <c r="F14" s="29" t="n">
         <v>2117035.06</v>
@@ -2205,10 +2204,10 @@
         <v>1067108</v>
       </c>
       <c r="D15" s="29" t="n">
+        <v>26.5552</v>
+      </c>
+      <c r="E15" s="29" t="n">
         <v>28337233.19</v>
-      </c>
-      <c r="E15" s="29" t="n">
-        <v>26.5552</v>
       </c>
       <c r="F15" s="29" t="n">
         <v>2092079.01</v>
@@ -2227,10 +2226,10 @@
         <v>1041745</v>
       </c>
       <c r="D16" s="29" t="n">
+        <v>26.1847</v>
+      </c>
+      <c r="E16" s="29" t="n">
         <v>27277827.69</v>
-      </c>
-      <c r="E16" s="29" t="n">
-        <v>26.1847</v>
       </c>
       <c r="F16" s="29" t="n">
         <v>2219795</v>
@@ -2249,10 +2248,10 @@
         <v>1045228</v>
       </c>
       <c r="D17" s="29" t="n">
+        <v>26.1629</v>
+      </c>
+      <c r="E17" s="29" t="n">
         <v>27346229.27</v>
-      </c>
-      <c r="E17" s="29" t="n">
-        <v>26.1629</v>
       </c>
       <c r="F17" s="29" t="n">
         <v>2311209.71</v>
@@ -2271,10 +2270,10 @@
         <v>1052044</v>
       </c>
       <c r="D18" s="29" t="n">
+        <v>25.6021</v>
+      </c>
+      <c r="E18" s="29" t="n">
         <v>26934502.54</v>
-      </c>
-      <c r="E18" s="29" t="n">
-        <v>25.6021</v>
       </c>
       <c r="F18" s="29" t="n">
         <v>2281916.53</v>
@@ -2293,10 +2292,10 @@
         <v>1104469</v>
       </c>
       <c r="D19" s="29" t="n">
+        <v>24.3731</v>
+      </c>
+      <c r="E19" s="29" t="n">
         <v>26919340.03</v>
-      </c>
-      <c r="E19" s="29" t="n">
-        <v>24.3731</v>
       </c>
       <c r="F19" s="29" t="n">
         <v>2262352.73</v>
@@ -2315,10 +2314,10 @@
         <v>1061859</v>
       </c>
       <c r="D20" s="29" t="n">
+        <v>24.3776</v>
+      </c>
+      <c r="E20" s="29" t="n">
         <v>25885545.25</v>
-      </c>
-      <c r="E20" s="29" t="n">
-        <v>24.3776</v>
       </c>
       <c r="F20" s="29" t="n">
         <v>2113670.64</v>
@@ -2337,10 +2336,10 @@
         <v>1075297</v>
       </c>
       <c r="D21" s="29" t="n">
+        <v>24.486</v>
+      </c>
+      <c r="E21" s="29" t="n">
         <v>26329770.78</v>
-      </c>
-      <c r="E21" s="29" t="n">
-        <v>24.486</v>
       </c>
       <c r="F21" s="29" t="n">
         <v>2020325.61</v>
@@ -2359,10 +2358,10 @@
         <v>1102829</v>
       </c>
       <c r="D22" s="29" t="n">
+        <v>24.2314</v>
+      </c>
+      <c r="E22" s="29" t="n">
         <v>26723064.1</v>
-      </c>
-      <c r="E22" s="29" t="n">
-        <v>24.2314</v>
       </c>
       <c r="F22" s="29" t="n">
         <v>1993664</v>
@@ -2381,10 +2380,10 @@
         <v>1084981</v>
       </c>
       <c r="D23" s="29" t="n">
+        <v>23.8738</v>
+      </c>
+      <c r="E23" s="29" t="n">
         <v>25902609.29</v>
-      </c>
-      <c r="E23" s="29" t="n">
-        <v>23.8738</v>
       </c>
       <c r="F23" s="29" t="n">
         <v>1909348</v>
@@ -2403,10 +2402,10 @@
         <v>1109073</v>
       </c>
       <c r="D24" s="29" t="n">
+        <v>23.4361</v>
+      </c>
+      <c r="E24" s="29" t="n">
         <v>25992318.57</v>
-      </c>
-      <c r="E24" s="29" t="n">
-        <v>23.4361</v>
       </c>
       <c r="F24" s="29" t="n">
         <v>2011499</v>
@@ -2425,10 +2424,10 @@
         <v>1126295</v>
       </c>
       <c r="D25" s="29" t="n">
+        <v>23.1681</v>
+      </c>
+      <c r="E25" s="29" t="n">
         <v>26094115.42</v>
-      </c>
-      <c r="E25" s="29" t="n">
-        <v>23.1681</v>
       </c>
       <c r="F25" s="29" t="n">
         <v>1947686</v>
@@ -2447,10 +2446,10 @@
         <v>1105156</v>
       </c>
       <c r="D26" s="29" t="n">
+        <v>23.4803</v>
+      </c>
+      <c r="E26" s="29" t="n">
         <v>25949436.58</v>
-      </c>
-      <c r="E26" s="29" t="n">
-        <v>23.4803</v>
       </c>
       <c r="F26" s="29" t="n">
         <v>2007782</v>
@@ -2469,10 +2468,10 @@
         <v>1100442</v>
       </c>
       <c r="D27" s="29" t="n">
+        <v>23.0459</v>
+      </c>
+      <c r="E27" s="29" t="n">
         <v>25360728.72</v>
-      </c>
-      <c r="E27" s="29" t="n">
-        <v>23.0459</v>
       </c>
       <c r="F27" s="29" t="n">
         <v>1975517</v>
@@ -2491,10 +2490,10 @@
         <v>1107796</v>
       </c>
       <c r="D28" s="29" t="n">
+        <v>22.3752</v>
+      </c>
+      <c r="E28" s="29" t="n">
         <v>24787213.8</v>
-      </c>
-      <c r="E28" s="29" t="n">
-        <v>22.3752</v>
       </c>
       <c r="F28" s="29" t="n">
         <v>2055846</v>
@@ -2513,10 +2512,10 @@
         <v>1122747</v>
       </c>
       <c r="D29" s="29" t="n">
+        <v>21.5177</v>
+      </c>
+      <c r="E29" s="29" t="n">
         <v>24158955.55</v>
-      </c>
-      <c r="E29" s="29" t="n">
-        <v>21.5177</v>
       </c>
       <c r="F29" s="29" t="n">
         <v>2025335</v>
@@ -2535,10 +2534,10 @@
         <v>1112954</v>
       </c>
       <c r="D30" s="29" t="n">
+        <v>20.9662</v>
+      </c>
+      <c r="E30" s="29" t="n">
         <v>23334441.76</v>
-      </c>
-      <c r="E30" s="29" t="n">
-        <v>20.9662</v>
       </c>
       <c r="F30" s="29" t="n">
         <v>1878891</v>
@@ -2557,10 +2556,10 @@
         <v>1041698</v>
       </c>
       <c r="D31" s="29" t="n">
+        <v>20.931</v>
+      </c>
+      <c r="E31" s="29" t="n">
         <v>21803736.22</v>
-      </c>
-      <c r="E31" s="29" t="n">
-        <v>20.931</v>
       </c>
       <c r="F31" s="29" t="n">
         <v>1754956</v>
@@ -2579,10 +2578,10 @@
         <v>1084547</v>
       </c>
       <c r="D32" s="29" t="n">
+        <v>20.0454</v>
+      </c>
+      <c r="E32" s="29" t="n">
         <v>21740162.77</v>
-      </c>
-      <c r="E32" s="29" t="n">
-        <v>20.0454</v>
       </c>
       <c r="F32" s="29" t="n">
         <v>1800627</v>
@@ -2601,10 +2600,10 @@
         <v>1076499</v>
       </c>
       <c r="D33" s="29" t="n">
+        <v>20.3041</v>
+      </c>
+      <c r="E33" s="29" t="n">
         <v>21857303.91</v>
-      </c>
-      <c r="E33" s="29" t="n">
-        <v>20.3041</v>
       </c>
       <c r="F33" s="29" t="n">
         <v>1634038</v>
@@ -2623,10 +2622,10 @@
         <v>1033052</v>
       </c>
       <c r="D34" s="29" t="n">
+        <v>19.4708</v>
+      </c>
+      <c r="E34" s="29" t="n">
         <v>20114336.07</v>
-      </c>
-      <c r="E34" s="29" t="n">
-        <v>19.4708</v>
       </c>
       <c r="F34" s="29" t="n">
         <v>1565905</v>
@@ -2645,10 +2644,10 @@
         <v>1015032</v>
       </c>
       <c r="D35" s="29" t="n">
+        <v>19.5524</v>
+      </c>
+      <c r="E35" s="29" t="n">
         <v>19846350.89</v>
-      </c>
-      <c r="E35" s="29" t="n">
-        <v>19.5524</v>
       </c>
       <c r="F35" s="29" t="n">
         <v>1553824.85</v>
@@ -2667,10 +2666,10 @@
         <v>966952</v>
       </c>
       <c r="D36" s="29" t="n">
+        <v>19.4161</v>
+      </c>
+      <c r="E36" s="29" t="n">
         <v>18774466.3</v>
-      </c>
-      <c r="E36" s="29" t="n">
-        <v>19.4161</v>
       </c>
       <c r="F36" s="29" t="n">
         <v>1636867.42</v>
@@ -2689,10 +2688,10 @@
         <v>940919</v>
       </c>
       <c r="D37" s="29" t="n">
+        <v>18.496</v>
+      </c>
+      <c r="E37" s="29" t="n">
         <v>17403260.72</v>
-      </c>
-      <c r="E37" s="29" t="n">
-        <v>18.496</v>
       </c>
       <c r="F37" s="29" t="n">
         <v>1483910.16</v>
@@ -2711,10 +2710,10 @@
         <v>873931</v>
       </c>
       <c r="D38" s="29" t="n">
+        <v>18.6413</v>
+      </c>
+      <c r="E38" s="29" t="n">
         <v>16291231.64</v>
-      </c>
-      <c r="E38" s="29" t="n">
-        <v>18.6413</v>
       </c>
       <c r="F38" s="29" t="n">
         <v>1411535.39</v>
@@ -2733,10 +2732,10 @@
         <v>943976</v>
       </c>
       <c r="D39" s="29" t="n">
+        <v>18.3714</v>
+      </c>
+      <c r="E39" s="29" t="n">
         <v>17342172.99</v>
-      </c>
-      <c r="E39" s="29" t="n">
-        <v>18.3714</v>
       </c>
       <c r="F39" s="29" t="n">
         <v>1332466</v>
@@ -2755,10 +2754,10 @@
         <v>950415</v>
       </c>
       <c r="D40" s="29" t="n">
+        <v>17.0953</v>
+      </c>
+      <c r="E40" s="29" t="n">
         <v>16247589.86</v>
-      </c>
-      <c r="E40" s="29" t="n">
-        <v>17.0953</v>
       </c>
       <c r="F40" s="29" t="n">
         <v>1194827.08</v>
@@ -2777,10 +2776,10 @@
         <v>963455</v>
       </c>
       <c r="D41" s="29" t="n">
+        <v>16.5573</v>
+      </c>
+      <c r="E41" s="29" t="n">
         <v>15952244.04</v>
-      </c>
-      <c r="E41" s="29" t="n">
-        <v>16.5573</v>
       </c>
       <c r="F41" s="29" t="n">
         <v>1104386</v>
@@ -2799,10 +2798,10 @@
         <v>960444</v>
       </c>
       <c r="D42" s="29" t="n">
+        <v>16.1988</v>
+      </c>
+      <c r="E42" s="29" t="n">
         <v>15558081.65</v>
-      </c>
-      <c r="E42" s="29" t="n">
-        <v>16.1988</v>
       </c>
       <c r="F42" s="29" t="n">
         <v>985695</v>
@@ -2821,10 +2820,10 @@
         <v>938723</v>
       </c>
       <c r="D43" s="29" t="n">
+        <v>15.7882</v>
+      </c>
+      <c r="E43" s="29" t="n">
         <v>14820768.74</v>
-      </c>
-      <c r="E43" s="29" t="n">
-        <v>15.7882</v>
       </c>
       <c r="F43" s="29" t="n">
         <v>945360</v>
@@ -2843,10 +2842,10 @@
         <v>907027</v>
       </c>
       <c r="D44" s="29" t="n">
+        <v>15.5455</v>
+      </c>
+      <c r="E44" s="29" t="n">
         <v>14100176.55</v>
-      </c>
-      <c r="E44" s="29" t="n">
-        <v>15.5455</v>
       </c>
       <c r="F44" s="29" t="n">
         <v>997685</v>
@@ -2865,10 +2864,10 @@
         <v>902716</v>
       </c>
       <c r="D45" s="29" t="n">
+        <v>15.1318</v>
+      </c>
+      <c r="E45" s="29" t="n">
         <v>13659735.69</v>
-      </c>
-      <c r="E45" s="29" t="n">
-        <v>15.1318</v>
       </c>
       <c r="F45" s="29" t="n">
         <v>822972</v>
@@ -2887,10 +2886,10 @@
         <v>894544</v>
       </c>
       <c r="D46" s="29" t="n">
+        <v>14.7126</v>
+      </c>
+      <c r="E46" s="29" t="n">
         <v>13161080</v>
-      </c>
-      <c r="E46" s="29" t="n">
-        <v>14.7126</v>
       </c>
       <c r="F46" s="29" t="n">
         <v>778920</v>
@@ -2909,10 +2908,10 @@
         <v>934331</v>
       </c>
       <c r="D47" s="29" t="n">
+        <v>15.552</v>
+      </c>
+      <c r="E47" s="29" t="n">
         <v>14530697</v>
-      </c>
-      <c r="E47" s="29" t="n">
-        <v>15.552</v>
       </c>
       <c r="F47" s="29" t="n">
         <v>664718</v>
@@ -2931,10 +2930,10 @@
         <v>888755</v>
       </c>
       <c r="D48" s="29" t="n">
+        <v>15.7816</v>
+      </c>
+      <c r="E48" s="29" t="n">
         <v>14025988</v>
-      </c>
-      <c r="E48" s="29" t="n">
-        <v>15.7816</v>
       </c>
       <c r="F48" s="29" t="n">
         <v>715956</v>
@@ -2953,10 +2952,10 @@
         <v>903429</v>
       </c>
       <c r="D49" s="29" t="n">
+        <v>15.5155</v>
+      </c>
+      <c r="E49" s="29" t="n">
         <v>14017118</v>
-      </c>
-      <c r="E49" s="29" t="n">
-        <v>15.5155</v>
       </c>
       <c r="F49" s="29" t="n">
         <v>690086</v>
@@ -2975,10 +2974,10 @@
         <v>877283</v>
       </c>
       <c r="D50" s="29" t="n">
+        <v>15.5252</v>
+      </c>
+      <c r="E50" s="29" t="n">
         <v>13619957</v>
-      </c>
-      <c r="E50" s="29" t="n">
-        <v>15.5252</v>
       </c>
       <c r="F50" s="29" t="n">
         <v>590348</v>
@@ -2997,10 +2996,10 @@
         <v>743902</v>
       </c>
       <c r="D51" s="29" t="n">
+        <v>14.9734</v>
+      </c>
+      <c r="E51" s="29" t="n">
         <v>11138777</v>
-      </c>
-      <c r="E51" s="29" t="n">
-        <v>14.9734</v>
       </c>
       <c r="F51" s="29" t="n">
         <v>576072</v>
@@ -3019,10 +3018,10 @@
         <v>713173</v>
       </c>
       <c r="D52" s="29" t="n">
+        <v>14.4559</v>
+      </c>
+      <c r="E52" s="29" t="n">
         <v>10309524</v>
-      </c>
-      <c r="E52" s="29" t="n">
-        <v>14.4559</v>
       </c>
       <c r="F52" s="29" t="n">
         <v>489349</v>
@@ -3041,10 +3040,10 @@
         <v>702862</v>
       </c>
       <c r="D53" s="29" t="n">
+        <v>14.7389</v>
+      </c>
+      <c r="E53" s="29" t="n">
         <v>10359427</v>
-      </c>
-      <c r="E53" s="29" t="n">
-        <v>14.7389</v>
       </c>
       <c r="F53" s="29" t="n">
         <v>464805</v>
@@ -3063,10 +3062,10 @@
         <v>650534</v>
       </c>
       <c r="D54" s="29" t="n">
+        <v>14.6909</v>
+      </c>
+      <c r="E54" s="29" t="n">
         <v>9556911</v>
-      </c>
-      <c r="E54" s="29" t="n">
-        <v>14.6909</v>
       </c>
       <c r="F54" s="29" t="n">
         <v>437753</v>
@@ -3085,10 +3084,10 @@
         <v>625474</v>
       </c>
       <c r="D55" s="29" t="n">
+        <v>14.0766</v>
+      </c>
+      <c r="E55" s="29" t="n">
         <v>8804553</v>
-      </c>
-      <c r="E55" s="29" t="n">
-        <v>14.0766</v>
       </c>
       <c r="F55" s="29" t="n">
         <v>429148</v>
@@ -3107,10 +3106,10 @@
         <v>623468</v>
       </c>
       <c r="D56" s="29" t="n">
+        <v>14.395</v>
+      </c>
+      <c r="E56" s="29" t="n">
         <v>8974794</v>
-      </c>
-      <c r="E56" s="29" t="n">
-        <v>14.395</v>
       </c>
       <c r="F56" s="29" t="n">
         <v>411646</v>
@@ -3129,10 +3128,10 @@
         <v>609337</v>
       </c>
       <c r="D57" s="29" t="n">
+        <v>13.9157</v>
+      </c>
+      <c r="E57" s="29" t="n">
         <v>8479339</v>
-      </c>
-      <c r="E57" s="29" t="n">
-        <v>13.9157</v>
       </c>
       <c r="F57" s="29" t="n">
         <v>420991</v>
@@ -3151,10 +3150,10 @@
         <v>561534</v>
       </c>
       <c r="D58" s="29" t="n">
+        <v>13.8688</v>
+      </c>
+      <c r="E58" s="29" t="n">
         <v>7787799</v>
-      </c>
-      <c r="E58" s="29" t="n">
-        <v>13.8688</v>
       </c>
       <c r="F58" s="29" t="n">
         <v>347295</v>
@@ -3173,10 +3172,10 @@
         <v>558741</v>
       </c>
       <c r="D59" s="29" t="n">
+        <v>14.0045</v>
+      </c>
+      <c r="E59" s="29" t="n">
         <v>7824891</v>
-      </c>
-      <c r="E59" s="29" t="n">
-        <v>14.0045</v>
       </c>
       <c r="F59" s="29" t="n">
         <v>368281</v>
@@ -3195,10 +3194,10 @@
         <v>532694</v>
       </c>
       <c r="D60" s="29" t="n">
+        <v>14.2293</v>
+      </c>
+      <c r="E60" s="29" t="n">
         <v>7579843</v>
-      </c>
-      <c r="E60" s="29" t="n">
-        <v>14.2293</v>
       </c>
       <c r="F60" s="29" t="n">
         <v>349530</v>
@@ -3217,10 +3216,10 @@
         <v>509872</v>
       </c>
       <c r="D61" s="29" t="n">
+        <v>13.637</v>
+      </c>
+      <c r="E61" s="29" t="n">
         <v>6953126</v>
-      </c>
-      <c r="E61" s="29" t="n">
-        <v>13.637</v>
       </c>
       <c r="F61" s="29" t="n">
         <v>327896</v>
@@ -3239,10 +3238,10 @@
         <v>518374</v>
       </c>
       <c r="D62" s="29" t="n">
+        <v>13.1533</v>
+      </c>
+      <c r="E62" s="29" t="n">
         <v>6818349</v>
-      </c>
-      <c r="E62" s="29" t="n">
-        <v>13.1533</v>
       </c>
       <c r="F62" s="29" t="n">
         <v>305015</v>
@@ -3261,10 +3260,10 @@
         <v>530105</v>
       </c>
       <c r="D63" s="29" t="n">
+        <v>13.3684</v>
+      </c>
+      <c r="E63" s="29" t="n">
         <v>7086642</v>
-      </c>
-      <c r="E63" s="29" t="n">
-        <v>13.3684</v>
       </c>
       <c r="F63" s="29" t="n">
         <v>311305</v>
@@ -3283,10 +3282,10 @@
         <v>526155</v>
       </c>
       <c r="D64" s="29" t="n">
+        <v>13.2584</v>
+      </c>
+      <c r="E64" s="29" t="n">
         <v>6975974</v>
-      </c>
-      <c r="E64" s="29" t="n">
-        <v>13.2584</v>
       </c>
       <c r="F64" s="29" t="n">
         <v>326392</v>
@@ -3305,10 +3304,10 @@
         <v>503180</v>
       </c>
       <c r="D65" s="29" t="n">
+        <v>12.9886</v>
+      </c>
+      <c r="E65" s="29" t="n">
         <v>6535621</v>
-      </c>
-      <c r="E65" s="29" t="n">
-        <v>12.9886</v>
       </c>
       <c r="F65" s="29" t="n">
         <v>303773</v>
@@ -3327,10 +3326,10 @@
         <v>548626</v>
       </c>
       <c r="D66" s="29" t="n">
+        <v>12.9383</v>
+      </c>
+      <c r="E66" s="29" t="n">
         <v>7098264</v>
-      </c>
-      <c r="E66" s="29" t="n">
-        <v>12.9383</v>
       </c>
       <c r="F66" s="29" t="n">
         <v>275298</v>
@@ -3349,10 +3348,10 @@
         <v>568164</v>
       </c>
       <c r="D67" s="29" t="n">
+        <v>12.8411</v>
+      </c>
+      <c r="E67" s="29" t="n">
         <v>7295854</v>
-      </c>
-      <c r="E67" s="29" t="n">
-        <v>12.8411</v>
       </c>
       <c r="F67" s="29" t="n">
         <v>239891</v>
@@ -3371,10 +3370,10 @@
         <v>550790</v>
       </c>
       <c r="D68" s="29" t="n">
+        <v>12.6897</v>
+      </c>
+      <c r="E68" s="29" t="n">
         <v>6989359</v>
-      </c>
-      <c r="E68" s="29" t="n">
-        <v>12.6897</v>
       </c>
       <c r="F68" s="29" t="n">
         <v>257020</v>
@@ -3392,10 +3391,10 @@
         <v>531871</v>
       </c>
       <c r="D69" s="29" t="n">
+        <v>12.6133</v>
+      </c>
+      <c r="E69" s="29" t="n">
         <v>6708665</v>
-      </c>
-      <c r="E69" s="29" t="n">
-        <v>12.6133</v>
       </c>
       <c r="F69" s="29" t="n">
         <v>231949</v>
@@ -3413,10 +3412,10 @@
         <v>539831</v>
       </c>
       <c r="D70" s="29" t="n">
+        <v>12.5791</v>
+      </c>
+      <c r="E70" s="29" t="n">
         <v>6790562</v>
-      </c>
-      <c r="E70" s="29" t="n">
-        <v>12.5791</v>
       </c>
       <c r="F70" s="29" t="n">
         <v>218732</v>
@@ -3434,10 +3433,10 @@
         <v>547815</v>
       </c>
       <c r="D71" s="29" t="n">
+        <v>12.1839</v>
+      </c>
+      <c r="E71" s="29" t="n">
         <v>6674515</v>
-      </c>
-      <c r="E71" s="29" t="n">
-        <v>12.1839</v>
       </c>
       <c r="F71" s="29" t="n">
         <v>207506</v>
@@ -3455,10 +3454,10 @@
         <v>556065</v>
       </c>
       <c r="D72" s="29" t="n">
+        <v>12.1433</v>
+      </c>
+      <c r="E72" s="29" t="n">
         <v>6752456</v>
-      </c>
-      <c r="E72" s="29" t="n">
-        <v>12.1433</v>
       </c>
       <c r="F72" s="29" t="n">
         <v>187491</v>
@@ -3476,10 +3475,10 @@
         <v>573658</v>
       </c>
       <c r="D73" s="29" t="n">
+        <v>11.6383</v>
+      </c>
+      <c r="E73" s="29" t="n">
         <v>6676427</v>
-      </c>
-      <c r="E73" s="29" t="n">
-        <v>11.6383</v>
       </c>
       <c r="F73" s="29" t="n">
         <v>167078</v>
@@ -3497,10 +3496,10 @@
         <v>627367</v>
       </c>
       <c r="D74" s="29" t="n">
+        <v>11.1465</v>
+      </c>
+      <c r="E74" s="29" t="n">
         <v>6992959</v>
-      </c>
-      <c r="E74" s="29" t="n">
-        <v>11.1465</v>
       </c>
       <c r="F74" s="29" t="n">
         <v>151274</v>
@@ -3787,8 +3786,8 @@
   </sheetPr>
   <dimension ref="B2:K34"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
@@ -3883,7 +3882,7 @@
     <row r="12">
       <c r="B12" s="29" t="inlineStr">
         <is>
-          <t>China, mainland</t>
+          <t>China, Continental</t>
         </is>
       </c>
       <c r="C12" s="29" t="n">
@@ -3925,7 +3924,7 @@
     <row r="15">
       <c r="B15" s="29" t="inlineStr">
         <is>
-          <t>Kazakhstan</t>
+          <t>Kazajstán</t>
         </is>
       </c>
       <c r="C15" s="29" t="n">
@@ -3939,7 +3938,7 @@
     <row r="16">
       <c r="B16" s="29" t="inlineStr">
         <is>
-          <t>Brazil</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="C16" s="29" t="n">
@@ -3967,7 +3966,7 @@
     <row r="18">
       <c r="B18" s="29" t="inlineStr">
         <is>
-          <t>Afghanistan</t>
+          <t>Afganistán</t>
         </is>
       </c>
       <c r="C18" s="29" t="n">
@@ -3981,7 +3980,7 @@
     <row r="19">
       <c r="B19" s="29" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>Italia</t>
         </is>
       </c>
       <c r="C19" s="29" t="n">
@@ -3995,7 +3994,7 @@
     <row r="20">
       <c r="B20" s="29" t="inlineStr">
         <is>
-          <t>Mexico</t>
+          <t>México</t>
         </is>
       </c>
       <c r="C20" s="29" t="n">
@@ -4009,7 +4008,7 @@
     <row r="21">
       <c r="B21" s="29" t="inlineStr">
         <is>
-          <t>Iran (Islamic Republic of)</t>
+          <t>Irán (República Islámica del)</t>
         </is>
       </c>
       <c r="C21" s="29" t="n">
@@ -4117,7 +4116,7 @@
   <dimension ref="B2:K45"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="Q25" sqref="Q25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
@@ -4230,7 +4229,7 @@
     <row r="13">
       <c r="B13" s="29" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>España</t>
         </is>
       </c>
       <c r="C13" s="29" t="n">
@@ -4244,7 +4243,7 @@
     <row r="14">
       <c r="B14" s="29" t="inlineStr">
         <is>
-          <t>Brazil</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="C14" s="29" t="n">
@@ -4272,7 +4271,7 @@
     <row r="16">
       <c r="B16" s="29" t="inlineStr">
         <is>
-          <t>United States of America</t>
+          <t>Estados Unidos de América</t>
         </is>
       </c>
       <c r="C16" s="29" t="n">
@@ -4286,7 +4285,7 @@
     <row r="17">
       <c r="B17" s="29" t="inlineStr">
         <is>
-          <t>Mexico</t>
+          <t>México</t>
         </is>
       </c>
       <c r="C17" s="29" t="n">
@@ -4300,7 +4299,7 @@
     <row r="18">
       <c r="B18" s="29" t="inlineStr">
         <is>
-          <t>Netherlands (Kingdom of the)</t>
+          <t>Países Bajos (Reino de los)</t>
         </is>
       </c>
       <c r="C18" s="29" t="n">
@@ -4314,7 +4313,7 @@
     <row r="19">
       <c r="B19" s="29" t="inlineStr">
         <is>
-          <t>China, mainland</t>
+          <t>China, Continental</t>
         </is>
       </c>
       <c r="C19" s="29" t="n">
@@ -4328,7 +4327,7 @@
     <row r="20">
       <c r="B20" s="29" t="inlineStr">
         <is>
-          <t>Morocco</t>
+          <t>Marruecos</t>
         </is>
       </c>
       <c r="C20" s="29" t="n">
@@ -4538,8 +4537,8 @@
   </sheetPr>
   <dimension ref="B2:K36"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
@@ -4634,7 +4633,7 @@
     <row r="12">
       <c r="B12" s="29" t="inlineStr">
         <is>
-          <t>United States of America</t>
+          <t>Estados Unidos de América</t>
         </is>
       </c>
       <c r="C12" s="29" t="n">
@@ -4648,7 +4647,7 @@
     <row r="13">
       <c r="B13" s="29" t="inlineStr">
         <is>
-          <t>Netherlands (Kingdom of the)</t>
+          <t>Países Bajos (Reino de los)</t>
         </is>
       </c>
       <c r="C13" s="29" t="n">
@@ -4662,7 +4661,7 @@
     <row r="14">
       <c r="B14" s="29" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>Alemania</t>
         </is>
       </c>
       <c r="C14" s="29" t="n">
@@ -4676,7 +4675,7 @@
     <row r="15">
       <c r="B15" s="29" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>Francia</t>
         </is>
       </c>
       <c r="C15" s="29" t="n">
@@ -4690,7 +4689,7 @@
     <row r="16">
       <c r="B16" s="29" t="inlineStr">
         <is>
-          <t>Canada</t>
+          <t>Canadá</t>
         </is>
       </c>
       <c r="C16" s="29" t="n">
@@ -4718,7 +4717,7 @@
     <row r="18">
       <c r="B18" s="29" t="inlineStr">
         <is>
-          <t>United Kingdom of Great Britain and Northern Ireland</t>
+          <t>Reino Unido de Gran Bretaña e Irlanda del Norte</t>
         </is>
       </c>
       <c r="C18" s="29" t="n">
@@ -4732,7 +4731,7 @@
     <row r="19">
       <c r="B19" s="29" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>España</t>
         </is>
       </c>
       <c r="C19" s="29" t="n">
@@ -4760,7 +4759,7 @@
     <row r="21">
       <c r="B21" s="29" t="inlineStr">
         <is>
-          <t>United Arab Emirates</t>
+          <t>Emiratos Árabes Unidos</t>
         </is>
       </c>
       <c r="C21" s="29" t="n">
@@ -4774,43 +4773,35 @@
     <row r="22">
       <c r="B22" s="29" t="inlineStr">
         <is>
-          <t>Mexico</t>
+          <t>Otros</t>
         </is>
       </c>
       <c r="C22" s="29" t="n">
-        <v>10283.6</v>
+        <v>523791.47</v>
       </c>
       <c r="D22" s="31" t="n">
-        <v>0.004692528949167792</v>
+        <v>0.239012275497117</v>
       </c>
       <c r="E22" s="29" t="n"/>
     </row>
     <row r="23">
       <c r="B23" s="29" t="inlineStr">
         <is>
-          <t>Otros</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C23" s="29" t="n">
-        <v>513507.8699999999</v>
+        <v>2191483.55</v>
       </c>
       <c r="D23" s="31" t="n">
-        <v>0.2343197465479492</v>
+        <v>1</v>
       </c>
       <c r="E23" s="29" t="n"/>
     </row>
     <row r="24">
-      <c r="B24" s="29" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="C24" s="29" t="n">
-        <v>2191483.55</v>
-      </c>
-      <c r="D24" s="31" t="n">
-        <v>1</v>
-      </c>
+      <c r="B24" s="29" t="n"/>
+      <c r="C24" s="29" t="n"/>
+      <c r="D24" s="31" t="n"/>
       <c r="E24" s="29" t="n"/>
     </row>
     <row r="25">
@@ -4820,59 +4811,58 @@
       <c r="E25" s="29" t="n"/>
     </row>
     <row r="26">
-      <c r="B26" s="29" t="n"/>
+      <c r="B26" s="15" t="n"/>
       <c r="C26" s="37" t="n"/>
-      <c r="D26" s="31" t="n"/>
-      <c r="E26" s="29" t="n"/>
+      <c r="D26" s="34" t="n"/>
     </row>
     <row r="27">
       <c r="B27" s="15" t="n"/>
-      <c r="C27" s="38" t="n"/>
+      <c r="C27" s="37" t="n"/>
       <c r="D27" s="34" t="n"/>
     </row>
     <row r="28">
       <c r="B28" s="15" t="n"/>
-      <c r="C28" s="38" t="n"/>
+      <c r="C28" s="37" t="n"/>
       <c r="D28" s="34" t="n"/>
     </row>
     <row r="29">
       <c r="B29" s="15" t="n"/>
-      <c r="C29" s="38" t="n"/>
+      <c r="C29" s="37" t="n"/>
       <c r="D29" s="34" t="n"/>
     </row>
     <row r="30">
       <c r="B30" s="15" t="n"/>
-      <c r="C30" s="38" t="n"/>
+      <c r="C30" s="37" t="n"/>
       <c r="D30" s="34" t="n"/>
     </row>
     <row r="31">
       <c r="B31" s="15" t="n"/>
-      <c r="C31" s="38" t="n"/>
+      <c r="C31" s="37" t="n"/>
       <c r="D31" s="34" t="n"/>
     </row>
     <row r="32">
       <c r="B32" s="15" t="n"/>
-      <c r="C32" s="38" t="n"/>
+      <c r="C32" s="37" t="n"/>
       <c r="D32" s="34" t="n"/>
     </row>
     <row r="33">
       <c r="B33" s="15" t="n"/>
-      <c r="C33" s="38" t="n"/>
+      <c r="C33" s="37" t="n"/>
       <c r="D33" s="34" t="n"/>
     </row>
     <row r="34">
       <c r="B34" s="15" t="n"/>
-      <c r="C34" s="38" t="n"/>
+      <c r="C34" s="37" t="n"/>
       <c r="D34" s="34" t="n"/>
     </row>
     <row r="35">
       <c r="B35" s="15" t="n"/>
-      <c r="C35" s="38" t="n"/>
+      <c r="C35" s="37" t="n"/>
       <c r="D35" s="36" t="n"/>
     </row>
     <row r="36">
       <c r="B36" s="15" t="n"/>
-      <c r="C36" s="38" t="n"/>
+      <c r="C36" s="37" t="n"/>
       <c r="D36" s="36" t="n"/>
     </row>
   </sheetData>
@@ -4942,7 +4932,7 @@
       <c r="B7" s="14" t="n"/>
       <c r="C7" s="5" t="inlineStr">
         <is>
-          <t>Estadísticas del mercado mundial</t>
+          <t>Estadísticas del mercado mundial de (Producto)</t>
         </is>
       </c>
       <c r="D7" s="14" t="n"/>
@@ -5021,10 +5011,10 @@
         <v>392183</v>
       </c>
       <c r="D12" s="29" t="n">
+        <v>36.8571</v>
+      </c>
+      <c r="E12" s="29" t="n">
         <v>14454741.27</v>
-      </c>
-      <c r="E12" s="29" t="n">
-        <v>36.8571</v>
       </c>
       <c r="F12" s="29" t="n">
         <v>4652.87</v>
@@ -5043,10 +5033,10 @@
         <v>388816</v>
       </c>
       <c r="D13" s="29" t="n">
+        <v>36.5058</v>
+      </c>
+      <c r="E13" s="29" t="n">
         <v>14194049.42</v>
-      </c>
-      <c r="E13" s="29" t="n">
-        <v>36.5058</v>
       </c>
       <c r="F13" s="29" t="n">
         <v>2486.28</v>
@@ -5065,10 +5055,10 @@
         <v>382854</v>
       </c>
       <c r="D14" s="29" t="n">
+        <v>36.5864</v>
+      </c>
+      <c r="E14" s="29" t="n">
         <v>14007257.43</v>
-      </c>
-      <c r="E14" s="29" t="n">
-        <v>36.5864</v>
       </c>
       <c r="F14" s="29" t="n">
         <v>291.18</v>
@@ -5087,10 +5077,10 @@
         <v>384699</v>
       </c>
       <c r="D15" s="29" t="n">
+        <v>35.9016</v>
+      </c>
+      <c r="E15" s="29" t="n">
         <v>13811294.56</v>
-      </c>
-      <c r="E15" s="29" t="n">
-        <v>35.9016</v>
       </c>
       <c r="F15" s="29" t="n">
         <v>145.54</v>
@@ -5109,10 +5099,10 @@
         <v>383712</v>
       </c>
       <c r="D16" s="29" t="n">
+        <v>35.29069999999999</v>
+      </c>
+      <c r="E16" s="29" t="n">
         <v>13541452</v>
-      </c>
-      <c r="E16" s="29" t="n">
-        <v>35.29069999999999</v>
       </c>
       <c r="F16" s="29" t="n">
         <v>134.71</v>
@@ -5131,10 +5121,10 @@
         <v>380585</v>
       </c>
       <c r="D17" s="29" t="n">
+        <v>34.5765</v>
+      </c>
+      <c r="E17" s="29" t="n">
         <v>13159300</v>
-      </c>
-      <c r="E17" s="29" t="n">
-        <v>34.5765</v>
       </c>
       <c r="F17" s="29" t="n">
         <v>15.24</v>
@@ -5153,10 +5143,10 @@
         <v>348820</v>
       </c>
       <c r="D18" s="29" t="n">
+        <v>35.3377</v>
+      </c>
+      <c r="E18" s="29" t="n">
         <v>12326500</v>
-      </c>
-      <c r="E18" s="29" t="n">
-        <v>35.3377</v>
       </c>
       <c r="F18" s="29" t="n">
         <v>8.109999999999999</v>
@@ -5175,10 +5165,10 @@
         <v>345930</v>
       </c>
       <c r="D19" s="29" t="n">
+        <v>34.3318</v>
+      </c>
+      <c r="E19" s="29" t="n">
         <v>11876400</v>
-      </c>
-      <c r="E19" s="29" t="n">
-        <v>34.3318</v>
       </c>
       <c r="F19" s="29" t="n">
         <v>4.79</v>
@@ -5197,10 +5187,10 @@
         <v>345560</v>
       </c>
       <c r="D20" s="29" t="n">
+        <v>32.3521</v>
+      </c>
+      <c r="E20" s="29" t="n">
         <v>11179600</v>
-      </c>
-      <c r="E20" s="29" t="n">
-        <v>32.3521</v>
       </c>
       <c r="F20" s="29" t="n">
         <v>50.16</v>
@@ -5219,10 +5209,10 @@
         <v>335190</v>
       </c>
       <c r="D21" s="29" t="n">
+        <v>32.992</v>
+      </c>
+      <c r="E21" s="29" t="n">
         <v>11058600</v>
-      </c>
-      <c r="E21" s="29" t="n">
-        <v>32.992</v>
       </c>
       <c r="F21" s="29" t="n">
         <v>12.76</v>
@@ -5241,10 +5231,10 @@
         <v>336230</v>
       </c>
       <c r="D22" s="29" t="n">
+        <v>33.3807</v>
+      </c>
+      <c r="E22" s="29" t="n">
         <v>11223600</v>
-      </c>
-      <c r="E22" s="29" t="n">
-        <v>33.3807</v>
       </c>
       <c r="F22" s="29" t="n">
         <v>2772</v>
@@ -5263,10 +5253,10 @@
         <v>333910</v>
       </c>
       <c r="D23" s="29" t="n">
+        <v>32.0488</v>
+      </c>
+      <c r="E23" s="29" t="n">
         <v>10701400</v>
-      </c>
-      <c r="E23" s="29" t="n">
-        <v>32.0488</v>
       </c>
       <c r="F23" s="29" t="n">
         <v>3681</v>
@@ -5285,10 +5275,10 @@
         <v>346300</v>
       </c>
       <c r="D24" s="29" t="n">
+        <v>31.4461</v>
+      </c>
+      <c r="E24" s="29" t="n">
         <v>10889800</v>
-      </c>
-      <c r="E24" s="29" t="n">
-        <v>31.4461</v>
       </c>
       <c r="F24" s="29" t="n">
         <v>3514</v>
@@ -5307,10 +5297,10 @@
         <v>354540</v>
       </c>
       <c r="D25" s="29" t="n">
+        <v>30.6315</v>
+      </c>
+      <c r="E25" s="29" t="n">
         <v>10860100</v>
-      </c>
-      <c r="E25" s="29" t="n">
-        <v>30.6315</v>
       </c>
       <c r="F25" s="29" t="n">
         <v>2020</v>
@@ -5329,10 +5319,10 @@
         <v>339670</v>
       </c>
       <c r="D26" s="29" t="n">
+        <v>31.646</v>
+      </c>
+      <c r="E26" s="29" t="n">
         <v>10749200</v>
-      </c>
-      <c r="E26" s="29" t="n">
-        <v>31.646</v>
       </c>
       <c r="F26" s="29" t="n">
         <v>2260</v>
@@ -5351,10 +5341,10 @@
         <v>335660</v>
       </c>
       <c r="D27" s="29" t="n">
+        <v>31.6824</v>
+      </c>
+      <c r="E27" s="29" t="n">
         <v>10634500</v>
-      </c>
-      <c r="E27" s="29" t="n">
-        <v>31.6824</v>
       </c>
       <c r="F27" s="29" t="n">
         <v>1413</v>
@@ -5373,10 +5363,10 @@
         <v>336320</v>
       </c>
       <c r="D28" s="29" t="n">
+        <v>28.6343</v>
+      </c>
+      <c r="E28" s="29" t="n">
         <v>9630300</v>
-      </c>
-      <c r="E28" s="29" t="n">
-        <v>28.6343</v>
       </c>
       <c r="F28" s="29" t="n">
         <v>3</v>
@@ -5395,10 +5385,10 @@
         <v>346420</v>
       </c>
       <c r="D29" s="29" t="n">
+        <v>27.4401</v>
+      </c>
+      <c r="E29" s="29" t="n">
         <v>9505800</v>
-      </c>
-      <c r="E29" s="29" t="n">
-        <v>27.4401</v>
       </c>
       <c r="F29" s="29" t="n">
         <v>11</v>
@@ -5417,10 +5407,10 @@
         <v>338940</v>
       </c>
       <c r="D30" s="29" t="n">
+        <v>26.0391</v>
+      </c>
+      <c r="E30" s="29" t="n">
         <v>8825700</v>
-      </c>
-      <c r="E30" s="29" t="n">
-        <v>26.0391</v>
       </c>
       <c r="F30" s="29" t="n">
         <v>9</v>
@@ -5439,10 +5429,10 @@
         <v>319420</v>
       </c>
       <c r="D31" s="29" t="n">
+        <v>25.2464</v>
+      </c>
+      <c r="E31" s="29" t="n">
         <v>8064200</v>
-      </c>
-      <c r="E31" s="29" t="n">
-        <v>25.2464</v>
       </c>
       <c r="F31" s="29" t="n">
         <v>0</v>
@@ -5461,10 +5451,10 @@
         <v>355380</v>
       </c>
       <c r="D32" s="29" t="n">
+        <v>23.1929</v>
+      </c>
+      <c r="E32" s="29" t="n">
         <v>8242300</v>
-      </c>
-      <c r="E32" s="29" t="n">
-        <v>23.1929</v>
       </c>
       <c r="F32" s="29" t="n">
         <v>0</v>
@@ -5483,10 +5473,10 @@
         <v>366840</v>
       </c>
       <c r="D33" s="29" t="n">
+        <v>23.5743</v>
+      </c>
+      <c r="E33" s="29" t="n">
         <v>8648000</v>
-      </c>
-      <c r="E33" s="29" t="n">
-        <v>23.5743</v>
       </c>
       <c r="F33" s="29" t="n">
         <v>0</v>
@@ -5505,10 +5495,10 @@
         <v>329910</v>
       </c>
       <c r="D34" s="29" t="n">
+        <v>22.5067</v>
+      </c>
+      <c r="E34" s="29" t="n">
         <v>7425200</v>
-      </c>
-      <c r="E34" s="29" t="n">
-        <v>22.5067</v>
       </c>
       <c r="F34" s="29" t="n">
         <v>15</v>
@@ -5527,10 +5517,10 @@
         <v>309180</v>
       </c>
       <c r="D35" s="29" t="n">
+        <v>23.4281</v>
+      </c>
+      <c r="E35" s="29" t="n">
         <v>7243508</v>
-      </c>
-      <c r="E35" s="29" t="n">
-        <v>23.4281</v>
       </c>
       <c r="F35" s="29" t="n">
         <v>54.26</v>
@@ -5549,10 +5539,10 @@
         <v>234130</v>
       </c>
       <c r="D36" s="29" t="n">
+        <v>24.632</v>
+      </c>
+      <c r="E36" s="29" t="n">
         <v>5767100</v>
-      </c>
-      <c r="E36" s="29" t="n">
-        <v>24.632</v>
       </c>
       <c r="F36" s="29" t="n">
         <v>84</v>
@@ -5571,10 +5561,10 @@
         <v>199870</v>
       </c>
       <c r="D37" s="29" t="n">
+        <v>24.3512</v>
+      </c>
+      <c r="E37" s="29" t="n">
         <v>4867079</v>
-      </c>
-      <c r="E37" s="29" t="n">
-        <v>24.3512</v>
       </c>
       <c r="F37" s="29" t="n">
         <v>426</v>
@@ -5593,10 +5583,10 @@
         <v>158950</v>
       </c>
       <c r="D38" s="29" t="n">
+        <v>27.543</v>
+      </c>
+      <c r="E38" s="29" t="n">
         <v>4377959</v>
-      </c>
-      <c r="E38" s="29" t="n">
-        <v>27.543</v>
       </c>
       <c r="F38" s="29" t="n">
         <v>511</v>
@@ -5615,10 +5605,10 @@
         <v>242360</v>
       </c>
       <c r="D39" s="29" t="n">
+        <v>22.9826</v>
+      </c>
+      <c r="E39" s="29" t="n">
         <v>5570060</v>
-      </c>
-      <c r="E39" s="29" t="n">
-        <v>22.9826</v>
       </c>
       <c r="F39" s="29" t="n">
         <v>128</v>
@@ -5637,10 +5627,10 @@
         <v>236470</v>
       </c>
       <c r="D40" s="29" t="n">
+        <v>21.1443</v>
+      </c>
+      <c r="E40" s="29" t="n">
         <v>5000000</v>
-      </c>
-      <c r="E40" s="29" t="n">
-        <v>21.1443</v>
       </c>
       <c r="F40" s="29" t="n">
         <v>27</v>
@@ -5659,10 +5649,10 @@
         <v>254000</v>
       </c>
       <c r="D41" s="29" t="n">
+        <v>18.5039</v>
+      </c>
+      <c r="E41" s="29" t="n">
         <v>4700000</v>
-      </c>
-      <c r="E41" s="29" t="n">
-        <v>18.5039</v>
       </c>
       <c r="F41" s="29" t="n">
         <v>0</v>
@@ -5681,10 +5671,10 @@
         <v>253000</v>
       </c>
       <c r="D42" s="29" t="n">
+        <v>18.1818</v>
+      </c>
+      <c r="E42" s="29" t="n">
         <v>4600000</v>
-      </c>
-      <c r="E42" s="29" t="n">
-        <v>18.1818</v>
       </c>
       <c r="F42" s="29" t="n">
         <v>0</v>
@@ -5703,10 +5693,10 @@
         <v>200000</v>
       </c>
       <c r="D43" s="29" t="n">
+        <v>19</v>
+      </c>
+      <c r="E43" s="29" t="n">
         <v>3800000</v>
-      </c>
-      <c r="E43" s="29" t="n">
-        <v>19</v>
       </c>
       <c r="F43" s="29" t="n">
         <v>24</v>
@@ -5725,10 +5715,10 @@
         <v>176000</v>
       </c>
       <c r="D44" s="29" t="n">
+        <v>17.0455</v>
+      </c>
+      <c r="E44" s="29" t="n">
         <v>3000000</v>
-      </c>
-      <c r="E44" s="29" t="n">
-        <v>17.0455</v>
       </c>
       <c r="F44" s="29" t="n">
         <v>4</v>
@@ -5747,10 +5737,10 @@
         <v>166000</v>
       </c>
       <c r="D45" s="29" t="n">
+        <v>17.4699</v>
+      </c>
+      <c r="E45" s="29" t="n">
         <v>2900000</v>
-      </c>
-      <c r="E45" s="29" t="n">
-        <v>17.4699</v>
       </c>
       <c r="F45" s="29" t="n">
         <v>1</v>
@@ -5769,10 +5759,10 @@
         <v>220000</v>
       </c>
       <c r="D46" s="29" t="n">
+        <v>15.9091</v>
+      </c>
+      <c r="E46" s="29" t="n">
         <v>3500000</v>
-      </c>
-      <c r="E46" s="29" t="n">
-        <v>15.9091</v>
       </c>
       <c r="F46" s="29" t="n">
         <v>4</v>
@@ -5791,10 +5781,10 @@
         <v>260000</v>
       </c>
       <c r="D47" s="29" t="n">
+        <v>16.1538</v>
+      </c>
+      <c r="E47" s="29" t="n">
         <v>4200000</v>
-      </c>
-      <c r="E47" s="29" t="n">
-        <v>16.1538</v>
       </c>
       <c r="F47" s="29" t="n">
         <v>5</v>
@@ -5813,10 +5803,10 @@
         <v>260000</v>
       </c>
       <c r="D48" s="29" t="n">
+        <v>15.7692</v>
+      </c>
+      <c r="E48" s="29" t="n">
         <v>4100000</v>
-      </c>
-      <c r="E48" s="29" t="n">
-        <v>15.7692</v>
       </c>
       <c r="F48" s="29" t="n">
         <v>2</v>
@@ -5835,10 +5825,10 @@
         <v>230000</v>
       </c>
       <c r="D49" s="29" t="n">
+        <v>15.6522</v>
+      </c>
+      <c r="E49" s="29" t="n">
         <v>3600000</v>
-      </c>
-      <c r="E49" s="29" t="n">
-        <v>15.6522</v>
       </c>
       <c r="F49" s="29" t="n">
         <v>0</v>
@@ -5857,10 +5847,10 @@
         <v>212000</v>
       </c>
       <c r="D50" s="29" t="n">
+        <v>15.566</v>
+      </c>
+      <c r="E50" s="29" t="n">
         <v>3300000</v>
-      </c>
-      <c r="E50" s="29" t="n">
-        <v>15.566</v>
       </c>
       <c r="F50" s="29" t="n">
         <v>0</v>
@@ -5879,10 +5869,10 @@
         <v>135000</v>
       </c>
       <c r="D51" s="29" t="n">
+        <v>15.5556</v>
+      </c>
+      <c r="E51" s="29" t="n">
         <v>2100000</v>
-      </c>
-      <c r="E51" s="29" t="n">
-        <v>15.5556</v>
       </c>
       <c r="F51" s="29" t="n">
         <v>0</v>
@@ -5901,10 +5891,10 @@
         <v>125000</v>
       </c>
       <c r="D52" s="29" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="E52" s="29" t="n">
         <v>1900000</v>
-      </c>
-      <c r="E52" s="29" t="n">
-        <v>15.2</v>
       </c>
       <c r="F52" s="29" t="n">
         <v>0</v>
@@ -5923,10 +5913,10 @@
         <v>115000</v>
       </c>
       <c r="D53" s="29" t="n">
+        <v>15.6522</v>
+      </c>
+      <c r="E53" s="29" t="n">
         <v>1800000</v>
-      </c>
-      <c r="E53" s="29" t="n">
-        <v>15.6522</v>
       </c>
       <c r="F53" s="29" t="n">
         <v>0</v>
@@ -5945,10 +5935,10 @@
         <v>105000</v>
       </c>
       <c r="D54" s="29" t="n">
+        <v>16.0952</v>
+      </c>
+      <c r="E54" s="29" t="n">
         <v>1690000</v>
-      </c>
-      <c r="E54" s="29" t="n">
-        <v>16.0952</v>
       </c>
       <c r="F54" s="29" t="n">
         <v>0</v>
@@ -5967,10 +5957,10 @@
         <v>95000</v>
       </c>
       <c r="D55" s="29" t="n">
+        <v>15</v>
+      </c>
+      <c r="E55" s="29" t="n">
         <v>1425000</v>
-      </c>
-      <c r="E55" s="29" t="n">
-        <v>15</v>
       </c>
       <c r="F55" s="29" t="n">
         <v>0</v>
@@ -5989,10 +5979,10 @@
         <v>95000</v>
       </c>
       <c r="D56" s="29" t="n">
+        <v>14.7368</v>
+      </c>
+      <c r="E56" s="29" t="n">
         <v>1400000</v>
-      </c>
-      <c r="E56" s="29" t="n">
-        <v>14.7368</v>
       </c>
       <c r="F56" s="29" t="n">
         <v>0</v>
@@ -6011,10 +6001,10 @@
         <v>97000</v>
       </c>
       <c r="D57" s="29" t="n">
+        <v>14.433</v>
+      </c>
+      <c r="E57" s="29" t="n">
         <v>1400000</v>
-      </c>
-      <c r="E57" s="29" t="n">
-        <v>14.433</v>
       </c>
       <c r="F57" s="29" t="n">
         <v>0</v>
@@ -6033,10 +6023,10 @@
         <v>92000</v>
       </c>
       <c r="D58" s="29" t="n">
+        <v>14.6739</v>
+      </c>
+      <c r="E58" s="29" t="n">
         <v>1350000</v>
-      </c>
-      <c r="E58" s="29" t="n">
-        <v>14.6739</v>
       </c>
       <c r="F58" s="29" t="n">
         <v>0</v>
@@ -6055,10 +6045,10 @@
         <v>87000</v>
       </c>
       <c r="D59" s="29" t="n">
+        <v>14.7126</v>
+      </c>
+      <c r="E59" s="29" t="n">
         <v>1280000</v>
-      </c>
-      <c r="E59" s="29" t="n">
-        <v>14.7126</v>
       </c>
       <c r="F59" s="29" t="n">
         <v>0</v>
@@ -6077,10 +6067,10 @@
         <v>87000</v>
       </c>
       <c r="D60" s="29" t="n">
+        <v>14.7126</v>
+      </c>
+      <c r="E60" s="29" t="n">
         <v>1280000</v>
-      </c>
-      <c r="E60" s="29" t="n">
-        <v>14.7126</v>
       </c>
       <c r="F60" s="29" t="n">
         <v>0</v>
@@ -6099,10 +6089,10 @@
         <v>87000</v>
       </c>
       <c r="D61" s="29" t="n">
+        <v>14.8276</v>
+      </c>
+      <c r="E61" s="29" t="n">
         <v>1290000</v>
-      </c>
-      <c r="E61" s="29" t="n">
-        <v>14.8276</v>
       </c>
       <c r="F61" s="29" t="n">
         <v>0</v>
@@ -6121,10 +6111,10 @@
         <v>87000</v>
       </c>
       <c r="D62" s="29" t="n">
+        <v>14.7126</v>
+      </c>
+      <c r="E62" s="29" t="n">
         <v>1280000</v>
-      </c>
-      <c r="E62" s="29" t="n">
-        <v>14.7126</v>
       </c>
       <c r="F62" s="29" t="n">
         <v>0</v>
@@ -6143,10 +6133,10 @@
         <v>80000</v>
       </c>
       <c r="D63" s="29" t="n">
+        <v>14.375</v>
+      </c>
+      <c r="E63" s="29" t="n">
         <v>1150000</v>
-      </c>
-      <c r="E63" s="29" t="n">
-        <v>14.375</v>
       </c>
       <c r="F63" s="29" t="n">
         <v>0</v>
@@ -6165,10 +6155,10 @@
         <v>80000</v>
       </c>
       <c r="D64" s="29" t="n">
+        <v>15.25</v>
+      </c>
+      <c r="E64" s="29" t="n">
         <v>1220000</v>
-      </c>
-      <c r="E64" s="29" t="n">
-        <v>15.25</v>
       </c>
       <c r="F64" s="29" t="n">
         <v>0</v>
@@ -6187,10 +6177,10 @@
         <v>70000</v>
       </c>
       <c r="D65" s="29" t="n">
+        <v>15.0714</v>
+      </c>
+      <c r="E65" s="29" t="n">
         <v>1055000</v>
-      </c>
-      <c r="E65" s="29" t="n">
-        <v>15.0714</v>
       </c>
       <c r="F65" s="29" t="n">
         <v>0</v>
@@ -6209,10 +6199,10 @@
         <v>105000</v>
       </c>
       <c r="D66" s="29" t="n">
+        <v>14.2857</v>
+      </c>
+      <c r="E66" s="29" t="n">
         <v>1500000</v>
-      </c>
-      <c r="E66" s="29" t="n">
-        <v>14.2857</v>
       </c>
       <c r="F66" s="29" t="n">
         <v>0</v>
@@ -6231,10 +6221,10 @@
         <v>105000</v>
       </c>
       <c r="D67" s="29" t="n">
+        <v>13.8095</v>
+      </c>
+      <c r="E67" s="29" t="n">
         <v>1450000</v>
-      </c>
-      <c r="E67" s="29" t="n">
-        <v>13.8095</v>
       </c>
       <c r="F67" s="29" t="n">
         <v>0</v>
@@ -6253,10 +6243,10 @@
         <v>110000</v>
       </c>
       <c r="D68" s="29" t="n">
+        <v>12.7273</v>
+      </c>
+      <c r="E68" s="29" t="n">
         <v>1400000</v>
-      </c>
-      <c r="E68" s="29" t="n">
-        <v>12.7273</v>
       </c>
       <c r="F68" s="29" t="n">
         <v>0</v>
@@ -6274,10 +6264,10 @@
         <v>110000</v>
       </c>
       <c r="D69" s="29" t="n">
+        <v>12.6364</v>
+      </c>
+      <c r="E69" s="29" t="n">
         <v>1390000</v>
-      </c>
-      <c r="E69" s="29" t="n">
-        <v>12.6364</v>
       </c>
       <c r="F69" s="29" t="n">
         <v>0</v>
@@ -6295,10 +6285,10 @@
         <v>115000</v>
       </c>
       <c r="D70" s="29" t="n">
+        <v>12.6087</v>
+      </c>
+      <c r="E70" s="29" t="n">
         <v>1450000</v>
-      </c>
-      <c r="E70" s="29" t="n">
-        <v>12.6087</v>
       </c>
       <c r="F70" s="29" t="n">
         <v>0</v>
@@ -6316,10 +6306,10 @@
         <v>115000</v>
       </c>
       <c r="D71" s="29" t="n">
+        <v>12</v>
+      </c>
+      <c r="E71" s="29" t="n">
         <v>1380000</v>
-      </c>
-      <c r="E71" s="29" t="n">
-        <v>12</v>
       </c>
       <c r="F71" s="29" t="n">
         <v>0</v>
@@ -6337,10 +6327,10 @@
         <v>130000</v>
       </c>
       <c r="D72" s="29" t="n">
+        <v>11.8846</v>
+      </c>
+      <c r="E72" s="29" t="n">
         <v>1545000</v>
-      </c>
-      <c r="E72" s="29" t="n">
-        <v>11.8846</v>
       </c>
       <c r="F72" s="29" t="n">
         <v>0</v>
@@ -6358,10 +6348,10 @@
         <v>150000</v>
       </c>
       <c r="D73" s="29" t="n">
+        <v>11.5333</v>
+      </c>
+      <c r="E73" s="29" t="n">
         <v>1730000</v>
-      </c>
-      <c r="E73" s="29" t="n">
-        <v>11.5333</v>
       </c>
       <c r="F73" s="29" t="n">
         <v>0</v>
@@ -6379,10 +6369,10 @@
         <v>210000</v>
       </c>
       <c r="D74" s="29" t="n">
+        <v>10.7619</v>
+      </c>
+      <c r="E74" s="29" t="n">
         <v>2260000</v>
-      </c>
-      <c r="E74" s="29" t="n">
-        <v>10.7619</v>
       </c>
       <c r="F74" s="29" t="n">
         <v>0</v>
@@ -6718,7 +6708,7 @@
       <c r="B7" s="14" t="n"/>
       <c r="C7" s="5" t="inlineStr">
         <is>
-          <t>Estadísticas del mercado mundial</t>
+          <t>Estadísticas del mercado mundial de (Producto)</t>
         </is>
       </c>
       <c r="D7" s="14" t="n"/>
@@ -6797,10 +6787,10 @@
         <v>68000</v>
       </c>
       <c r="D12" s="29" t="n">
+        <v>22.0294</v>
+      </c>
+      <c r="E12" s="29" t="n">
         <v>1498000</v>
-      </c>
-      <c r="E12" s="29" t="n">
-        <v>22.0294</v>
       </c>
       <c r="F12" s="29" t="n">
         <v>213.48</v>
@@ -6819,10 +6809,10 @@
         <v>68000</v>
       </c>
       <c r="D13" s="29" t="n">
+        <v>22.0294</v>
+      </c>
+      <c r="E13" s="29" t="n">
         <v>1498000</v>
-      </c>
-      <c r="E13" s="29" t="n">
-        <v>22.0294</v>
       </c>
       <c r="F13" s="29" t="n">
         <v>436.73</v>
@@ -6841,10 +6831,10 @@
         <v>75000</v>
       </c>
       <c r="D14" s="29" t="n">
+        <v>19.7067</v>
+      </c>
+      <c r="E14" s="29" t="n">
         <v>1478000</v>
-      </c>
-      <c r="E14" s="29" t="n">
-        <v>19.7067</v>
       </c>
       <c r="F14" s="29" t="n">
         <v>63.57</v>
@@ -6863,10 +6853,10 @@
         <v>61000</v>
       </c>
       <c r="D15" s="29" t="n">
+        <v>22.4262</v>
+      </c>
+      <c r="E15" s="29" t="n">
         <v>1368000</v>
-      </c>
-      <c r="E15" s="29" t="n">
-        <v>22.4262</v>
       </c>
       <c r="F15" s="29" t="n">
         <v>84.63</v>
@@ -6885,10 +6875,10 @@
         <v>57000</v>
       </c>
       <c r="D16" s="29" t="n">
+        <v>22.2105</v>
+      </c>
+      <c r="E16" s="29" t="n">
         <v>1266000</v>
-      </c>
-      <c r="E16" s="29" t="n">
-        <v>22.2105</v>
       </c>
       <c r="F16" s="29" t="n">
         <v>258.75</v>
@@ -6907,10 +6897,10 @@
         <v>54000</v>
       </c>
       <c r="D17" s="29" t="n">
+        <v>22.7963</v>
+      </c>
+      <c r="E17" s="29" t="n">
         <v>1231000</v>
-      </c>
-      <c r="E17" s="29" t="n">
-        <v>22.7963</v>
       </c>
       <c r="F17" s="29" t="n">
         <v>451.19</v>
@@ -6929,10 +6919,10 @@
         <v>50000</v>
       </c>
       <c r="D18" s="29" t="n">
+        <v>21.94</v>
+      </c>
+      <c r="E18" s="29" t="n">
         <v>1097000</v>
-      </c>
-      <c r="E18" s="29" t="n">
-        <v>21.94</v>
       </c>
       <c r="F18" s="29" t="n">
         <v>591.63</v>
@@ -6951,10 +6941,10 @@
         <v>45000</v>
       </c>
       <c r="D19" s="29" t="n">
+        <v>20.7778</v>
+      </c>
+      <c r="E19" s="29" t="n">
         <v>935000</v>
-      </c>
-      <c r="E19" s="29" t="n">
-        <v>20.7778</v>
       </c>
       <c r="F19" s="29" t="n">
         <v>533.5599999999999</v>
@@ -6973,10 +6963,10 @@
         <v>42000</v>
       </c>
       <c r="D20" s="29" t="n">
+        <v>20.5476</v>
+      </c>
+      <c r="E20" s="29" t="n">
         <v>863000</v>
-      </c>
-      <c r="E20" s="29" t="n">
-        <v>20.5476</v>
       </c>
       <c r="F20" s="29" t="n">
         <v>400.55</v>
@@ -6995,10 +6985,10 @@
         <v>37000</v>
       </c>
       <c r="D21" s="29" t="n">
+        <v>20.5676</v>
+      </c>
+      <c r="E21" s="29" t="n">
         <v>761000</v>
-      </c>
-      <c r="E21" s="29" t="n">
-        <v>20.5676</v>
       </c>
       <c r="F21" s="29" t="n">
         <v>326.34</v>
@@ -7017,10 +7007,10 @@
         <v>42000</v>
       </c>
       <c r="D22" s="29" t="n">
+        <v>20.6667</v>
+      </c>
+      <c r="E22" s="29" t="n">
         <v>868000</v>
-      </c>
-      <c r="E22" s="29" t="n">
-        <v>20.6667</v>
       </c>
       <c r="F22" s="29" t="n">
         <v>384</v>
@@ -7039,10 +7029,10 @@
         <v>38000</v>
       </c>
       <c r="D23" s="29" t="n">
+        <v>20.8158</v>
+      </c>
+      <c r="E23" s="29" t="n">
         <v>791000</v>
-      </c>
-      <c r="E23" s="29" t="n">
-        <v>20.8158</v>
       </c>
       <c r="F23" s="29" t="n">
         <v>63</v>
@@ -7061,10 +7051,10 @@
         <v>39500</v>
       </c>
       <c r="D24" s="29" t="n">
+        <v>18.7316</v>
+      </c>
+      <c r="E24" s="29" t="n">
         <v>739900</v>
-      </c>
-      <c r="E24" s="29" t="n">
-        <v>18.7316</v>
       </c>
       <c r="F24" s="29" t="n">
         <v>193</v>
@@ -7083,10 +7073,10 @@
         <v>42469</v>
       </c>
       <c r="D25" s="29" t="n">
+        <v>21.9381</v>
+      </c>
+      <c r="E25" s="29" t="n">
         <v>931687.99</v>
-      </c>
-      <c r="E25" s="29" t="n">
-        <v>21.9381</v>
       </c>
       <c r="F25" s="29" t="n">
         <v>389</v>
@@ -7105,10 +7095,10 @@
         <v>41391</v>
       </c>
       <c r="D26" s="29" t="n">
+        <v>21.8416</v>
+      </c>
+      <c r="E26" s="29" t="n">
         <v>904054.36</v>
-      </c>
-      <c r="E26" s="29" t="n">
-        <v>21.8416</v>
       </c>
       <c r="F26" s="29" t="n">
         <v>777</v>
@@ -7127,10 +7117,10 @@
         <v>40286</v>
       </c>
       <c r="D27" s="29" t="n">
+        <v>21.7446</v>
+      </c>
+      <c r="E27" s="29" t="n">
         <v>876007.99</v>
-      </c>
-      <c r="E27" s="29" t="n">
-        <v>21.7446</v>
       </c>
       <c r="F27" s="29" t="n">
         <v>787</v>
@@ -7149,10 +7139,10 @@
         <v>39160</v>
       </c>
       <c r="D28" s="29" t="n">
+        <v>21.6473</v>
+      </c>
+      <c r="E28" s="29" t="n">
         <v>847701.58</v>
-      </c>
-      <c r="E28" s="29" t="n">
-        <v>21.6473</v>
       </c>
       <c r="F28" s="29" t="n">
         <v>628</v>
@@ -7171,10 +7161,10 @@
         <v>38025</v>
       </c>
       <c r="D29" s="29" t="n">
+        <v>21.5499</v>
+      </c>
+      <c r="E29" s="29" t="n">
         <v>819427</v>
-      </c>
-      <c r="E29" s="29" t="n">
-        <v>21.5499</v>
       </c>
       <c r="F29" s="29" t="n">
         <v>633</v>
@@ -7193,10 +7183,10 @@
         <v>36925</v>
       </c>
       <c r="D30" s="29" t="n">
+        <v>21.4541</v>
+      </c>
+      <c r="E30" s="29" t="n">
         <v>792199.13</v>
-      </c>
-      <c r="E30" s="29" t="n">
-        <v>21.4541</v>
       </c>
       <c r="F30" s="29" t="n">
         <v>704</v>
@@ -7215,10 +7205,10 @@
         <v>35533</v>
       </c>
       <c r="D31" s="29" t="n">
+        <v>21.347</v>
+      </c>
+      <c r="E31" s="29" t="n">
         <v>758528.6800000001</v>
-      </c>
-      <c r="E31" s="29" t="n">
-        <v>21.347</v>
       </c>
       <c r="F31" s="29" t="n">
         <v>408</v>
@@ -7237,10 +7227,10 @@
         <v>31771</v>
       </c>
       <c r="D32" s="29" t="n">
+        <v>21.2171</v>
+      </c>
+      <c r="E32" s="29" t="n">
         <v>674080.08</v>
-      </c>
-      <c r="E32" s="29" t="n">
-        <v>21.2171</v>
       </c>
       <c r="F32" s="29" t="n">
         <v>1220</v>
@@ -7259,10 +7249,10 @@
         <v>31557</v>
       </c>
       <c r="D33" s="29" t="n">
+        <v>21.0857</v>
+      </c>
+      <c r="E33" s="29" t="n">
         <v>665402.67</v>
-      </c>
-      <c r="E33" s="29" t="n">
-        <v>21.0857</v>
       </c>
       <c r="F33" s="29" t="n">
         <v>594</v>
@@ -7281,10 +7271,10 @@
         <v>31261</v>
       </c>
       <c r="D34" s="29" t="n">
+        <v>21.0213</v>
+      </c>
+      <c r="E34" s="29" t="n">
         <v>657153.03</v>
-      </c>
-      <c r="E34" s="29" t="n">
-        <v>21.0213</v>
       </c>
       <c r="F34" s="29" t="n">
         <v>517</v>
@@ -7303,10 +7293,10 @@
         <v>31500</v>
       </c>
       <c r="D35" s="29" t="n">
+        <v>20.4762</v>
+      </c>
+      <c r="E35" s="29" t="n">
         <v>645000</v>
-      </c>
-      <c r="E35" s="29" t="n">
-        <v>20.4762</v>
       </c>
       <c r="F35" s="29" t="n">
         <v>322</v>
@@ -7325,10 +7315,10 @@
         <v>31003</v>
       </c>
       <c r="D36" s="29" t="n">
+        <v>20.9165</v>
+      </c>
+      <c r="E36" s="29" t="n">
         <v>648469.78</v>
-      </c>
-      <c r="E36" s="29" t="n">
-        <v>20.9165</v>
       </c>
       <c r="F36" s="29" t="n">
         <v>110.21</v>
@@ -7347,10 +7337,10 @@
         <v>30961</v>
       </c>
       <c r="D37" s="29" t="n">
+        <v>20.8578</v>
+      </c>
+      <c r="E37" s="29" t="n">
         <v>645787.8</v>
-      </c>
-      <c r="E37" s="29" t="n">
-        <v>20.8578</v>
       </c>
       <c r="F37" s="29" t="n">
         <v>0</v>
@@ -7369,10 +7359,10 @@
         <v>31080</v>
       </c>
       <c r="D38" s="29" t="n">
+        <v>20.7966</v>
+      </c>
+      <c r="E38" s="29" t="n">
         <v>646357.08</v>
-      </c>
-      <c r="E38" s="29" t="n">
-        <v>20.7966</v>
       </c>
       <c r="F38" s="29" t="n">
         <v>0</v>
@@ -7391,10 +7381,10 @@
         <v>31300</v>
       </c>
       <c r="D39" s="29" t="n">
+        <v>20.4473</v>
+      </c>
+      <c r="E39" s="29" t="n">
         <v>640000</v>
-      </c>
-      <c r="E39" s="29" t="n">
-        <v>20.4473</v>
       </c>
       <c r="F39" s="29" t="n">
         <v>0</v>
@@ -7413,10 +7403,10 @@
         <v>30734</v>
       </c>
       <c r="D40" s="29" t="n">
+        <v>20.661</v>
+      </c>
+      <c r="E40" s="29" t="n">
         <v>635000</v>
-      </c>
-      <c r="E40" s="29" t="n">
-        <v>20.661</v>
       </c>
       <c r="F40" s="29" t="n">
         <v>0</v>
@@ -7435,10 +7425,10 @@
         <v>30594</v>
       </c>
       <c r="D41" s="29" t="n">
+        <v>20.5924</v>
+      </c>
+      <c r="E41" s="29" t="n">
         <v>630000</v>
-      </c>
-      <c r="E41" s="29" t="n">
-        <v>20.5924</v>
       </c>
       <c r="F41" s="29" t="n">
         <v>6</v>
@@ -7457,10 +7447,10 @@
         <v>31184</v>
       </c>
       <c r="D42" s="29" t="n">
+        <v>20.0421</v>
+      </c>
+      <c r="E42" s="29" t="n">
         <v>625000</v>
-      </c>
-      <c r="E42" s="29" t="n">
-        <v>20.0421</v>
       </c>
       <c r="F42" s="29" t="n">
         <v>0</v>
@@ -7479,10 +7469,10 @@
         <v>31000</v>
       </c>
       <c r="D43" s="29" t="n">
+        <v>20</v>
+      </c>
+      <c r="E43" s="29" t="n">
         <v>620000</v>
-      </c>
-      <c r="E43" s="29" t="n">
-        <v>20</v>
       </c>
       <c r="F43" s="29" t="n">
         <v>0</v>
@@ -7501,10 +7491,10 @@
         <v>29000</v>
       </c>
       <c r="D44" s="29" t="n">
+        <v>21.8276</v>
+      </c>
+      <c r="E44" s="29" t="n">
         <v>633000</v>
-      </c>
-      <c r="E44" s="29" t="n">
-        <v>21.8276</v>
       </c>
       <c r="F44" s="29" t="n">
         <v>0</v>
@@ -7523,10 +7513,10 @@
         <v>30500</v>
       </c>
       <c r="D45" s="29" t="n">
+        <v>20.1639</v>
+      </c>
+      <c r="E45" s="29" t="n">
         <v>615000</v>
-      </c>
-      <c r="E45" s="29" t="n">
-        <v>20.1639</v>
       </c>
       <c r="F45" s="29" t="n">
         <v>0</v>
@@ -7545,10 +7535,10 @@
         <v>30000</v>
       </c>
       <c r="D46" s="29" t="n">
+        <v>20.3333</v>
+      </c>
+      <c r="E46" s="29" t="n">
         <v>610000</v>
-      </c>
-      <c r="E46" s="29" t="n">
-        <v>20.3333</v>
       </c>
       <c r="F46" s="29" t="n">
         <v>0</v>
@@ -7567,10 +7557,10 @@
         <v>29500</v>
       </c>
       <c r="D47" s="29" t="n">
+        <v>20.339</v>
+      </c>
+      <c r="E47" s="29" t="n">
         <v>600000</v>
-      </c>
-      <c r="E47" s="29" t="n">
-        <v>20.339</v>
       </c>
       <c r="F47" s="29" t="n">
         <v>45</v>
@@ -7589,10 +7579,10 @@
         <v>29000</v>
       </c>
       <c r="D48" s="29" t="n">
+        <v>20</v>
+      </c>
+      <c r="E48" s="29" t="n">
         <v>580000</v>
-      </c>
-      <c r="E48" s="29" t="n">
-        <v>20</v>
       </c>
       <c r="F48" s="29" t="n">
         <v>0</v>
@@ -7611,10 +7601,10 @@
         <v>28000</v>
       </c>
       <c r="D49" s="29" t="n">
+        <v>19.6429</v>
+      </c>
+      <c r="E49" s="29" t="n">
         <v>550000</v>
-      </c>
-      <c r="E49" s="29" t="n">
-        <v>19.6429</v>
       </c>
       <c r="F49" s="29" t="n">
         <v>0</v>
@@ -7633,10 +7623,10 @@
         <v>28000</v>
       </c>
       <c r="D50" s="29" t="n">
+        <v>18.9286</v>
+      </c>
+      <c r="E50" s="29" t="n">
         <v>530000</v>
-      </c>
-      <c r="E50" s="29" t="n">
-        <v>18.9286</v>
       </c>
       <c r="F50" s="29" t="n">
         <v>0</v>
@@ -7655,10 +7645,10 @@
         <v>26500</v>
       </c>
       <c r="D51" s="29" t="n">
+        <v>18.8679</v>
+      </c>
+      <c r="E51" s="29" t="n">
         <v>500000</v>
-      </c>
-      <c r="E51" s="29" t="n">
-        <v>18.8679</v>
       </c>
       <c r="F51" s="29" t="n">
         <v>0</v>
@@ -7677,10 +7667,10 @@
         <v>25000</v>
       </c>
       <c r="D52" s="29" t="n">
+        <v>18.8</v>
+      </c>
+      <c r="E52" s="29" t="n">
         <v>470000</v>
-      </c>
-      <c r="E52" s="29" t="n">
-        <v>18.8</v>
       </c>
       <c r="F52" s="29" t="n">
         <v>0</v>
@@ -7699,10 +7689,10 @@
         <v>23500</v>
       </c>
       <c r="D53" s="29" t="n">
+        <v>18.7234</v>
+      </c>
+      <c r="E53" s="29" t="n">
         <v>440000</v>
-      </c>
-      <c r="E53" s="29" t="n">
-        <v>18.7234</v>
       </c>
       <c r="F53" s="29" t="n">
         <v>0</v>
@@ -7721,10 +7711,10 @@
         <v>22000</v>
       </c>
       <c r="D54" s="29" t="n">
+        <v>18.1818</v>
+      </c>
+      <c r="E54" s="29" t="n">
         <v>400000</v>
-      </c>
-      <c r="E54" s="29" t="n">
-        <v>18.1818</v>
       </c>
       <c r="F54" s="29" t="n">
         <v>0</v>
@@ -7743,10 +7733,10 @@
         <v>21500</v>
       </c>
       <c r="D55" s="29" t="n">
+        <v>17.2093</v>
+      </c>
+      <c r="E55" s="29" t="n">
         <v>370000</v>
-      </c>
-      <c r="E55" s="29" t="n">
-        <v>17.2093</v>
       </c>
       <c r="F55" s="29" t="n">
         <v>0</v>
@@ -7765,10 +7755,10 @@
         <v>20000</v>
       </c>
       <c r="D56" s="29" t="n">
+        <v>17</v>
+      </c>
+      <c r="E56" s="29" t="n">
         <v>340000</v>
-      </c>
-      <c r="E56" s="29" t="n">
-        <v>17</v>
       </c>
       <c r="F56" s="29" t="n">
         <v>0</v>
@@ -7787,10 +7777,10 @@
         <v>18500</v>
       </c>
       <c r="D57" s="29" t="n">
+        <v>16.7568</v>
+      </c>
+      <c r="E57" s="29" t="n">
         <v>310000</v>
-      </c>
-      <c r="E57" s="29" t="n">
-        <v>16.7568</v>
       </c>
       <c r="F57" s="29" t="n">
         <v>0</v>
@@ -7809,10 +7799,10 @@
         <v>18000</v>
       </c>
       <c r="D58" s="29" t="n">
+        <v>16.1111</v>
+      </c>
+      <c r="E58" s="29" t="n">
         <v>290000</v>
-      </c>
-      <c r="E58" s="29" t="n">
-        <v>16.1111</v>
       </c>
       <c r="F58" s="29" t="n">
         <v>0</v>
@@ -7831,10 +7821,10 @@
         <v>17000</v>
       </c>
       <c r="D59" s="29" t="n">
+        <v>16.1765</v>
+      </c>
+      <c r="E59" s="29" t="n">
         <v>275000</v>
-      </c>
-      <c r="E59" s="29" t="n">
-        <v>16.1765</v>
       </c>
       <c r="F59" s="29" t="n">
         <v>0</v>
@@ -7853,10 +7843,10 @@
         <v>17000</v>
       </c>
       <c r="D60" s="29" t="n">
+        <v>15.8824</v>
+      </c>
+      <c r="E60" s="29" t="n">
         <v>270000</v>
-      </c>
-      <c r="E60" s="29" t="n">
-        <v>15.8824</v>
       </c>
       <c r="F60" s="29" t="n">
         <v>0</v>
@@ -7875,10 +7865,10 @@
         <v>16000</v>
       </c>
       <c r="D61" s="29" t="n">
+        <v>15.625</v>
+      </c>
+      <c r="E61" s="29" t="n">
         <v>250000</v>
-      </c>
-      <c r="E61" s="29" t="n">
-        <v>15.625</v>
       </c>
       <c r="F61" s="29" t="n">
         <v>0</v>
@@ -7897,10 +7887,10 @@
         <v>15500</v>
       </c>
       <c r="D62" s="29" t="n">
+        <v>14.8387</v>
+      </c>
+      <c r="E62" s="29" t="n">
         <v>230000</v>
-      </c>
-      <c r="E62" s="29" t="n">
-        <v>14.8387</v>
       </c>
       <c r="F62" s="29" t="n">
         <v>0</v>
@@ -7919,10 +7909,10 @@
         <v>15000</v>
       </c>
       <c r="D63" s="29" t="n">
+        <v>14.6667</v>
+      </c>
+      <c r="E63" s="29" t="n">
         <v>220000</v>
-      </c>
-      <c r="E63" s="29" t="n">
-        <v>14.6667</v>
       </c>
       <c r="F63" s="29" t="n">
         <v>0</v>
@@ -7941,10 +7931,10 @@
         <v>14000</v>
       </c>
       <c r="D64" s="29" t="n">
+        <v>14.2857</v>
+      </c>
+      <c r="E64" s="29" t="n">
         <v>200000</v>
-      </c>
-      <c r="E64" s="29" t="n">
-        <v>14.2857</v>
       </c>
       <c r="F64" s="29" t="n">
         <v>0</v>
@@ -7963,10 +7953,10 @@
         <v>13000</v>
       </c>
       <c r="D65" s="29" t="n">
+        <v>15</v>
+      </c>
+      <c r="E65" s="29" t="n">
         <v>195000</v>
-      </c>
-      <c r="E65" s="29" t="n">
-        <v>15</v>
       </c>
       <c r="F65" s="29" t="n">
         <v>0</v>
@@ -7985,10 +7975,10 @@
         <v>12600</v>
       </c>
       <c r="D66" s="29" t="n">
+        <v>15.0794</v>
+      </c>
+      <c r="E66" s="29" t="n">
         <v>190000</v>
-      </c>
-      <c r="E66" s="29" t="n">
-        <v>15.0794</v>
       </c>
       <c r="F66" s="29" t="n">
         <v>0</v>
@@ -8007,10 +7997,10 @@
         <v>12500</v>
       </c>
       <c r="D67" s="29" t="n">
+        <v>14.64</v>
+      </c>
+      <c r="E67" s="29" t="n">
         <v>183000</v>
-      </c>
-      <c r="E67" s="29" t="n">
-        <v>14.64</v>
       </c>
       <c r="F67" s="29" t="n">
         <v>0</v>
@@ -8029,10 +8019,10 @@
         <v>12000</v>
       </c>
       <c r="D68" s="29" t="n">
+        <v>15</v>
+      </c>
+      <c r="E68" s="29" t="n">
         <v>180000</v>
-      </c>
-      <c r="E68" s="29" t="n">
-        <v>15</v>
       </c>
       <c r="F68" s="29" t="n">
         <v>0</v>
@@ -8050,10 +8040,10 @@
         <v>11500</v>
       </c>
       <c r="D69" s="29" t="n">
+        <v>14.3478</v>
+      </c>
+      <c r="E69" s="29" t="n">
         <v>165000</v>
-      </c>
-      <c r="E69" s="29" t="n">
-        <v>14.3478</v>
       </c>
       <c r="F69" s="29" t="n">
         <v>0</v>
@@ -8071,10 +8061,10 @@
         <v>10900</v>
       </c>
       <c r="D70" s="29" t="n">
+        <v>14.2202</v>
+      </c>
+      <c r="E70" s="29" t="n">
         <v>155000</v>
-      </c>
-      <c r="E70" s="29" t="n">
-        <v>14.2202</v>
       </c>
       <c r="F70" s="29" t="n">
         <v>0</v>
@@ -8092,10 +8082,10 @@
         <v>10500</v>
       </c>
       <c r="D71" s="29" t="n">
+        <v>14.2857</v>
+      </c>
+      <c r="E71" s="29" t="n">
         <v>150000</v>
-      </c>
-      <c r="E71" s="29" t="n">
-        <v>14.2857</v>
       </c>
       <c r="F71" s="29" t="n">
         <v>0</v>
@@ -8113,10 +8103,10 @@
         <v>10000</v>
       </c>
       <c r="D72" s="29" t="n">
+        <v>14</v>
+      </c>
+      <c r="E72" s="29" t="n">
         <v>140000</v>
-      </c>
-      <c r="E72" s="29" t="n">
-        <v>14</v>
       </c>
       <c r="F72" s="29" t="n">
         <v>0</v>
@@ -8134,10 +8124,10 @@
         <v>9800</v>
       </c>
       <c r="D73" s="29" t="n">
+        <v>13.7755</v>
+      </c>
+      <c r="E73" s="29" t="n">
         <v>135000</v>
-      </c>
-      <c r="E73" s="29" t="n">
-        <v>13.7755</v>
       </c>
       <c r="F73" s="29" t="n">
         <v>0</v>
@@ -8155,10 +8145,10 @@
         <v>9500</v>
       </c>
       <c r="D74" s="29" t="n">
+        <v>13.6842</v>
+      </c>
+      <c r="E74" s="29" t="n">
         <v>130000</v>
-      </c>
-      <c r="E74" s="29" t="n">
-        <v>13.6842</v>
       </c>
       <c r="F74" s="29" t="n">
         <v>0</v>
@@ -8494,7 +8484,7 @@
       <c r="B7" s="14" t="n"/>
       <c r="C7" s="5" t="inlineStr">
         <is>
-          <t>Estadísticas del mercado mundial</t>
+          <t>Estadísticas del mercado mundial de (Producto)</t>
         </is>
       </c>
       <c r="D7" s="14" t="n"/>
@@ -8573,10 +8563,10 @@
         <v>54812</v>
       </c>
       <c r="D12" s="29" t="n">
+        <v>25.6005</v>
+      </c>
+      <c r="E12" s="29" t="n">
         <v>1403214</v>
-      </c>
-      <c r="E12" s="29" t="n">
-        <v>25.6005</v>
       </c>
       <c r="F12" s="29" t="n">
         <v>1821.59</v>
@@ -8595,10 +8585,10 @@
         <v>62724</v>
       </c>
       <c r="D13" s="29" t="n">
+        <v>25.305</v>
+      </c>
+      <c r="E13" s="29" t="n">
         <v>1587230</v>
-      </c>
-      <c r="E13" s="29" t="n">
-        <v>25.305</v>
       </c>
       <c r="F13" s="29" t="n">
         <v>2331.86</v>
@@ -8617,10 +8607,10 @@
         <v>66875</v>
       </c>
       <c r="D14" s="29" t="n">
+        <v>24.503</v>
+      </c>
+      <c r="E14" s="29" t="n">
         <v>1638638</v>
-      </c>
-      <c r="E14" s="29" t="n">
-        <v>24.503</v>
       </c>
       <c r="F14" s="29" t="n">
         <v>577.24</v>
@@ -8639,10 +8629,10 @@
         <v>69090</v>
       </c>
       <c r="D15" s="29" t="n">
+        <v>24.9653</v>
+      </c>
+      <c r="E15" s="29" t="n">
         <v>1724856</v>
-      </c>
-      <c r="E15" s="29" t="n">
-        <v>24.9653</v>
       </c>
       <c r="F15" s="29" t="n">
         <v>736.12</v>
@@ -8661,10 +8651,10 @@
         <v>72176</v>
       </c>
       <c r="D16" s="29" t="n">
+        <v>24.6212</v>
+      </c>
+      <c r="E16" s="29" t="n">
         <v>1777059</v>
-      </c>
-      <c r="E16" s="29" t="n">
-        <v>24.6212</v>
       </c>
       <c r="F16" s="29" t="n">
         <v>1268.18</v>
@@ -8683,10 +8673,10 @@
         <v>73518</v>
       </c>
       <c r="D17" s="29" t="n">
+        <v>23.8573</v>
+      </c>
+      <c r="E17" s="29" t="n">
         <v>1753942</v>
-      </c>
-      <c r="E17" s="29" t="n">
-        <v>23.8573</v>
       </c>
       <c r="F17" s="29" t="n">
         <v>1544.33</v>
@@ -8705,10 +8695,10 @@
         <v>77411</v>
       </c>
       <c r="D18" s="29" t="n">
+        <v>23.4259</v>
+      </c>
+      <c r="E18" s="29" t="n">
         <v>1813422</v>
-      </c>
-      <c r="E18" s="29" t="n">
-        <v>23.4259</v>
       </c>
       <c r="F18" s="29" t="n">
         <v>365.65</v>
@@ -8727,10 +8717,10 @@
         <v>78663</v>
       </c>
       <c r="D19" s="29" t="n">
+        <v>23.5734</v>
+      </c>
+      <c r="E19" s="29" t="n">
         <v>1854356</v>
-      </c>
-      <c r="E19" s="29" t="n">
-        <v>23.5734</v>
       </c>
       <c r="F19" s="29" t="n">
         <v>532.59</v>
@@ -8749,10 +8739,10 @@
         <v>79052</v>
       </c>
       <c r="D20" s="29" t="n">
+        <v>21.753</v>
+      </c>
+      <c r="E20" s="29" t="n">
         <v>1719620</v>
-      </c>
-      <c r="E20" s="29" t="n">
-        <v>21.753</v>
       </c>
       <c r="F20" s="29" t="n">
         <v>303.62</v>
@@ -8771,10 +8761,10 @@
         <v>79149</v>
       </c>
       <c r="D21" s="29" t="n">
+        <v>21.5707</v>
+      </c>
+      <c r="E21" s="29" t="n">
         <v>1707302</v>
-      </c>
-      <c r="E21" s="29" t="n">
-        <v>21.5707</v>
       </c>
       <c r="F21" s="29" t="n">
         <v>174.03</v>
@@ -8793,10 +8783,10 @@
         <v>78769</v>
       </c>
       <c r="D22" s="29" t="n">
+        <v>21.5764</v>
+      </c>
+      <c r="E22" s="29" t="n">
         <v>1699550</v>
-      </c>
-      <c r="E22" s="29" t="n">
-        <v>21.5764</v>
       </c>
       <c r="F22" s="29" t="n">
         <v>466</v>
@@ -8815,10 +8805,10 @@
         <v>79642</v>
       </c>
       <c r="D23" s="29" t="n">
+        <v>21.2035</v>
+      </c>
+      <c r="E23" s="29" t="n">
         <v>1688687</v>
-      </c>
-      <c r="E23" s="29" t="n">
-        <v>21.2035</v>
       </c>
       <c r="F23" s="29" t="n">
         <v>641</v>
@@ -8837,10 +8827,10 @@
         <v>80079</v>
       </c>
       <c r="D24" s="29" t="n">
+        <v>20.5795</v>
+      </c>
+      <c r="E24" s="29" t="n">
         <v>1647988</v>
-      </c>
-      <c r="E24" s="29" t="n">
-        <v>20.5795</v>
       </c>
       <c r="F24" s="29" t="n">
         <v>342</v>
@@ -8859,10 +8849,10 @@
         <v>79571</v>
       </c>
       <c r="D25" s="29" t="n">
+        <v>20.2548</v>
+      </c>
+      <c r="E25" s="29" t="n">
         <v>1611695</v>
-      </c>
-      <c r="E25" s="29" t="n">
-        <v>20.2548</v>
       </c>
       <c r="F25" s="29" t="n">
         <v>157</v>
@@ -8881,10 +8871,10 @@
         <v>82637</v>
       </c>
       <c r="D26" s="29" t="n">
+        <v>20.3201</v>
+      </c>
+      <c r="E26" s="29" t="n">
         <v>1679191</v>
-      </c>
-      <c r="E26" s="29" t="n">
-        <v>20.3201</v>
       </c>
       <c r="F26" s="29" t="n">
         <v>34</v>
@@ -8903,10 +8893,10 @@
         <v>85490</v>
       </c>
       <c r="D27" s="29" t="n">
+        <v>20.4695</v>
+      </c>
+      <c r="E27" s="29" t="n">
         <v>1749935</v>
-      </c>
-      <c r="E27" s="29" t="n">
-        <v>20.4695</v>
       </c>
       <c r="F27" s="29" t="n">
         <v>114</v>
@@ -8925,10 +8915,10 @@
         <v>84919</v>
       </c>
       <c r="D28" s="29" t="n">
+        <v>19.5613</v>
+      </c>
+      <c r="E28" s="29" t="n">
         <v>1661130</v>
-      </c>
-      <c r="E28" s="29" t="n">
-        <v>19.5613</v>
       </c>
       <c r="F28" s="29" t="n">
         <v>161</v>
@@ -8947,10 +8937,10 @@
         <v>88714</v>
       </c>
       <c r="D29" s="29" t="n">
+        <v>19.9022</v>
+      </c>
+      <c r="E29" s="29" t="n">
         <v>1765605</v>
-      </c>
-      <c r="E29" s="29" t="n">
-        <v>19.9022</v>
       </c>
       <c r="F29" s="29" t="n">
         <v>64</v>
@@ -8969,10 +8959,10 @@
         <v>92543</v>
       </c>
       <c r="D30" s="29" t="n">
+        <v>19.7206</v>
+      </c>
+      <c r="E30" s="29" t="n">
         <v>1825000</v>
-      </c>
-      <c r="E30" s="29" t="n">
-        <v>19.7206</v>
       </c>
       <c r="F30" s="29" t="n">
         <v>20</v>
@@ -8991,10 +8981,10 @@
         <v>92635</v>
       </c>
       <c r="D31" s="29" t="n">
+        <v>18.8913</v>
+      </c>
+      <c r="E31" s="29" t="n">
         <v>1750000</v>
-      </c>
-      <c r="E31" s="29" t="n">
-        <v>18.8913</v>
       </c>
       <c r="F31" s="29" t="n">
         <v>29</v>
@@ -9013,10 +9003,10 @@
         <v>96005</v>
       </c>
       <c r="D32" s="29" t="n">
+        <v>18.072</v>
+      </c>
+      <c r="E32" s="29" t="n">
         <v>1735000</v>
-      </c>
-      <c r="E32" s="29" t="n">
-        <v>18.072</v>
       </c>
       <c r="F32" s="29" t="n">
         <v>5</v>
@@ -9035,10 +9025,10 @@
         <v>102215</v>
       </c>
       <c r="D33" s="29" t="n">
+        <v>17.8056</v>
+      </c>
+      <c r="E33" s="29" t="n">
         <v>1820000</v>
-      </c>
-      <c r="E33" s="29" t="n">
-        <v>17.8056</v>
       </c>
       <c r="F33" s="29" t="n">
         <v>3</v>
@@ -9057,10 +9047,10 @@
         <v>100194</v>
       </c>
       <c r="D34" s="29" t="n">
+        <v>17.7156</v>
+      </c>
+      <c r="E34" s="29" t="n">
         <v>1775000</v>
-      </c>
-      <c r="E34" s="29" t="n">
-        <v>17.7156</v>
       </c>
       <c r="F34" s="29" t="n">
         <v>8</v>
@@ -9079,10 +9069,10 @@
         <v>107612</v>
       </c>
       <c r="D35" s="29" t="n">
+        <v>17.3308</v>
+      </c>
+      <c r="E35" s="29" t="n">
         <v>1865000</v>
-      </c>
-      <c r="E35" s="29" t="n">
-        <v>17.3308</v>
       </c>
       <c r="F35" s="29" t="n">
         <v>17.65</v>
@@ -9101,10 +9091,10 @@
         <v>101555</v>
       </c>
       <c r="D36" s="29" t="n">
+        <v>17.6555</v>
+      </c>
+      <c r="E36" s="29" t="n">
         <v>1793000</v>
-      </c>
-      <c r="E36" s="29" t="n">
-        <v>17.6555</v>
       </c>
       <c r="F36" s="29" t="n">
         <v>39</v>
@@ -9123,10 +9113,10 @@
         <v>104419</v>
       </c>
       <c r="D37" s="29" t="n">
+        <v>18.0523</v>
+      </c>
+      <c r="E37" s="29" t="n">
         <v>1885000</v>
-      </c>
-      <c r="E37" s="29" t="n">
-        <v>18.0523</v>
       </c>
       <c r="F37" s="29" t="n">
         <v>297</v>
@@ -9145,10 +9135,10 @@
         <v>98161</v>
       </c>
       <c r="D38" s="29" t="n">
+        <v>17.8279</v>
+      </c>
+      <c r="E38" s="29" t="n">
         <v>1750000</v>
-      </c>
-      <c r="E38" s="29" t="n">
-        <v>17.8279</v>
       </c>
       <c r="F38" s="29" t="n">
         <v>131</v>
@@ -9167,10 +9157,10 @@
         <v>109577</v>
       </c>
       <c r="D39" s="29" t="n">
+        <v>17.3394</v>
+      </c>
+      <c r="E39" s="29" t="n">
         <v>1900000</v>
-      </c>
-      <c r="E39" s="29" t="n">
-        <v>17.3394</v>
       </c>
       <c r="F39" s="29" t="n">
         <v>100</v>
@@ -9189,10 +9179,10 @@
         <v>119793</v>
       </c>
       <c r="D40" s="29" t="n">
+        <v>15.0259</v>
+      </c>
+      <c r="E40" s="29" t="n">
         <v>1800000</v>
-      </c>
-      <c r="E40" s="29" t="n">
-        <v>15.0259</v>
       </c>
       <c r="F40" s="29" t="n">
         <v>56</v>
@@ -9211,10 +9201,10 @@
         <v>113248</v>
       </c>
       <c r="D41" s="29" t="n">
+        <v>15.4528</v>
+      </c>
+      <c r="E41" s="29" t="n">
         <v>1750000</v>
-      </c>
-      <c r="E41" s="29" t="n">
-        <v>15.4528</v>
       </c>
       <c r="F41" s="29" t="n">
         <v>14</v>
@@ -9233,10 +9223,10 @@
         <v>90559</v>
       </c>
       <c r="D42" s="29" t="n">
+        <v>18.2202</v>
+      </c>
+      <c r="E42" s="29" t="n">
         <v>1650000</v>
-      </c>
-      <c r="E42" s="29" t="n">
-        <v>18.2202</v>
       </c>
       <c r="F42" s="29" t="n">
         <v>15</v>
@@ -9255,10 +9245,10 @@
         <v>109182</v>
       </c>
       <c r="D43" s="29" t="n">
+        <v>14.8376</v>
+      </c>
+      <c r="E43" s="29" t="n">
         <v>1620000</v>
-      </c>
-      <c r="E43" s="29" t="n">
-        <v>14.8376</v>
       </c>
       <c r="F43" s="29" t="n">
         <v>0</v>
@@ -9277,10 +9267,10 @@
         <v>108648</v>
       </c>
       <c r="D44" s="29" t="n">
+        <v>17.3036</v>
+      </c>
+      <c r="E44" s="29" t="n">
         <v>1880000</v>
-      </c>
-      <c r="E44" s="29" t="n">
-        <v>17.3036</v>
       </c>
       <c r="F44" s="29" t="n">
         <v>1</v>
@@ -9299,10 +9289,10 @@
         <v>98309</v>
       </c>
       <c r="D45" s="29" t="n">
+        <v>16.7838</v>
+      </c>
+      <c r="E45" s="29" t="n">
         <v>1650000</v>
-      </c>
-      <c r="E45" s="29" t="n">
-        <v>16.7838</v>
       </c>
       <c r="F45" s="29" t="n">
         <v>298</v>
@@ -9321,10 +9311,10 @@
         <v>102013</v>
       </c>
       <c r="D46" s="29" t="n">
+        <v>14.704</v>
+      </c>
+      <c r="E46" s="29" t="n">
         <v>1500000</v>
-      </c>
-      <c r="E46" s="29" t="n">
-        <v>14.704</v>
       </c>
       <c r="F46" s="29" t="n">
         <v>0</v>
@@ -9343,10 +9333,10 @@
         <v>95000</v>
       </c>
       <c r="D47" s="29" t="n">
+        <v>20.5263</v>
+      </c>
+      <c r="E47" s="29" t="n">
         <v>1950000</v>
-      </c>
-      <c r="E47" s="29" t="n">
-        <v>20.5263</v>
       </c>
       <c r="F47" s="29" t="n">
         <v>4</v>
@@ -9365,10 +9355,10 @@
         <v>95000</v>
       </c>
       <c r="D48" s="29" t="n">
+        <v>20.2857</v>
+      </c>
+      <c r="E48" s="29" t="n">
         <v>1927146</v>
-      </c>
-      <c r="E48" s="29" t="n">
-        <v>20.2857</v>
       </c>
       <c r="F48" s="29" t="n">
         <v>0</v>
@@ -9387,10 +9377,10 @@
         <v>95000</v>
       </c>
       <c r="D49" s="29" t="n">
+        <v>21.0526</v>
+      </c>
+      <c r="E49" s="29" t="n">
         <v>2000000</v>
-      </c>
-      <c r="E49" s="29" t="n">
-        <v>21.0526</v>
       </c>
       <c r="F49" s="29" t="n">
         <v>0</v>
@@ -9409,10 +9399,10 @@
         <v>95000</v>
       </c>
       <c r="D50" s="29" t="n">
+        <v>21.8728</v>
+      </c>
+      <c r="E50" s="29" t="n">
         <v>2077913</v>
-      </c>
-      <c r="E50" s="29" t="n">
-        <v>21.8728</v>
       </c>
       <c r="F50" s="29" t="n">
         <v>0</v>
@@ -9431,10 +9421,10 @@
         <v>79000</v>
       </c>
       <c r="D51" s="29" t="n">
+        <v>21.519</v>
+      </c>
+      <c r="E51" s="29" t="n">
         <v>1700000</v>
-      </c>
-      <c r="E51" s="29" t="n">
-        <v>21.519</v>
       </c>
       <c r="F51" s="29" t="n">
         <v>0</v>
@@ -9453,10 +9443,10 @@
         <v>75000</v>
       </c>
       <c r="D52" s="29" t="n">
+        <v>20</v>
+      </c>
+      <c r="E52" s="29" t="n">
         <v>1500000</v>
-      </c>
-      <c r="E52" s="29" t="n">
-        <v>20</v>
       </c>
       <c r="F52" s="29" t="n">
         <v>0</v>
@@ -9475,10 +9465,10 @@
         <v>74000</v>
       </c>
       <c r="D53" s="29" t="n">
+        <v>18.9189</v>
+      </c>
+      <c r="E53" s="29" t="n">
         <v>1400000</v>
-      </c>
-      <c r="E53" s="29" t="n">
-        <v>18.9189</v>
       </c>
       <c r="F53" s="29" t="n">
         <v>0</v>
@@ -9497,10 +9487,10 @@
         <v>72000</v>
       </c>
       <c r="D54" s="29" t="n">
+        <v>20.8333</v>
+      </c>
+      <c r="E54" s="29" t="n">
         <v>1500000</v>
-      </c>
-      <c r="E54" s="29" t="n">
-        <v>20.8333</v>
       </c>
       <c r="F54" s="29" t="n">
         <v>0</v>
@@ -9519,10 +9509,10 @@
         <v>76000</v>
       </c>
       <c r="D55" s="29" t="n">
+        <v>19.0789</v>
+      </c>
+      <c r="E55" s="29" t="n">
         <v>1450000</v>
-      </c>
-      <c r="E55" s="29" t="n">
-        <v>19.0789</v>
       </c>
       <c r="F55" s="29" t="n">
         <v>0</v>
@@ -9541,10 +9531,10 @@
         <v>78000</v>
       </c>
       <c r="D56" s="29" t="n">
+        <v>22.4359</v>
+      </c>
+      <c r="E56" s="29" t="n">
         <v>1750000</v>
-      </c>
-      <c r="E56" s="29" t="n">
-        <v>22.4359</v>
       </c>
       <c r="F56" s="29" t="n">
         <v>0</v>
@@ -9563,10 +9553,10 @@
         <v>87000</v>
       </c>
       <c r="D57" s="29" t="n">
+        <v>18.3333</v>
+      </c>
+      <c r="E57" s="29" t="n">
         <v>1595000</v>
-      </c>
-      <c r="E57" s="29" t="n">
-        <v>18.3333</v>
       </c>
       <c r="F57" s="29" t="n">
         <v>0</v>
@@ -9585,10 +9575,10 @@
         <v>78000</v>
       </c>
       <c r="D58" s="29" t="n">
+        <v>17.9487</v>
+      </c>
+      <c r="E58" s="29" t="n">
         <v>1400000</v>
-      </c>
-      <c r="E58" s="29" t="n">
-        <v>17.9487</v>
       </c>
       <c r="F58" s="29" t="n">
         <v>0</v>
@@ -9607,10 +9597,10 @@
         <v>79000</v>
       </c>
       <c r="D59" s="29" t="n">
+        <v>20.2532</v>
+      </c>
+      <c r="E59" s="29" t="n">
         <v>1600000</v>
-      </c>
-      <c r="E59" s="29" t="n">
-        <v>20.2532</v>
       </c>
       <c r="F59" s="29" t="n">
         <v>0</v>
@@ -9629,10 +9619,10 @@
         <v>75000</v>
       </c>
       <c r="D60" s="29" t="n">
+        <v>18.6667</v>
+      </c>
+      <c r="E60" s="29" t="n">
         <v>1400000</v>
-      </c>
-      <c r="E60" s="29" t="n">
-        <v>18.6667</v>
       </c>
       <c r="F60" s="29" t="n">
         <v>0</v>
@@ -9651,10 +9641,10 @@
         <v>70000</v>
       </c>
       <c r="D61" s="29" t="n">
+        <v>17.1429</v>
+      </c>
+      <c r="E61" s="29" t="n">
         <v>1200000</v>
-      </c>
-      <c r="E61" s="29" t="n">
-        <v>17.1429</v>
       </c>
       <c r="F61" s="29" t="n">
         <v>0</v>
@@ -9673,10 +9663,10 @@
         <v>72000</v>
       </c>
       <c r="D62" s="29" t="n">
+        <v>15</v>
+      </c>
+      <c r="E62" s="29" t="n">
         <v>1080000</v>
-      </c>
-      <c r="E62" s="29" t="n">
-        <v>15</v>
       </c>
       <c r="F62" s="29" t="n">
         <v>0</v>
@@ -9695,10 +9685,10 @@
         <v>78000</v>
       </c>
       <c r="D63" s="29" t="n">
+        <v>17.3077</v>
+      </c>
+      <c r="E63" s="29" t="n">
         <v>1350000</v>
-      </c>
-      <c r="E63" s="29" t="n">
-        <v>17.3077</v>
       </c>
       <c r="F63" s="29" t="n">
         <v>0</v>
@@ -9717,10 +9707,10 @@
         <v>80000</v>
       </c>
       <c r="D64" s="29" t="n">
+        <v>17.125</v>
+      </c>
+      <c r="E64" s="29" t="n">
         <v>1370000</v>
-      </c>
-      <c r="E64" s="29" t="n">
-        <v>17.125</v>
       </c>
       <c r="F64" s="29" t="n">
         <v>0</v>
@@ -9739,10 +9729,10 @@
         <v>76000</v>
       </c>
       <c r="D65" s="29" t="n">
+        <v>17.3684</v>
+      </c>
+      <c r="E65" s="29" t="n">
         <v>1320000</v>
-      </c>
-      <c r="E65" s="29" t="n">
-        <v>17.3684</v>
       </c>
       <c r="F65" s="29" t="n">
         <v>0</v>
@@ -9761,10 +9751,10 @@
         <v>80000</v>
       </c>
       <c r="D66" s="29" t="n">
+        <v>17.4857</v>
+      </c>
+      <c r="E66" s="29" t="n">
         <v>1398856</v>
-      </c>
-      <c r="E66" s="29" t="n">
-        <v>17.4857</v>
       </c>
       <c r="F66" s="29" t="n">
         <v>0</v>
@@ -9783,10 +9773,10 @@
         <v>80000</v>
       </c>
       <c r="D67" s="29" t="n">
+        <v>18</v>
+      </c>
+      <c r="E67" s="29" t="n">
         <v>1440000</v>
-      </c>
-      <c r="E67" s="29" t="n">
-        <v>18</v>
       </c>
       <c r="F67" s="29" t="n">
         <v>0</v>
@@ -9805,10 +9795,10 @@
         <v>83000</v>
       </c>
       <c r="D68" s="29" t="n">
+        <v>16.7831</v>
+      </c>
+      <c r="E68" s="29" t="n">
         <v>1393000</v>
-      </c>
-      <c r="E68" s="29" t="n">
-        <v>16.7831</v>
       </c>
       <c r="F68" s="29" t="n">
         <v>0</v>
@@ -9826,10 +9816,10 @@
         <v>80000</v>
       </c>
       <c r="D69" s="29" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="E69" s="29" t="n">
         <v>1400000</v>
-      </c>
-      <c r="E69" s="29" t="n">
-        <v>17.5</v>
       </c>
       <c r="F69" s="29" t="n">
         <v>0</v>
@@ -9847,10 +9837,10 @@
         <v>80000</v>
       </c>
       <c r="D70" s="29" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="E70" s="29" t="n">
         <v>1320000</v>
-      </c>
-      <c r="E70" s="29" t="n">
-        <v>16.5</v>
       </c>
       <c r="F70" s="29" t="n">
         <v>0</v>
@@ -9868,10 +9858,10 @@
         <v>80000</v>
       </c>
       <c r="D71" s="29" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="E71" s="29" t="n">
         <v>1320000</v>
-      </c>
-      <c r="E71" s="29" t="n">
-        <v>16.5</v>
       </c>
       <c r="F71" s="29" t="n">
         <v>0</v>
@@ -9889,10 +9879,10 @@
         <v>80000</v>
       </c>
       <c r="D72" s="29" t="n">
+        <v>15.025</v>
+      </c>
+      <c r="E72" s="29" t="n">
         <v>1202000</v>
-      </c>
-      <c r="E72" s="29" t="n">
-        <v>15.025</v>
       </c>
       <c r="F72" s="29" t="n">
         <v>0</v>
@@ -9910,10 +9900,10 @@
         <v>88000</v>
       </c>
       <c r="D73" s="29" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="E73" s="29" t="n">
         <v>1188000</v>
-      </c>
-      <c r="E73" s="29" t="n">
-        <v>13.5</v>
       </c>
       <c r="F73" s="29" t="n">
         <v>0</v>
@@ -9931,10 +9921,10 @@
         <v>92000</v>
       </c>
       <c r="D74" s="29" t="n">
+        <v>12.3152</v>
+      </c>
+      <c r="E74" s="29" t="n">
         <v>1133000</v>
-      </c>
-      <c r="E74" s="29" t="n">
-        <v>12.3152</v>
       </c>
       <c r="F74" s="29" t="n">
         <v>0</v>
@@ -10270,7 +10260,7 @@
       <c r="B7" s="14" t="n"/>
       <c r="C7" s="5" t="inlineStr">
         <is>
-          <t>Estadísticas del mercado mundial</t>
+          <t>Estadísticas del mercado mundial de (Producto)</t>
         </is>
       </c>
       <c r="D7" s="14" t="n"/>
@@ -10349,10 +10339,10 @@
         <v>54575</v>
       </c>
       <c r="D12" s="29" t="n">
+        <v>25.1282</v>
+      </c>
+      <c r="E12" s="29" t="n">
         <v>1371382.19</v>
-      </c>
-      <c r="E12" s="29" t="n">
-        <v>25.1282</v>
       </c>
       <c r="F12" s="29" t="n">
         <v>4773.12</v>
@@ -10371,10 +10361,10 @@
         <v>49383</v>
       </c>
       <c r="D13" s="29" t="n">
+        <v>24.5917</v>
+      </c>
+      <c r="E13" s="29" t="n">
         <v>1214412.76</v>
-      </c>
-      <c r="E13" s="29" t="n">
-        <v>24.5917</v>
       </c>
       <c r="F13" s="29" t="n">
         <v>16205.28</v>
@@ -10393,10 +10383,10 @@
         <v>56284</v>
       </c>
       <c r="D14" s="29" t="n">
+        <v>24.7879</v>
+      </c>
+      <c r="E14" s="29" t="n">
         <v>1395170.92</v>
-      </c>
-      <c r="E14" s="29" t="n">
-        <v>24.7879</v>
       </c>
       <c r="F14" s="29" t="n">
         <v>10132.15</v>
@@ -10415,10 +10405,10 @@
         <v>51258</v>
       </c>
       <c r="D15" s="29" t="n">
+        <v>22.736</v>
+      </c>
+      <c r="E15" s="29" t="n">
         <v>1165397.02</v>
-      </c>
-      <c r="E15" s="29" t="n">
-        <v>22.736</v>
       </c>
       <c r="F15" s="29" t="n">
         <v>20112.73</v>
@@ -10437,10 +10427,10 @@
         <v>45747</v>
       </c>
       <c r="D16" s="29" t="n">
+        <v>22.7592</v>
+      </c>
+      <c r="E16" s="29" t="n">
         <v>1041152.75</v>
-      </c>
-      <c r="E16" s="29" t="n">
-        <v>22.7592</v>
       </c>
       <c r="F16" s="29" t="n">
         <v>2025.03</v>
@@ -10459,10 +10449,10 @@
         <v>42004</v>
       </c>
       <c r="D17" s="29" t="n">
+        <v>21.2803</v>
+      </c>
+      <c r="E17" s="29" t="n">
         <v>893857.26</v>
-      </c>
-      <c r="E17" s="29" t="n">
-        <v>21.2803</v>
       </c>
       <c r="F17" s="29" t="n">
         <v>3096.37</v>
@@ -10481,10 +10471,10 @@
         <v>38793</v>
       </c>
       <c r="D18" s="29" t="n">
+        <v>20.9444</v>
+      </c>
+      <c r="E18" s="29" t="n">
         <v>812498</v>
-      </c>
-      <c r="E18" s="29" t="n">
-        <v>20.9444</v>
       </c>
       <c r="F18" s="29" t="n">
         <v>6966.67</v>
@@ -10503,10 +10493,10 @@
         <v>43397</v>
       </c>
       <c r="D19" s="29" t="n">
+        <v>20.6928</v>
+      </c>
+      <c r="E19" s="29" t="n">
         <v>898004</v>
-      </c>
-      <c r="E19" s="29" t="n">
-        <v>20.6928</v>
       </c>
       <c r="F19" s="29" t="n">
         <v>2216.62</v>
@@ -10525,10 +10515,10 @@
         <v>46256</v>
       </c>
       <c r="D20" s="29" t="n">
+        <v>21.0357</v>
+      </c>
+      <c r="E20" s="29" t="n">
         <v>973028</v>
-      </c>
-      <c r="E20" s="29" t="n">
-        <v>21.0357</v>
       </c>
       <c r="F20" s="29" t="n">
         <v>4894.83</v>
@@ -10547,10 +10537,10 @@
         <v>43078</v>
       </c>
       <c r="D21" s="29" t="n">
+        <v>21.2331</v>
+      </c>
+      <c r="E21" s="29" t="n">
         <v>914681</v>
-      </c>
-      <c r="E21" s="29" t="n">
-        <v>21.2331</v>
       </c>
       <c r="F21" s="29" t="n">
         <v>59023.84</v>
@@ -10569,10 +10559,10 @@
         <v>37116</v>
       </c>
       <c r="D22" s="29" t="n">
+        <v>20.8591</v>
+      </c>
+      <c r="E22" s="29" t="n">
         <v>774205</v>
-      </c>
-      <c r="E22" s="29" t="n">
-        <v>20.8591</v>
       </c>
       <c r="F22" s="29" t="n">
         <v>41603</v>
@@ -10591,10 +10581,10 @@
         <v>40855</v>
       </c>
       <c r="D23" s="29" t="n">
+        <v>20.3663</v>
+      </c>
+      <c r="E23" s="29" t="n">
         <v>832064.6</v>
-      </c>
-      <c r="E23" s="29" t="n">
-        <v>20.3663</v>
       </c>
       <c r="F23" s="29" t="n">
         <v>24188</v>
@@ -10613,10 +10603,10 @@
         <v>24756</v>
       </c>
       <c r="D24" s="29" t="n">
+        <v>18.6705</v>
+      </c>
+      <c r="E24" s="29" t="n">
         <v>462206.7</v>
-      </c>
-      <c r="E24" s="29" t="n">
-        <v>18.6705</v>
       </c>
       <c r="F24" s="29" t="n">
         <v>38609</v>
@@ -10635,10 +10625,10 @@
         <v>20000</v>
       </c>
       <c r="D25" s="29" t="n">
+        <v>16.73</v>
+      </c>
+      <c r="E25" s="29" t="n">
         <v>334600</v>
-      </c>
-      <c r="E25" s="29" t="n">
-        <v>16.73</v>
       </c>
       <c r="F25" s="29" t="n">
         <v>20000</v>
@@ -10657,10 +10647,10 @@
         <v>17600</v>
       </c>
       <c r="D26" s="29" t="n">
+        <v>15.5176</v>
+      </c>
+      <c r="E26" s="29" t="n">
         <v>273110</v>
-      </c>
-      <c r="E26" s="29" t="n">
-        <v>15.5176</v>
       </c>
       <c r="F26" s="29" t="n">
         <v>776</v>
@@ -10679,10 +10669,10 @@
         <v>16100</v>
       </c>
       <c r="D27" s="29" t="n">
+        <v>13.4006</v>
+      </c>
+      <c r="E27" s="29" t="n">
         <v>215750</v>
-      </c>
-      <c r="E27" s="29" t="n">
-        <v>13.4006</v>
       </c>
       <c r="F27" s="29" t="n">
         <v>69</v>
@@ -10701,10 +10691,10 @@
         <v>12100</v>
       </c>
       <c r="D28" s="29" t="n">
+        <v>15.295</v>
+      </c>
+      <c r="E28" s="29" t="n">
         <v>185070</v>
-      </c>
-      <c r="E28" s="29" t="n">
-        <v>15.295</v>
       </c>
       <c r="F28" s="29" t="n">
         <v>427</v>
@@ -10723,10 +10713,10 @@
         <v>10300</v>
       </c>
       <c r="D29" s="29" t="n">
+        <v>15.1583</v>
+      </c>
+      <c r="E29" s="29" t="n">
         <v>156130</v>
-      </c>
-      <c r="E29" s="29" t="n">
-        <v>15.1583</v>
       </c>
       <c r="F29" s="29" t="n">
         <v>82</v>
@@ -10745,10 +10735,10 @@
         <v>11600</v>
       </c>
       <c r="D30" s="29" t="n">
+        <v>15.1612</v>
+      </c>
+      <c r="E30" s="29" t="n">
         <v>175870</v>
-      </c>
-      <c r="E30" s="29" t="n">
-        <v>15.1612</v>
       </c>
       <c r="F30" s="29" t="n">
         <v>67</v>
@@ -10767,10 +10757,10 @@
         <v>10000</v>
       </c>
       <c r="D31" s="29" t="n">
+        <v>15.27</v>
+      </c>
+      <c r="E31" s="29" t="n">
         <v>152700</v>
-      </c>
-      <c r="E31" s="29" t="n">
-        <v>15.27</v>
       </c>
       <c r="F31" s="29" t="n">
         <v>38</v>
@@ -10789,10 +10779,10 @@
         <v>9000</v>
       </c>
       <c r="D32" s="29" t="n">
+        <v>15.4222</v>
+      </c>
+      <c r="E32" s="29" t="n">
         <v>138800</v>
-      </c>
-      <c r="E32" s="29" t="n">
-        <v>15.4222</v>
       </c>
       <c r="F32" s="29" t="n">
         <v>57</v>
@@ -10811,10 +10801,10 @@
         <v>10000</v>
       </c>
       <c r="D33" s="29" t="n">
+        <v>14.48</v>
+      </c>
+      <c r="E33" s="29" t="n">
         <v>144800</v>
-      </c>
-      <c r="E33" s="29" t="n">
-        <v>14.48</v>
       </c>
       <c r="F33" s="29" t="n">
         <v>27</v>
@@ -10833,10 +10823,10 @@
         <v>8000</v>
       </c>
       <c r="D34" s="29" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="E34" s="29" t="n">
         <v>119200</v>
-      </c>
-      <c r="E34" s="29" t="n">
-        <v>14.9</v>
       </c>
       <c r="F34" s="29" t="n">
         <v>34</v>
@@ -10855,10 +10845,10 @@
         <v>6500</v>
       </c>
       <c r="D35" s="29" t="n">
+        <v>14.9231</v>
+      </c>
+      <c r="E35" s="29" t="n">
         <v>97000</v>
-      </c>
-      <c r="E35" s="29" t="n">
-        <v>14.9231</v>
       </c>
       <c r="F35" s="29" t="n">
         <v>58</v>
@@ -10966,387 +10956,722 @@
       <c r="J43" s="30" t="n"/>
     </row>
     <row r="44">
-      <c r="B44" s="28" t="n">
-        <v>1991</v>
-      </c>
-      <c r="C44" s="29" t="inlineStr"/>
-      <c r="D44" s="29" t="inlineStr"/>
-      <c r="E44" s="29" t="inlineStr"/>
-      <c r="F44" s="29" t="inlineStr"/>
-      <c r="G44" s="29" t="inlineStr"/>
+      <c r="B44" s="29" t="inlineStr">
+        <is>
+          <t>1991</t>
+        </is>
+      </c>
+      <c r="C44" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="D44" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E44" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F44" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G44" s="29" t="n">
+        <v>0</v>
+      </c>
       <c r="H44" s="29" t="n"/>
       <c r="J44" s="30" t="n"/>
     </row>
     <row r="45">
-      <c r="B45" s="28" t="n">
-        <v>1990</v>
-      </c>
-      <c r="C45" s="29" t="inlineStr"/>
-      <c r="D45" s="29" t="inlineStr"/>
-      <c r="E45" s="29" t="inlineStr"/>
-      <c r="F45" s="29" t="inlineStr"/>
-      <c r="G45" s="29" t="inlineStr"/>
+      <c r="B45" s="29" t="inlineStr">
+        <is>
+          <t>1990</t>
+        </is>
+      </c>
+      <c r="C45" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="D45" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E45" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F45" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G45" s="29" t="n">
+        <v>0</v>
+      </c>
       <c r="H45" s="29" t="n"/>
       <c r="J45" s="30" t="n"/>
     </row>
     <row r="46">
-      <c r="B46" s="28" t="n">
-        <v>1989</v>
-      </c>
-      <c r="C46" s="29" t="inlineStr"/>
-      <c r="D46" s="29" t="inlineStr"/>
-      <c r="E46" s="29" t="inlineStr"/>
-      <c r="F46" s="29" t="inlineStr"/>
-      <c r="G46" s="29" t="inlineStr"/>
-      <c r="H46" s="29" t="n"/>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>1989</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>0</v>
+      </c>
+      <c r="D46" t="n">
+        <v>0</v>
+      </c>
+      <c r="E46" t="n">
+        <v>0</v>
+      </c>
+      <c r="F46" t="n">
+        <v>0</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0</v>
+      </c>
       <c r="J46" s="30" t="n"/>
     </row>
     <row r="47">
-      <c r="B47" s="28" t="n">
-        <v>1988</v>
-      </c>
-      <c r="C47" s="29" t="inlineStr"/>
-      <c r="D47" s="29" t="inlineStr"/>
-      <c r="E47" s="29" t="inlineStr"/>
-      <c r="F47" s="29" t="inlineStr"/>
-      <c r="G47" s="29" t="inlineStr"/>
-      <c r="H47" s="29" t="n"/>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>1988</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>0</v>
+      </c>
+      <c r="D47" t="n">
+        <v>0</v>
+      </c>
+      <c r="E47" t="n">
+        <v>0</v>
+      </c>
+      <c r="F47" t="n">
+        <v>0</v>
+      </c>
+      <c r="G47" t="n">
+        <v>0</v>
+      </c>
       <c r="J47" s="30" t="n"/>
     </row>
     <row r="48">
-      <c r="B48" s="28" t="n">
-        <v>1987</v>
-      </c>
-      <c r="C48" s="29" t="inlineStr"/>
-      <c r="D48" s="29" t="inlineStr"/>
-      <c r="E48" s="29" t="inlineStr"/>
-      <c r="F48" s="29" t="inlineStr"/>
-      <c r="G48" s="29" t="inlineStr"/>
-      <c r="H48" s="29" t="n"/>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>1987</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>0</v>
+      </c>
+      <c r="D48" t="n">
+        <v>0</v>
+      </c>
+      <c r="E48" t="n">
+        <v>0</v>
+      </c>
+      <c r="F48" t="n">
+        <v>0</v>
+      </c>
+      <c r="G48" t="n">
+        <v>0</v>
+      </c>
       <c r="J48" s="30" t="n"/>
     </row>
     <row r="49">
-      <c r="B49" s="28" t="n">
-        <v>1986</v>
-      </c>
-      <c r="C49" s="29" t="inlineStr"/>
-      <c r="D49" s="29" t="inlineStr"/>
-      <c r="E49" s="29" t="inlineStr"/>
-      <c r="F49" s="29" t="inlineStr"/>
-      <c r="G49" s="29" t="inlineStr"/>
-      <c r="H49" s="29" t="n"/>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>1986</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>0</v>
+      </c>
+      <c r="D49" t="n">
+        <v>0</v>
+      </c>
+      <c r="E49" t="n">
+        <v>0</v>
+      </c>
+      <c r="F49" t="n">
+        <v>0</v>
+      </c>
+      <c r="G49" t="n">
+        <v>0</v>
+      </c>
       <c r="J49" s="30" t="n"/>
     </row>
     <row r="50">
-      <c r="B50" s="28" t="n">
-        <v>1985</v>
-      </c>
-      <c r="C50" s="29" t="inlineStr"/>
-      <c r="D50" s="29" t="inlineStr"/>
-      <c r="E50" s="29" t="inlineStr"/>
-      <c r="F50" s="29" t="inlineStr"/>
-      <c r="G50" s="29" t="inlineStr"/>
-      <c r="H50" s="29" t="n"/>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>1985</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
+        <v>0</v>
+      </c>
+      <c r="D50" t="n">
+        <v>0</v>
+      </c>
+      <c r="E50" t="n">
+        <v>0</v>
+      </c>
+      <c r="F50" t="n">
+        <v>0</v>
+      </c>
+      <c r="G50" t="n">
+        <v>0</v>
+      </c>
       <c r="J50" s="30" t="n"/>
     </row>
     <row r="51">
-      <c r="B51" s="28" t="n">
-        <v>1984</v>
-      </c>
-      <c r="C51" s="29" t="inlineStr"/>
-      <c r="D51" s="29" t="inlineStr"/>
-      <c r="E51" s="29" t="inlineStr"/>
-      <c r="F51" s="29" t="inlineStr"/>
-      <c r="G51" s="29" t="inlineStr"/>
-      <c r="H51" s="29" t="n"/>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>1984</t>
+        </is>
+      </c>
+      <c r="C51" t="n">
+        <v>0</v>
+      </c>
+      <c r="D51" t="n">
+        <v>0</v>
+      </c>
+      <c r="E51" t="n">
+        <v>0</v>
+      </c>
+      <c r="F51" t="n">
+        <v>0</v>
+      </c>
+      <c r="G51" t="n">
+        <v>0</v>
+      </c>
       <c r="J51" s="30" t="n"/>
     </row>
     <row r="52">
-      <c r="B52" s="28" t="n">
-        <v>1983</v>
-      </c>
-      <c r="C52" s="29" t="inlineStr"/>
-      <c r="D52" s="29" t="inlineStr"/>
-      <c r="E52" s="29" t="inlineStr"/>
-      <c r="F52" s="29" t="inlineStr"/>
-      <c r="G52" s="29" t="inlineStr"/>
-      <c r="H52" s="29" t="n"/>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>1983</t>
+        </is>
+      </c>
+      <c r="C52" t="n">
+        <v>0</v>
+      </c>
+      <c r="D52" t="n">
+        <v>0</v>
+      </c>
+      <c r="E52" t="n">
+        <v>0</v>
+      </c>
+      <c r="F52" t="n">
+        <v>0</v>
+      </c>
+      <c r="G52" t="n">
+        <v>0</v>
+      </c>
       <c r="J52" s="30" t="n"/>
     </row>
     <row r="53">
-      <c r="B53" s="28" t="n">
-        <v>1982</v>
-      </c>
-      <c r="C53" s="29" t="inlineStr"/>
-      <c r="D53" s="29" t="inlineStr"/>
-      <c r="E53" s="29" t="inlineStr"/>
-      <c r="F53" s="29" t="inlineStr"/>
-      <c r="G53" s="29" t="inlineStr"/>
-      <c r="H53" s="29" t="n"/>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>1982</t>
+        </is>
+      </c>
+      <c r="C53" t="n">
+        <v>0</v>
+      </c>
+      <c r="D53" t="n">
+        <v>0</v>
+      </c>
+      <c r="E53" t="n">
+        <v>0</v>
+      </c>
+      <c r="F53" t="n">
+        <v>0</v>
+      </c>
+      <c r="G53" t="n">
+        <v>0</v>
+      </c>
       <c r="J53" s="30" t="n"/>
     </row>
     <row r="54">
-      <c r="B54" s="28" t="n">
-        <v>1981</v>
-      </c>
-      <c r="C54" s="29" t="inlineStr"/>
-      <c r="D54" s="29" t="inlineStr"/>
-      <c r="E54" s="29" t="inlineStr"/>
-      <c r="F54" s="29" t="inlineStr"/>
-      <c r="G54" s="29" t="inlineStr"/>
-      <c r="H54" s="29" t="n"/>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>1981</t>
+        </is>
+      </c>
+      <c r="C54" t="n">
+        <v>0</v>
+      </c>
+      <c r="D54" t="n">
+        <v>0</v>
+      </c>
+      <c r="E54" t="n">
+        <v>0</v>
+      </c>
+      <c r="F54" t="n">
+        <v>0</v>
+      </c>
+      <c r="G54" t="n">
+        <v>0</v>
+      </c>
       <c r="J54" s="30" t="n"/>
     </row>
     <row r="55">
-      <c r="B55" s="28" t="n">
-        <v>1980</v>
-      </c>
-      <c r="C55" s="29" t="inlineStr"/>
-      <c r="D55" s="29" t="inlineStr"/>
-      <c r="E55" s="29" t="inlineStr"/>
-      <c r="F55" s="29" t="inlineStr"/>
-      <c r="G55" s="29" t="inlineStr"/>
-      <c r="H55" s="29" t="n"/>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>1980</t>
+        </is>
+      </c>
+      <c r="C55" t="n">
+        <v>0</v>
+      </c>
+      <c r="D55" t="n">
+        <v>0</v>
+      </c>
+      <c r="E55" t="n">
+        <v>0</v>
+      </c>
+      <c r="F55" t="n">
+        <v>0</v>
+      </c>
+      <c r="G55" t="n">
+        <v>0</v>
+      </c>
       <c r="J55" s="30" t="n"/>
     </row>
     <row r="56">
-      <c r="B56" s="28" t="n">
-        <v>1979</v>
-      </c>
-      <c r="C56" s="29" t="inlineStr"/>
-      <c r="D56" s="29" t="inlineStr"/>
-      <c r="E56" s="29" t="inlineStr"/>
-      <c r="F56" s="29" t="inlineStr"/>
-      <c r="G56" s="29" t="inlineStr"/>
-      <c r="H56" s="29" t="n"/>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>1979</t>
+        </is>
+      </c>
+      <c r="C56" t="n">
+        <v>0</v>
+      </c>
+      <c r="D56" t="n">
+        <v>0</v>
+      </c>
+      <c r="E56" t="n">
+        <v>0</v>
+      </c>
+      <c r="F56" t="n">
+        <v>0</v>
+      </c>
+      <c r="G56" t="n">
+        <v>0</v>
+      </c>
       <c r="J56" s="30" t="n"/>
     </row>
     <row r="57">
-      <c r="B57" s="28" t="n">
-        <v>1978</v>
-      </c>
-      <c r="C57" s="29" t="inlineStr"/>
-      <c r="D57" s="29" t="inlineStr"/>
-      <c r="E57" s="29" t="inlineStr"/>
-      <c r="F57" s="29" t="inlineStr"/>
-      <c r="G57" s="29" t="inlineStr"/>
-      <c r="H57" s="29" t="n"/>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>1978</t>
+        </is>
+      </c>
+      <c r="C57" t="n">
+        <v>0</v>
+      </c>
+      <c r="D57" t="n">
+        <v>0</v>
+      </c>
+      <c r="E57" t="n">
+        <v>0</v>
+      </c>
+      <c r="F57" t="n">
+        <v>0</v>
+      </c>
+      <c r="G57" t="n">
+        <v>0</v>
+      </c>
       <c r="J57" s="30" t="n"/>
     </row>
     <row r="58">
-      <c r="B58" s="28" t="n">
-        <v>1977</v>
-      </c>
-      <c r="C58" s="29" t="inlineStr"/>
-      <c r="D58" s="29" t="inlineStr"/>
-      <c r="E58" s="29" t="inlineStr"/>
-      <c r="F58" s="29" t="inlineStr"/>
-      <c r="G58" s="29" t="inlineStr"/>
-      <c r="H58" s="29" t="n"/>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>1977</t>
+        </is>
+      </c>
+      <c r="C58" t="n">
+        <v>0</v>
+      </c>
+      <c r="D58" t="n">
+        <v>0</v>
+      </c>
+      <c r="E58" t="n">
+        <v>0</v>
+      </c>
+      <c r="F58" t="n">
+        <v>0</v>
+      </c>
+      <c r="G58" t="n">
+        <v>0</v>
+      </c>
       <c r="J58" s="30" t="n"/>
     </row>
     <row r="59">
-      <c r="B59" s="28" t="n">
-        <v>1976</v>
-      </c>
-      <c r="C59" s="29" t="inlineStr"/>
-      <c r="D59" s="29" t="inlineStr"/>
-      <c r="E59" s="29" t="inlineStr"/>
-      <c r="F59" s="29" t="inlineStr"/>
-      <c r="G59" s="29" t="inlineStr"/>
-      <c r="H59" s="29" t="n"/>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>1976</t>
+        </is>
+      </c>
+      <c r="C59" t="n">
+        <v>0</v>
+      </c>
+      <c r="D59" t="n">
+        <v>0</v>
+      </c>
+      <c r="E59" t="n">
+        <v>0</v>
+      </c>
+      <c r="F59" t="n">
+        <v>0</v>
+      </c>
+      <c r="G59" t="n">
+        <v>0</v>
+      </c>
       <c r="J59" s="30" t="n"/>
     </row>
     <row r="60">
-      <c r="B60" s="28" t="n">
-        <v>1975</v>
-      </c>
-      <c r="C60" s="29" t="inlineStr"/>
-      <c r="D60" s="29" t="inlineStr"/>
-      <c r="E60" s="29" t="inlineStr"/>
-      <c r="F60" s="29" t="inlineStr"/>
-      <c r="G60" s="29" t="inlineStr"/>
-      <c r="H60" s="29" t="n"/>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>1975</t>
+        </is>
+      </c>
+      <c r="C60" t="n">
+        <v>0</v>
+      </c>
+      <c r="D60" t="n">
+        <v>0</v>
+      </c>
+      <c r="E60" t="n">
+        <v>0</v>
+      </c>
+      <c r="F60" t="n">
+        <v>0</v>
+      </c>
+      <c r="G60" t="n">
+        <v>0</v>
+      </c>
       <c r="J60" s="30" t="n"/>
     </row>
     <row r="61">
-      <c r="B61" s="28" t="n">
-        <v>1974</v>
-      </c>
-      <c r="C61" s="29" t="inlineStr"/>
-      <c r="D61" s="29" t="inlineStr"/>
-      <c r="E61" s="29" t="inlineStr"/>
-      <c r="F61" s="29" t="inlineStr"/>
-      <c r="G61" s="29" t="inlineStr"/>
-      <c r="H61" s="29" t="n"/>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>1974</t>
+        </is>
+      </c>
+      <c r="C61" t="n">
+        <v>0</v>
+      </c>
+      <c r="D61" t="n">
+        <v>0</v>
+      </c>
+      <c r="E61" t="n">
+        <v>0</v>
+      </c>
+      <c r="F61" t="n">
+        <v>0</v>
+      </c>
+      <c r="G61" t="n">
+        <v>0</v>
+      </c>
       <c r="J61" s="30" t="n"/>
     </row>
     <row r="62">
-      <c r="B62" s="28" t="n">
-        <v>1973</v>
-      </c>
-      <c r="C62" s="29" t="inlineStr"/>
-      <c r="D62" s="29" t="inlineStr"/>
-      <c r="E62" s="29" t="inlineStr"/>
-      <c r="F62" s="29" t="inlineStr"/>
-      <c r="G62" s="29" t="inlineStr"/>
-      <c r="H62" s="29" t="n"/>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>1973</t>
+        </is>
+      </c>
+      <c r="C62" t="n">
+        <v>0</v>
+      </c>
+      <c r="D62" t="n">
+        <v>0</v>
+      </c>
+      <c r="E62" t="n">
+        <v>0</v>
+      </c>
+      <c r="F62" t="n">
+        <v>0</v>
+      </c>
+      <c r="G62" t="n">
+        <v>0</v>
+      </c>
       <c r="J62" s="30" t="n"/>
     </row>
     <row r="63">
-      <c r="B63" s="28" t="n">
-        <v>1972</v>
-      </c>
-      <c r="C63" s="29" t="inlineStr"/>
-      <c r="D63" s="29" t="inlineStr"/>
-      <c r="E63" s="29" t="inlineStr"/>
-      <c r="F63" s="29" t="inlineStr"/>
-      <c r="G63" s="29" t="inlineStr"/>
-      <c r="H63" s="29" t="n"/>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>1972</t>
+        </is>
+      </c>
+      <c r="C63" t="n">
+        <v>0</v>
+      </c>
+      <c r="D63" t="n">
+        <v>0</v>
+      </c>
+      <c r="E63" t="n">
+        <v>0</v>
+      </c>
+      <c r="F63" t="n">
+        <v>0</v>
+      </c>
+      <c r="G63" t="n">
+        <v>0</v>
+      </c>
       <c r="J63" s="30" t="n"/>
     </row>
     <row r="64">
-      <c r="B64" s="28" t="n">
-        <v>1971</v>
-      </c>
-      <c r="C64" s="29" t="inlineStr"/>
-      <c r="D64" s="29" t="inlineStr"/>
-      <c r="E64" s="29" t="inlineStr"/>
-      <c r="F64" s="29" t="inlineStr"/>
-      <c r="G64" s="29" t="inlineStr"/>
-      <c r="H64" s="29" t="n"/>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>1971</t>
+        </is>
+      </c>
+      <c r="C64" t="n">
+        <v>0</v>
+      </c>
+      <c r="D64" t="n">
+        <v>0</v>
+      </c>
+      <c r="E64" t="n">
+        <v>0</v>
+      </c>
+      <c r="F64" t="n">
+        <v>0</v>
+      </c>
+      <c r="G64" t="n">
+        <v>0</v>
+      </c>
       <c r="J64" s="30" t="n"/>
     </row>
     <row r="65">
-      <c r="B65" s="28" t="n">
-        <v>1970</v>
-      </c>
-      <c r="C65" s="29" t="inlineStr"/>
-      <c r="D65" s="29" t="inlineStr"/>
-      <c r="E65" s="29" t="inlineStr"/>
-      <c r="F65" s="29" t="inlineStr"/>
-      <c r="G65" s="29" t="inlineStr"/>
-      <c r="H65" s="29" t="n"/>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>1970</t>
+        </is>
+      </c>
+      <c r="C65" t="n">
+        <v>0</v>
+      </c>
+      <c r="D65" t="n">
+        <v>0</v>
+      </c>
+      <c r="E65" t="n">
+        <v>0</v>
+      </c>
+      <c r="F65" t="n">
+        <v>0</v>
+      </c>
+      <c r="G65" t="n">
+        <v>0</v>
+      </c>
       <c r="J65" s="30" t="n"/>
     </row>
     <row r="66">
-      <c r="B66" s="28" t="n">
-        <v>1969</v>
-      </c>
-      <c r="C66" s="29" t="inlineStr"/>
-      <c r="D66" s="29" t="inlineStr"/>
-      <c r="E66" s="29" t="inlineStr"/>
-      <c r="F66" s="29" t="inlineStr"/>
-      <c r="G66" s="29" t="inlineStr"/>
-      <c r="H66" s="29" t="n"/>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>1969</t>
+        </is>
+      </c>
+      <c r="C66" t="n">
+        <v>0</v>
+      </c>
+      <c r="D66" t="n">
+        <v>0</v>
+      </c>
+      <c r="E66" t="n">
+        <v>0</v>
+      </c>
+      <c r="F66" t="n">
+        <v>0</v>
+      </c>
+      <c r="G66" t="n">
+        <v>0</v>
+      </c>
       <c r="J66" s="30" t="n"/>
     </row>
     <row r="67">
-      <c r="B67" s="28" t="n">
-        <v>1968</v>
-      </c>
-      <c r="C67" s="29" t="inlineStr"/>
-      <c r="D67" s="29" t="inlineStr"/>
-      <c r="E67" s="29" t="inlineStr"/>
-      <c r="F67" s="29" t="inlineStr"/>
-      <c r="G67" s="29" t="inlineStr"/>
-      <c r="H67" s="29" t="n"/>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>1968</t>
+        </is>
+      </c>
+      <c r="C67" t="n">
+        <v>0</v>
+      </c>
+      <c r="D67" t="n">
+        <v>0</v>
+      </c>
+      <c r="E67" t="n">
+        <v>0</v>
+      </c>
+      <c r="F67" t="n">
+        <v>0</v>
+      </c>
+      <c r="G67" t="n">
+        <v>0</v>
+      </c>
       <c r="J67" s="30" t="n"/>
     </row>
     <row r="68">
-      <c r="B68" s="28" t="n">
-        <v>1967</v>
-      </c>
-      <c r="C68" s="29" t="inlineStr"/>
-      <c r="D68" s="29" t="inlineStr"/>
-      <c r="E68" s="29" t="inlineStr"/>
-      <c r="F68" s="29" t="inlineStr"/>
-      <c r="G68" s="29" t="inlineStr"/>
-      <c r="H68" s="29" t="n"/>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>1967</t>
+        </is>
+      </c>
+      <c r="C68" t="n">
+        <v>0</v>
+      </c>
+      <c r="D68" t="n">
+        <v>0</v>
+      </c>
+      <c r="E68" t="n">
+        <v>0</v>
+      </c>
+      <c r="F68" t="n">
+        <v>0</v>
+      </c>
+      <c r="G68" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="69">
-      <c r="B69" s="28" t="n">
-        <v>1966</v>
-      </c>
-      <c r="C69" s="29" t="inlineStr"/>
-      <c r="D69" s="29" t="inlineStr"/>
-      <c r="E69" s="29" t="inlineStr"/>
-      <c r="F69" s="29" t="inlineStr"/>
-      <c r="G69" s="29" t="inlineStr"/>
-      <c r="H69" s="29" t="n"/>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>1966</t>
+        </is>
+      </c>
+      <c r="C69" t="n">
+        <v>0</v>
+      </c>
+      <c r="D69" t="n">
+        <v>0</v>
+      </c>
+      <c r="E69" t="n">
+        <v>0</v>
+      </c>
+      <c r="F69" t="n">
+        <v>0</v>
+      </c>
+      <c r="G69" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="70">
-      <c r="B70" s="28" t="n">
-        <v>1965</v>
-      </c>
-      <c r="C70" s="29" t="inlineStr"/>
-      <c r="D70" s="29" t="inlineStr"/>
-      <c r="E70" s="29" t="inlineStr"/>
-      <c r="F70" s="29" t="inlineStr"/>
-      <c r="G70" s="29" t="inlineStr"/>
-      <c r="H70" s="29" t="n"/>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>1965</t>
+        </is>
+      </c>
+      <c r="C70" t="n">
+        <v>0</v>
+      </c>
+      <c r="D70" t="n">
+        <v>0</v>
+      </c>
+      <c r="E70" t="n">
+        <v>0</v>
+      </c>
+      <c r="F70" t="n">
+        <v>0</v>
+      </c>
+      <c r="G70" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="71">
-      <c r="B71" s="28" t="n">
-        <v>1964</v>
-      </c>
-      <c r="C71" s="29" t="inlineStr"/>
-      <c r="D71" s="29" t="inlineStr"/>
-      <c r="E71" s="29" t="inlineStr"/>
-      <c r="F71" s="29" t="inlineStr"/>
-      <c r="G71" s="29" t="inlineStr"/>
-      <c r="H71" s="29" t="n"/>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>1964</t>
+        </is>
+      </c>
+      <c r="C71" t="n">
+        <v>0</v>
+      </c>
+      <c r="D71" t="n">
+        <v>0</v>
+      </c>
+      <c r="E71" t="n">
+        <v>0</v>
+      </c>
+      <c r="F71" t="n">
+        <v>0</v>
+      </c>
+      <c r="G71" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="72">
-      <c r="B72" s="28" t="n">
-        <v>1963</v>
-      </c>
-      <c r="C72" s="29" t="inlineStr"/>
-      <c r="D72" s="29" t="inlineStr"/>
-      <c r="E72" s="29" t="inlineStr"/>
-      <c r="F72" s="29" t="inlineStr"/>
-      <c r="G72" s="29" t="inlineStr"/>
-      <c r="H72" s="29" t="n"/>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>1963</t>
+        </is>
+      </c>
+      <c r="C72" t="n">
+        <v>0</v>
+      </c>
+      <c r="D72" t="n">
+        <v>0</v>
+      </c>
+      <c r="E72" t="n">
+        <v>0</v>
+      </c>
+      <c r="F72" t="n">
+        <v>0</v>
+      </c>
+      <c r="G72" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="73">
-      <c r="B73" s="28" t="n">
-        <v>1962</v>
-      </c>
-      <c r="C73" s="29" t="inlineStr"/>
-      <c r="D73" s="29" t="inlineStr"/>
-      <c r="E73" s="29" t="inlineStr"/>
-      <c r="F73" s="29" t="inlineStr"/>
-      <c r="G73" s="29" t="inlineStr"/>
-      <c r="H73" s="29" t="n"/>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>1962</t>
+        </is>
+      </c>
+      <c r="C73" t="n">
+        <v>0</v>
+      </c>
+      <c r="D73" t="n">
+        <v>0</v>
+      </c>
+      <c r="E73" t="n">
+        <v>0</v>
+      </c>
+      <c r="F73" t="n">
+        <v>0</v>
+      </c>
+      <c r="G73" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="74">
-      <c r="B74" s="28" t="n">
-        <v>1961</v>
-      </c>
-      <c r="C74" s="29" t="inlineStr"/>
-      <c r="D74" s="29" t="inlineStr"/>
-      <c r="E74" s="29" t="inlineStr"/>
-      <c r="F74" s="29" t="inlineStr"/>
-      <c r="G74" s="29" t="inlineStr"/>
-      <c r="H74" s="29" t="n"/>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>1961</t>
+        </is>
+      </c>
+      <c r="C74" t="n">
+        <v>0</v>
+      </c>
+      <c r="D74" t="n">
+        <v>0</v>
+      </c>
+      <c r="E74" t="n">
+        <v>0</v>
+      </c>
+      <c r="F74" t="n">
+        <v>0</v>
+      </c>
+      <c r="G74" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="75">
-      <c r="B75" s="29" t="n"/>
-      <c r="C75" s="29" t="n"/>
-      <c r="D75" s="29" t="n"/>
-      <c r="E75" s="29" t="n"/>
-      <c r="F75" s="29" t="n"/>
-      <c r="G75" s="29" t="n"/>
-      <c r="H75" s="29" t="n"/>
+      <c r="C75" s="17" t="n"/>
+      <c r="D75" s="17" t="n"/>
+      <c r="E75" s="18" t="n"/>
     </row>
     <row r="76">
-      <c r="B76" s="29" t="n"/>
-      <c r="C76" s="29" t="n"/>
-      <c r="D76" s="29" t="n"/>
-      <c r="E76" s="29" t="n"/>
-      <c r="F76" s="29" t="n"/>
-      <c r="G76" s="29" t="n"/>
-      <c r="H76" s="29" t="n"/>
+      <c r="C76" s="17" t="n"/>
+      <c r="D76" s="17" t="n"/>
+      <c r="E76" s="18" t="n"/>
     </row>
     <row r="77">
       <c r="C77" s="17" t="n"/>
@@ -11656,7 +11981,7 @@
       <c r="B7" s="14" t="n"/>
       <c r="C7" s="5" t="inlineStr">
         <is>
-          <t>Estadísticas del mercado mundial</t>
+          <t>Estadísticas del mercado mundial de (Producto)</t>
         </is>
       </c>
       <c r="D7" s="14" t="n"/>
@@ -11735,10 +12060,10 @@
         <v>30535</v>
       </c>
       <c r="D12" s="29" t="n">
+        <v>28.2426</v>
+      </c>
+      <c r="E12" s="29" t="n">
         <v>862387</v>
-      </c>
-      <c r="E12" s="29" t="n">
-        <v>28.2426</v>
       </c>
       <c r="F12" s="29" t="inlineStr"/>
       <c r="G12" s="29" t="n">
@@ -11755,10 +12080,10 @@
         <v>27466</v>
       </c>
       <c r="D13" s="29" t="n">
+        <v>25.4807</v>
+      </c>
+      <c r="E13" s="29" t="n">
         <v>699853</v>
-      </c>
-      <c r="E13" s="29" t="n">
-        <v>25.4807</v>
       </c>
       <c r="F13" s="29" t="inlineStr"/>
       <c r="G13" s="29" t="n">
@@ -11775,10 +12100,10 @@
         <v>23859</v>
       </c>
       <c r="D14" s="29" t="n">
+        <v>25.4435</v>
+      </c>
+      <c r="E14" s="29" t="n">
         <v>607057</v>
-      </c>
-      <c r="E14" s="29" t="n">
-        <v>25.4435</v>
       </c>
       <c r="F14" s="29" t="inlineStr"/>
       <c r="G14" s="29" t="n">
@@ -11795,10 +12120,10 @@
         <v>24518</v>
       </c>
       <c r="D15" s="29" t="n">
+        <v>25.875</v>
+      </c>
+      <c r="E15" s="29" t="n">
         <v>634404</v>
-      </c>
-      <c r="E15" s="29" t="n">
-        <v>25.875</v>
       </c>
       <c r="F15" s="29" t="inlineStr"/>
       <c r="G15" s="29" t="n">
@@ -11815,10 +12140,10 @@
         <v>22212</v>
       </c>
       <c r="D16" s="29" t="n">
+        <v>26.5543</v>
+      </c>
+      <c r="E16" s="29" t="n">
         <v>589825</v>
-      </c>
-      <c r="E16" s="29" t="n">
-        <v>26.5543</v>
       </c>
       <c r="F16" s="29" t="inlineStr"/>
       <c r="G16" s="29" t="n">
@@ -11835,10 +12160,10 @@
         <v>23324</v>
       </c>
       <c r="D17" s="29" t="n">
+        <v>24.9305</v>
+      </c>
+      <c r="E17" s="29" t="n">
         <v>581478</v>
-      </c>
-      <c r="E17" s="29" t="n">
-        <v>24.9305</v>
       </c>
       <c r="F17" s="29" t="inlineStr"/>
       <c r="G17" s="29" t="n">
@@ -11855,10 +12180,10 @@
         <v>23413</v>
       </c>
       <c r="D18" s="29" t="n">
+        <v>23.1195</v>
+      </c>
+      <c r="E18" s="29" t="n">
         <v>541298</v>
-      </c>
-      <c r="E18" s="29" t="n">
-        <v>23.1195</v>
       </c>
       <c r="F18" s="29" t="inlineStr"/>
       <c r="G18" s="29" t="n">
@@ -11875,10 +12200,10 @@
         <v>23105</v>
       </c>
       <c r="D19" s="29" t="n">
+        <v>25.8139</v>
+      </c>
+      <c r="E19" s="29" t="n">
         <v>596430</v>
-      </c>
-      <c r="E19" s="29" t="n">
-        <v>25.8139</v>
       </c>
       <c r="F19" s="29" t="inlineStr"/>
       <c r="G19" s="29" t="n">
@@ -11895,10 +12220,10 @@
         <v>20762</v>
       </c>
       <c r="D20" s="29" t="n">
+        <v>25.1226</v>
+      </c>
+      <c r="E20" s="29" t="n">
         <v>521596</v>
-      </c>
-      <c r="E20" s="29" t="n">
-        <v>25.1226</v>
       </c>
       <c r="F20" s="29" t="inlineStr"/>
       <c r="G20" s="29" t="n">
@@ -11915,10 +12240,10 @@
         <v>21996</v>
       </c>
       <c r="D21" s="29" t="n">
+        <v>26.8203</v>
+      </c>
+      <c r="E21" s="29" t="n">
         <v>589939</v>
-      </c>
-      <c r="E21" s="29" t="n">
-        <v>26.8203</v>
       </c>
       <c r="F21" s="29" t="inlineStr"/>
       <c r="G21" s="29" t="n">
@@ -11935,10 +12260,10 @@
         <v>22021</v>
       </c>
       <c r="D22" s="29" t="n">
+        <v>25.6982</v>
+      </c>
+      <c r="E22" s="29" t="n">
         <v>565900</v>
-      </c>
-      <c r="E22" s="29" t="n">
-        <v>25.6982</v>
       </c>
       <c r="F22" s="29" t="n">
         <v>0</v>
@@ -11957,10 +12282,10 @@
         <v>22789</v>
       </c>
       <c r="D23" s="29" t="n">
+        <v>25.2484</v>
+      </c>
+      <c r="E23" s="29" t="n">
         <v>575386</v>
-      </c>
-      <c r="E23" s="29" t="n">
-        <v>25.2484</v>
       </c>
       <c r="F23" s="29" t="n">
         <v>0</v>
@@ -11979,10 +12304,10 @@
         <v>19695</v>
       </c>
       <c r="D24" s="29" t="n">
+        <v>25.3531</v>
+      </c>
+      <c r="E24" s="29" t="n">
         <v>499330</v>
-      </c>
-      <c r="E24" s="29" t="n">
-        <v>25.3531</v>
       </c>
       <c r="F24" s="29" t="n">
         <v>0</v>
@@ -12001,10 +12326,10 @@
         <v>18861</v>
       </c>
       <c r="D25" s="29" t="n">
+        <v>25.3641</v>
+      </c>
+      <c r="E25" s="29" t="n">
         <v>478392</v>
-      </c>
-      <c r="E25" s="29" t="n">
-        <v>25.3641</v>
       </c>
       <c r="F25" s="29" t="n">
         <v>28</v>
@@ -12023,10 +12348,10 @@
         <v>17544</v>
       </c>
       <c r="D26" s="29" t="n">
+        <v>22.9685</v>
+      </c>
+      <c r="E26" s="29" t="n">
         <v>402959</v>
-      </c>
-      <c r="E26" s="29" t="n">
-        <v>22.9685</v>
       </c>
       <c r="F26" s="29" t="n">
         <v>59</v>
@@ -12045,10 +12370,10 @@
         <v>15746</v>
       </c>
       <c r="D27" s="29" t="n">
+        <v>21.6223</v>
+      </c>
+      <c r="E27" s="29" t="n">
         <v>340464</v>
-      </c>
-      <c r="E27" s="29" t="n">
-        <v>21.6223</v>
       </c>
       <c r="F27" s="29" t="n">
         <v>57</v>
@@ -12067,10 +12392,10 @@
         <v>21576</v>
       </c>
       <c r="D28" s="29" t="n">
+        <v>22.9571</v>
+      </c>
+      <c r="E28" s="29" t="n">
         <v>495323</v>
-      </c>
-      <c r="E28" s="29" t="n">
-        <v>22.9571</v>
       </c>
       <c r="F28" s="29" t="n">
         <v>0</v>
@@ -12089,10 +12414,10 @@
         <v>21350</v>
       </c>
       <c r="D29" s="29" t="n">
+        <v>23.4202</v>
+      </c>
+      <c r="E29" s="29" t="n">
         <v>500021</v>
-      </c>
-      <c r="E29" s="29" t="n">
-        <v>23.4202</v>
       </c>
       <c r="F29" s="29" t="n">
         <v>0</v>
@@ -12111,10 +12436,10 @@
         <v>15981</v>
       </c>
       <c r="D30" s="29" t="n">
+        <v>22.0726</v>
+      </c>
+      <c r="E30" s="29" t="n">
         <v>352742</v>
-      </c>
-      <c r="E30" s="29" t="n">
-        <v>22.0726</v>
       </c>
       <c r="F30" s="29" t="n">
         <v>0</v>
@@ -12133,10 +12458,10 @@
         <v>15499</v>
       </c>
       <c r="D31" s="29" t="n">
+        <v>21.9926</v>
+      </c>
+      <c r="E31" s="29" t="n">
         <v>340863</v>
-      </c>
-      <c r="E31" s="29" t="n">
-        <v>21.9926</v>
       </c>
       <c r="F31" s="29" t="n">
         <v>0</v>
@@ -12155,10 +12480,10 @@
         <v>16266</v>
       </c>
       <c r="D32" s="29" t="n">
+        <v>21.4864</v>
+      </c>
+      <c r="E32" s="29" t="n">
         <v>349498</v>
-      </c>
-      <c r="E32" s="29" t="n">
-        <v>21.4864</v>
       </c>
       <c r="F32" s="29" t="n">
         <v>0</v>
@@ -12177,10 +12502,10 @@
         <v>16875</v>
       </c>
       <c r="D33" s="29" t="n">
+        <v>20.877</v>
+      </c>
+      <c r="E33" s="29" t="n">
         <v>352300</v>
-      </c>
-      <c r="E33" s="29" t="n">
-        <v>20.877</v>
       </c>
       <c r="F33" s="29" t="n">
         <v>17</v>
@@ -12199,10 +12524,10 @@
         <v>14198</v>
       </c>
       <c r="D34" s="29" t="n">
+        <v>18.6245</v>
+      </c>
+      <c r="E34" s="29" t="n">
         <v>264431</v>
-      </c>
-      <c r="E34" s="29" t="n">
-        <v>18.6245</v>
       </c>
       <c r="F34" s="29" t="n">
         <v>1</v>
@@ -12221,10 +12546,10 @@
         <v>11399</v>
       </c>
       <c r="D35" s="29" t="n">
+        <v>12.2614</v>
+      </c>
+      <c r="E35" s="29" t="n">
         <v>139768</v>
-      </c>
-      <c r="E35" s="29" t="n">
-        <v>12.2614</v>
       </c>
       <c r="F35" s="29" t="n">
         <v>27.76</v>
@@ -12243,10 +12568,10 @@
         <v>11453</v>
       </c>
       <c r="D36" s="29" t="n">
+        <v>12.1447</v>
+      </c>
+      <c r="E36" s="29" t="n">
         <v>139093</v>
-      </c>
-      <c r="E36" s="29" t="n">
-        <v>12.1447</v>
       </c>
       <c r="F36" s="29" t="n">
         <v>30</v>
@@ -12265,10 +12590,10 @@
         <v>13855</v>
       </c>
       <c r="D37" s="29" t="n">
+        <v>10.2661</v>
+      </c>
+      <c r="E37" s="29" t="n">
         <v>142237</v>
-      </c>
-      <c r="E37" s="29" t="n">
-        <v>10.2661</v>
       </c>
       <c r="F37" s="29" t="n">
         <v>97</v>
@@ -12287,10 +12612,10 @@
         <v>13594</v>
       </c>
       <c r="D38" s="29" t="n">
+        <v>8.719299999999999</v>
+      </c>
+      <c r="E38" s="29" t="n">
         <v>118530</v>
-      </c>
-      <c r="E38" s="29" t="n">
-        <v>8.719299999999999</v>
       </c>
       <c r="F38" s="29" t="n">
         <v>63</v>
@@ -12309,10 +12634,10 @@
         <v>13926</v>
       </c>
       <c r="D39" s="29" t="n">
+        <v>8.588200000000001</v>
+      </c>
+      <c r="E39" s="29" t="n">
         <v>119599.2</v>
-      </c>
-      <c r="E39" s="29" t="n">
-        <v>8.588200000000001</v>
       </c>
       <c r="F39" s="29" t="n">
         <v>15</v>
@@ -12331,10 +12656,10 @@
         <v>13294</v>
       </c>
       <c r="D40" s="29" t="n">
+        <v>9.584299999999999</v>
+      </c>
+      <c r="E40" s="29" t="n">
         <v>127414</v>
-      </c>
-      <c r="E40" s="29" t="n">
-        <v>9.584299999999999</v>
       </c>
       <c r="F40" s="29" t="n">
         <v>11</v>
@@ -12353,10 +12678,10 @@
         <v>11506</v>
       </c>
       <c r="D41" s="29" t="n">
+        <v>7.549600000000001</v>
+      </c>
+      <c r="E41" s="29" t="n">
         <v>86866</v>
-      </c>
-      <c r="E41" s="29" t="n">
-        <v>7.549600000000001</v>
       </c>
       <c r="F41" s="29" t="n">
         <v>22</v>
@@ -12375,10 +12700,10 @@
         <v>11730</v>
       </c>
       <c r="D42" s="29" t="n">
+        <v>7.7766</v>
+      </c>
+      <c r="E42" s="29" t="n">
         <v>91219</v>
-      </c>
-      <c r="E42" s="29" t="n">
-        <v>7.7766</v>
       </c>
       <c r="F42" s="29" t="n">
         <v>0</v>
@@ -12397,10 +12722,10 @@
         <v>9687</v>
       </c>
       <c r="D43" s="29" t="n">
+        <v>7.4221</v>
+      </c>
+      <c r="E43" s="29" t="n">
         <v>71898</v>
-      </c>
-      <c r="E43" s="29" t="n">
-        <v>7.4221</v>
       </c>
       <c r="F43" s="29" t="n">
         <v>0</v>
@@ -12419,10 +12744,10 @@
         <v>9629</v>
       </c>
       <c r="D44" s="29" t="n">
+        <v>6.660699999999999</v>
+      </c>
+      <c r="E44" s="29" t="n">
         <v>64136</v>
-      </c>
-      <c r="E44" s="29" t="n">
-        <v>6.660699999999999</v>
       </c>
       <c r="F44" s="29" t="n">
         <v>0</v>
@@ -12441,10 +12766,10 @@
         <v>7842</v>
       </c>
       <c r="D45" s="29" t="n">
+        <v>6.0556</v>
+      </c>
+      <c r="E45" s="29" t="n">
         <v>47488</v>
-      </c>
-      <c r="E45" s="29" t="n">
-        <v>6.0556</v>
       </c>
       <c r="F45" s="29" t="n">
         <v>0</v>
@@ -12463,10 +12788,10 @@
         <v>7413</v>
       </c>
       <c r="D46" s="29" t="n">
+        <v>5.4518</v>
+      </c>
+      <c r="E46" s="29" t="n">
         <v>40414</v>
-      </c>
-      <c r="E46" s="29" t="n">
-        <v>5.4518</v>
       </c>
       <c r="F46" s="29" t="n">
         <v>0</v>
@@ -12485,10 +12810,10 @@
         <v>6840</v>
       </c>
       <c r="D47" s="29" t="n">
+        <v>5.099399999999999</v>
+      </c>
+      <c r="E47" s="29" t="n">
         <v>34880</v>
-      </c>
-      <c r="E47" s="29" t="n">
-        <v>5.099399999999999</v>
       </c>
       <c r="F47" s="29" t="n">
         <v>0</v>
@@ -12507,10 +12832,10 @@
         <v>6592</v>
       </c>
       <c r="D48" s="29" t="n">
+        <v>4.706</v>
+      </c>
+      <c r="E48" s="29" t="n">
         <v>31022</v>
-      </c>
-      <c r="E48" s="29" t="n">
-        <v>4.706</v>
       </c>
       <c r="F48" s="29" t="n">
         <v>0</v>
@@ -12529,10 +12854,10 @@
         <v>5915</v>
       </c>
       <c r="D49" s="29" t="n">
+        <v>4.1721</v>
+      </c>
+      <c r="E49" s="29" t="n">
         <v>24678</v>
-      </c>
-      <c r="E49" s="29" t="n">
-        <v>4.1721</v>
       </c>
       <c r="F49" s="29" t="n">
         <v>0</v>
@@ -12551,10 +12876,10 @@
         <v>6395</v>
       </c>
       <c r="D50" s="29" t="n">
+        <v>4.0686</v>
+      </c>
+      <c r="E50" s="29" t="n">
         <v>26019</v>
-      </c>
-      <c r="E50" s="29" t="n">
-        <v>4.0686</v>
       </c>
       <c r="F50" s="29" t="n">
         <v>0</v>
@@ -12573,10 +12898,10 @@
         <v>6288</v>
       </c>
       <c r="D51" s="29" t="n">
+        <v>4.184</v>
+      </c>
+      <c r="E51" s="29" t="n">
         <v>26309</v>
-      </c>
-      <c r="E51" s="29" t="n">
-        <v>4.184</v>
       </c>
       <c r="F51" s="29" t="n">
         <v>0</v>
@@ -12595,10 +12920,10 @@
         <v>6507</v>
       </c>
       <c r="D52" s="29" t="n">
+        <v>4.472</v>
+      </c>
+      <c r="E52" s="29" t="n">
         <v>29099</v>
-      </c>
-      <c r="E52" s="29" t="n">
-        <v>4.472</v>
       </c>
       <c r="F52" s="29" t="n">
         <v>0</v>
@@ -12617,10 +12942,10 @@
         <v>5990</v>
       </c>
       <c r="D53" s="29" t="n">
+        <v>4.922899999999999</v>
+      </c>
+      <c r="E53" s="29" t="n">
         <v>29488</v>
-      </c>
-      <c r="E53" s="29" t="n">
-        <v>4.922899999999999</v>
       </c>
       <c r="F53" s="29" t="n">
         <v>0</v>
@@ -12639,10 +12964,10 @@
         <v>5514</v>
       </c>
       <c r="D54" s="29" t="n">
+        <v>5.0887</v>
+      </c>
+      <c r="E54" s="29" t="n">
         <v>28059</v>
-      </c>
-      <c r="E54" s="29" t="n">
-        <v>5.0887</v>
       </c>
       <c r="F54" s="29" t="n">
         <v>0</v>
@@ -12661,10 +12986,10 @@
         <v>5671</v>
       </c>
       <c r="D55" s="29" t="n">
+        <v>5.347899999999999</v>
+      </c>
+      <c r="E55" s="29" t="n">
         <v>30328</v>
-      </c>
-      <c r="E55" s="29" t="n">
-        <v>5.347899999999999</v>
       </c>
       <c r="F55" s="29" t="n">
         <v>0</v>
@@ -12683,10 +13008,10 @@
         <v>5157</v>
       </c>
       <c r="D56" s="29" t="n">
+        <v>4.305800000000001</v>
+      </c>
+      <c r="E56" s="29" t="n">
         <v>22205</v>
-      </c>
-      <c r="E56" s="29" t="n">
-        <v>4.305800000000001</v>
       </c>
       <c r="F56" s="29" t="n">
         <v>0</v>
@@ -12705,10 +13030,10 @@
         <v>4284</v>
       </c>
       <c r="D57" s="29" t="n">
+        <v>4.1057</v>
+      </c>
+      <c r="E57" s="29" t="n">
         <v>17589</v>
-      </c>
-      <c r="E57" s="29" t="n">
-        <v>4.1057</v>
       </c>
       <c r="F57" s="29" t="n">
         <v>0</v>
@@ -12727,10 +13052,10 @@
         <v>4285</v>
       </c>
       <c r="D58" s="29" t="n">
+        <v>2.811</v>
+      </c>
+      <c r="E58" s="29" t="n">
         <v>12045</v>
-      </c>
-      <c r="E58" s="29" t="n">
-        <v>2.811</v>
       </c>
       <c r="F58" s="29" t="n">
         <v>0</v>
@@ -12749,10 +13074,10 @@
         <v>3926</v>
       </c>
       <c r="D59" s="29" t="n">
+        <v>2.5891</v>
+      </c>
+      <c r="E59" s="29" t="n">
         <v>10165</v>
-      </c>
-      <c r="E59" s="29" t="n">
-        <v>2.5891</v>
       </c>
       <c r="F59" s="29" t="n">
         <v>0</v>
@@ -12771,10 +13096,10 @@
         <v>4109</v>
       </c>
       <c r="D60" s="29" t="n">
+        <v>2.0735</v>
+      </c>
+      <c r="E60" s="29" t="n">
         <v>8520</v>
-      </c>
-      <c r="E60" s="29" t="n">
-        <v>2.0735</v>
       </c>
       <c r="F60" s="29" t="n">
         <v>10</v>
@@ -12793,10 +13118,10 @@
         <v>4348</v>
       </c>
       <c r="D61" s="29" t="n">
+        <v>2.0011</v>
+      </c>
+      <c r="E61" s="29" t="n">
         <v>8701</v>
-      </c>
-      <c r="E61" s="29" t="n">
-        <v>2.0011</v>
       </c>
       <c r="F61" s="29" t="n">
         <v>356</v>
@@ -12815,10 +13140,10 @@
         <v>5211</v>
       </c>
       <c r="D62" s="29" t="n">
+        <v>1.4001</v>
+      </c>
+      <c r="E62" s="29" t="n">
         <v>7296</v>
-      </c>
-      <c r="E62" s="29" t="n">
-        <v>1.4001</v>
       </c>
       <c r="F62" s="29" t="n">
         <v>1142</v>
@@ -12837,10 +13162,10 @@
         <v>5764</v>
       </c>
       <c r="D63" s="29" t="n">
+        <v>1.2542</v>
+      </c>
+      <c r="E63" s="29" t="n">
         <v>7229</v>
-      </c>
-      <c r="E63" s="29" t="n">
-        <v>1.2542</v>
       </c>
       <c r="F63" s="29" t="n">
         <v>1425</v>
@@ -12859,10 +13184,10 @@
         <v>5692</v>
       </c>
       <c r="D64" s="29" t="n">
+        <v>1.0662</v>
+      </c>
+      <c r="E64" s="29" t="n">
         <v>6069</v>
-      </c>
-      <c r="E64" s="29" t="n">
-        <v>1.0662</v>
       </c>
       <c r="F64" s="29" t="n">
         <v>2527</v>
@@ -12881,10 +13206,10 @@
         <v>4777</v>
       </c>
       <c r="D65" s="29" t="n">
+        <v>1.0929</v>
+      </c>
+      <c r="E65" s="29" t="n">
         <v>5221</v>
-      </c>
-      <c r="E65" s="29" t="n">
-        <v>1.0929</v>
       </c>
       <c r="F65" s="29" t="n">
         <v>2494</v>
@@ -12903,10 +13228,10 @@
         <v>4971</v>
       </c>
       <c r="D66" s="29" t="n">
+        <v>0.992</v>
+      </c>
+      <c r="E66" s="29" t="n">
         <v>4931</v>
-      </c>
-      <c r="E66" s="29" t="n">
-        <v>0.992</v>
       </c>
       <c r="F66" s="29" t="n">
         <v>2934</v>
@@ -12925,10 +13250,10 @@
         <v>4665</v>
       </c>
       <c r="D67" s="29" t="n">
+        <v>0.9164</v>
+      </c>
+      <c r="E67" s="29" t="n">
         <v>4275</v>
-      </c>
-      <c r="E67" s="29" t="n">
-        <v>0.9164</v>
       </c>
       <c r="F67" s="29" t="n">
         <v>2378</v>
@@ -12947,10 +13272,10 @@
         <v>4833</v>
       </c>
       <c r="D68" s="29" t="n">
+        <v>0.9524</v>
+      </c>
+      <c r="E68" s="29" t="n">
         <v>4603</v>
-      </c>
-      <c r="E68" s="29" t="n">
-        <v>0.9524</v>
       </c>
       <c r="F68" s="29" t="n">
         <v>1463</v>
@@ -12968,10 +13293,10 @@
         <v>4862</v>
       </c>
       <c r="D69" s="29" t="n">
+        <v>0.8116</v>
+      </c>
+      <c r="E69" s="29" t="n">
         <v>3946</v>
-      </c>
-      <c r="E69" s="29" t="n">
-        <v>0.8116</v>
       </c>
       <c r="F69" s="29" t="n">
         <v>892</v>
@@ -12989,10 +13314,10 @@
         <v>6144</v>
       </c>
       <c r="D70" s="29" t="n">
+        <v>0.6989</v>
+      </c>
+      <c r="E70" s="29" t="n">
         <v>4294</v>
-      </c>
-      <c r="E70" s="29" t="n">
-        <v>0.6989</v>
       </c>
       <c r="F70" s="29" t="n">
         <v>347</v>
@@ -13010,10 +13335,10 @@
         <v>6127</v>
       </c>
       <c r="D71" s="29" t="n">
+        <v>0.6662</v>
+      </c>
+      <c r="E71" s="29" t="n">
         <v>4082</v>
-      </c>
-      <c r="E71" s="29" t="n">
-        <v>0.6662</v>
       </c>
       <c r="F71" s="29" t="n">
         <v>153</v>
@@ -13031,10 +13356,10 @@
         <v>5641</v>
       </c>
       <c r="D72" s="29" t="n">
+        <v>0.6718999999999999</v>
+      </c>
+      <c r="E72" s="29" t="n">
         <v>3790</v>
-      </c>
-      <c r="E72" s="29" t="n">
-        <v>0.6718999999999999</v>
       </c>
       <c r="F72" s="29" t="n">
         <v>334</v>
@@ -13052,10 +13377,10 @@
         <v>6271</v>
       </c>
       <c r="D73" s="29" t="n">
+        <v>0.6433</v>
+      </c>
+      <c r="E73" s="29" t="n">
         <v>4034</v>
-      </c>
-      <c r="E73" s="29" t="n">
-        <v>0.6433</v>
       </c>
       <c r="F73" s="29" t="n">
         <v>207</v>
@@ -13073,10 +13398,10 @@
         <v>6197</v>
       </c>
       <c r="D74" s="29" t="n">
+        <v>1.2713</v>
+      </c>
+      <c r="E74" s="29" t="n">
         <v>7878</v>
-      </c>
-      <c r="E74" s="29" t="n">
-        <v>1.2713</v>
       </c>
       <c r="F74" s="29" t="n">
         <v>589</v>

--- a/Resultados/Mercado mundial - Melón Cantalupo y otros melones.xlsx
+++ b/Resultados/Mercado mundial - Melón Cantalupo y otros melones.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" tabRatio="898" firstSheet="0" activeTab="3" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" tabRatio="898" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Mundial" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Países productores" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Países exportadores" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Países importadores" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="China, Continental" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="India" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Türkiye" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Kazajstán" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brasil" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="Mundial" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Países productores" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Países exportadores" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Países importadores" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="China, mainland" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="India" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="Türkiye" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="Kazakhstan" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="Brazil" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames>
     <definedName name="_AtRisk_SimSetting_AutomaticallyGenerateReports" hidden="1">FALSE</definedName>
@@ -227,7 +227,7 @@
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -307,6 +307,7 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="4" fontId="14" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="2"/>
     <xf numFmtId="166" fontId="3" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -406,13 +407,13 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:bodyPr/>
+          <a:p>
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -432,10 +433,10 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:solidFill>
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ln>
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
@@ -488,13 +489,13 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:bodyPr/>
+          <a:p>
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -514,10 +515,10 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:solidFill>
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ln>
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
@@ -570,13 +571,13 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:bodyPr/>
+          <a:p>
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -596,10 +597,10 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:solidFill>
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ln>
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
@@ -652,13 +653,13 @@
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:bodyPr/>
+          <a:p>
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -678,21 +679,21 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:solidFill>
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ln>
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <cat>
             <numRef>
-              <f>'Países importadores'!$B$12:$B$23</f>
+              <f>'Países importadores'!$B$12:$B$24</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Países importadores'!$C$12:$C$23</f>
+              <f>'Países importadores'!$C$12:$C$24</f>
             </numRef>
           </val>
         </ser>
@@ -734,13 +735,13 @@
 </file>
 
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:bodyPr/>
+          <a:p>
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -760,21 +761,21 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:solidFill>
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ln>
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <cat>
             <numRef>
-              <f>'China, Continental'!$B$12:$B$74</f>
+              <f>'China, mainland'!$B$12:$B$74</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'China, Continental'!$C$12:$C$74</f>
+              <f>'China, mainland'!$C$12:$C$74</f>
             </numRef>
           </val>
         </ser>
@@ -816,13 +817,13 @@
 </file>
 
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:bodyPr/>
+          <a:p>
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -842,10 +843,10 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:solidFill>
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ln>
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
@@ -898,13 +899,13 @@
 </file>
 
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:bodyPr/>
+          <a:p>
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -924,10 +925,10 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:solidFill>
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ln>
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
@@ -980,13 +981,13 @@
 </file>
 
 <file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:bodyPr/>
+          <a:p>
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -1006,21 +1007,21 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:solidFill>
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ln>
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <cat>
             <numRef>
-              <f>'Kazajstán'!$B$12:$B$74</f>
+              <f>'Kazakhstan'!$B$12:$B$74</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Kazajstán'!$C$12:$C$74</f>
+              <f>'Kazakhstan'!$C$12:$C$74</f>
             </numRef>
           </val>
         </ser>
@@ -1062,13 +1063,13 @@
 </file>
 
 <file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:bodyPr/>
+          <a:p>
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -1088,21 +1089,21 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:solidFill>
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ln>
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <cat>
             <numRef>
-              <f>'Brasil'!$B$12:$B$74</f>
+              <f>'Brazil'!$B$12:$B$74</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Brasil'!$C$12:$C$74</f>
+              <f>'Brazil'!$C$12:$C$74</f>
             </numRef>
           </val>
         </ser>
@@ -1144,7 +1145,7 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <twoCellAnchor editAs="oneCell">
     <from>
       <col>10</col>
@@ -1162,26 +1163,26 @@
       <nvPicPr>
         <cNvPr id="2" name="Imagen 1"/>
         <cNvPicPr>
-          <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeAspect="1" noChangeArrowheads="1"/>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </cNvPicPr>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:srcRect xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip r:embed="rId2"/>
+        <a:srcRect/>
+        <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr bwMode="auto">
-        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:xfrm>
           <a:off x="8128000" y="206375"/>
           <a:ext cx="2524125" cy="673100"/>
         </a:xfrm>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+        <a:prstGeom prst="rect">
           <avLst/>
         </a:prstGeom>
-        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:noFill/>
+        <a:ln>
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -1202,9 +1203,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+      <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <c:chart r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1214,7 +1215,7 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <twoCellAnchor editAs="oneCell">
     <from>
       <col>9</col>
@@ -1232,26 +1233,26 @@
       <nvPicPr>
         <cNvPr id="2" name="Imagen 1"/>
         <cNvPicPr>
-          <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeAspect="1" noChangeArrowheads="1"/>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </cNvPicPr>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:srcRect xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip r:embed="rId2"/>
+        <a:srcRect/>
+        <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr bwMode="auto">
-        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:xfrm>
           <a:off x="7937500" y="244475"/>
           <a:ext cx="2524125" cy="695325"/>
         </a:xfrm>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+        <a:prstGeom prst="rect">
           <avLst/>
         </a:prstGeom>
-        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:noFill/>
+        <a:ln>
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -1272,9 +1273,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+      <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <c:chart r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1284,7 +1285,7 @@
 </file>
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <twoCellAnchor editAs="oneCell">
     <from>
       <col>9</col>
@@ -1302,26 +1303,26 @@
       <nvPicPr>
         <cNvPr id="2" name="Imagen 1"/>
         <cNvPicPr>
-          <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeAspect="1" noChangeArrowheads="1"/>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </cNvPicPr>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:srcRect xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip r:embed="rId2"/>
+        <a:srcRect/>
+        <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr bwMode="auto">
-        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:xfrm>
           <a:off x="7981950" y="219075"/>
           <a:ext cx="2524125" cy="685800"/>
         </a:xfrm>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+        <a:prstGeom prst="rect">
           <avLst/>
         </a:prstGeom>
-        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:noFill/>
+        <a:ln>
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -1342,9 +1343,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+      <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <c:chart r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1354,7 +1355,7 @@
 </file>
 
 <file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <twoCellAnchor editAs="oneCell">
     <from>
       <col>10</col>
@@ -1372,26 +1373,26 @@
       <nvPicPr>
         <cNvPr id="2" name="Imagen 1"/>
         <cNvPicPr>
-          <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeAspect="1" noChangeArrowheads="1"/>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </cNvPicPr>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:srcRect xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip r:embed="rId2"/>
+        <a:srcRect/>
+        <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr bwMode="auto">
-        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:xfrm>
           <a:off x="10175875" y="79375"/>
           <a:ext cx="2524125" cy="682625"/>
         </a:xfrm>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+        <a:prstGeom prst="rect">
           <avLst/>
         </a:prstGeom>
-        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:noFill/>
+        <a:ln>
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -1412,9 +1413,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+      <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <c:chart r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1424,7 +1425,7 @@
 </file>
 
 <file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
       <col>8</col>
@@ -1439,9 +1440,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+      <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <c:chart r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1461,13 +1462,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId2"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip cstate="print" r:embed="rId2"/>
+        <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:prstGeom prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -1476,7 +1477,7 @@
 </file>
 
 <file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
       <col>8</col>
@@ -1491,9 +1492,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+      <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <c:chart r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1513,13 +1514,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId2"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip cstate="print" r:embed="rId2"/>
+        <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:prstGeom prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -1528,7 +1529,7 @@
 </file>
 
 <file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
       <col>8</col>
@@ -1543,9 +1544,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+      <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <c:chart r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1565,13 +1566,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId2"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip cstate="print" r:embed="rId2"/>
+        <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:prstGeom prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -1580,7 +1581,7 @@
 </file>
 
 <file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
       <col>8</col>
@@ -1595,9 +1596,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+      <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <c:chart r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1617,13 +1618,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId2"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip cstate="print" r:embed="rId2"/>
+        <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:prstGeom prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -1632,7 +1633,7 @@
 </file>
 
 <file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
       <col>8</col>
@@ -1647,9 +1648,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+      <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <c:chart r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1669,13 +1670,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId2"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip cstate="print" r:embed="rId2"/>
+        <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:prstGeom prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -2010,8 +2011,8 @@
   </sheetPr>
   <dimension ref="B2:L124"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="69" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
@@ -2059,7 +2060,7 @@
       <c r="B7" s="14" t="n"/>
       <c r="C7" s="5" t="inlineStr">
         <is>
-          <t>Estadísticas del mercado mundial de (Producto)</t>
+          <t>Estadísticas del mercado mundial</t>
         </is>
       </c>
       <c r="D7" s="14" t="n"/>
@@ -2138,10 +2139,10 @@
         <v>1092354</v>
       </c>
       <c r="D12" s="29" t="n">
+        <v>29541294</v>
+      </c>
+      <c r="E12" s="29" t="n">
         <v>27.0437</v>
-      </c>
-      <c r="E12" s="29" t="n">
-        <v>29541294</v>
       </c>
       <c r="F12" s="29" t="n">
         <v>2191483.55</v>
@@ -2160,10 +2161,10 @@
         <v>1117263</v>
       </c>
       <c r="D13" s="29" t="n">
+        <v>29773949.61</v>
+      </c>
+      <c r="E13" s="29" t="n">
         <v>26.649</v>
-      </c>
-      <c r="E13" s="29" t="n">
-        <v>29773949.61</v>
       </c>
       <c r="F13" s="29" t="n">
         <v>2146059.23</v>
@@ -2182,10 +2183,10 @@
         <v>1104740</v>
       </c>
       <c r="D14" s="29" t="n">
+        <v>29207643.51</v>
+      </c>
+      <c r="E14" s="29" t="n">
         <v>26.4385</v>
-      </c>
-      <c r="E14" s="29" t="n">
-        <v>29207643.51</v>
       </c>
       <c r="F14" s="29" t="n">
         <v>2117035.06</v>
@@ -2204,10 +2205,10 @@
         <v>1067108</v>
       </c>
       <c r="D15" s="29" t="n">
+        <v>28337233.19</v>
+      </c>
+      <c r="E15" s="29" t="n">
         <v>26.5552</v>
-      </c>
-      <c r="E15" s="29" t="n">
-        <v>28337233.19</v>
       </c>
       <c r="F15" s="29" t="n">
         <v>2092079.01</v>
@@ -2226,10 +2227,10 @@
         <v>1041745</v>
       </c>
       <c r="D16" s="29" t="n">
+        <v>27277827.69</v>
+      </c>
+      <c r="E16" s="29" t="n">
         <v>26.1847</v>
-      </c>
-      <c r="E16" s="29" t="n">
-        <v>27277827.69</v>
       </c>
       <c r="F16" s="29" t="n">
         <v>2219795</v>
@@ -2248,10 +2249,10 @@
         <v>1045228</v>
       </c>
       <c r="D17" s="29" t="n">
+        <v>27346229.27</v>
+      </c>
+      <c r="E17" s="29" t="n">
         <v>26.1629</v>
-      </c>
-      <c r="E17" s="29" t="n">
-        <v>27346229.27</v>
       </c>
       <c r="F17" s="29" t="n">
         <v>2311209.71</v>
@@ -2270,10 +2271,10 @@
         <v>1052044</v>
       </c>
       <c r="D18" s="29" t="n">
+        <v>26934502.54</v>
+      </c>
+      <c r="E18" s="29" t="n">
         <v>25.6021</v>
-      </c>
-      <c r="E18" s="29" t="n">
-        <v>26934502.54</v>
       </c>
       <c r="F18" s="29" t="n">
         <v>2281916.53</v>
@@ -2292,10 +2293,10 @@
         <v>1104469</v>
       </c>
       <c r="D19" s="29" t="n">
+        <v>26919340.03</v>
+      </c>
+      <c r="E19" s="29" t="n">
         <v>24.3731</v>
-      </c>
-      <c r="E19" s="29" t="n">
-        <v>26919340.03</v>
       </c>
       <c r="F19" s="29" t="n">
         <v>2262352.73</v>
@@ -2314,10 +2315,10 @@
         <v>1061859</v>
       </c>
       <c r="D20" s="29" t="n">
+        <v>25885545.25</v>
+      </c>
+      <c r="E20" s="29" t="n">
         <v>24.3776</v>
-      </c>
-      <c r="E20" s="29" t="n">
-        <v>25885545.25</v>
       </c>
       <c r="F20" s="29" t="n">
         <v>2113670.64</v>
@@ -2336,10 +2337,10 @@
         <v>1075297</v>
       </c>
       <c r="D21" s="29" t="n">
+        <v>26329770.78</v>
+      </c>
+      <c r="E21" s="29" t="n">
         <v>24.486</v>
-      </c>
-      <c r="E21" s="29" t="n">
-        <v>26329770.78</v>
       </c>
       <c r="F21" s="29" t="n">
         <v>2020325.61</v>
@@ -2358,10 +2359,10 @@
         <v>1102829</v>
       </c>
       <c r="D22" s="29" t="n">
+        <v>26723064.1</v>
+      </c>
+      <c r="E22" s="29" t="n">
         <v>24.2314</v>
-      </c>
-      <c r="E22" s="29" t="n">
-        <v>26723064.1</v>
       </c>
       <c r="F22" s="29" t="n">
         <v>1993664</v>
@@ -2380,10 +2381,10 @@
         <v>1084981</v>
       </c>
       <c r="D23" s="29" t="n">
+        <v>25902609.29</v>
+      </c>
+      <c r="E23" s="29" t="n">
         <v>23.8738</v>
-      </c>
-      <c r="E23" s="29" t="n">
-        <v>25902609.29</v>
       </c>
       <c r="F23" s="29" t="n">
         <v>1909348</v>
@@ -2402,10 +2403,10 @@
         <v>1109073</v>
       </c>
       <c r="D24" s="29" t="n">
+        <v>25992318.57</v>
+      </c>
+      <c r="E24" s="29" t="n">
         <v>23.4361</v>
-      </c>
-      <c r="E24" s="29" t="n">
-        <v>25992318.57</v>
       </c>
       <c r="F24" s="29" t="n">
         <v>2011499</v>
@@ -2424,10 +2425,10 @@
         <v>1126295</v>
       </c>
       <c r="D25" s="29" t="n">
+        <v>26094115.42</v>
+      </c>
+      <c r="E25" s="29" t="n">
         <v>23.1681</v>
-      </c>
-      <c r="E25" s="29" t="n">
-        <v>26094115.42</v>
       </c>
       <c r="F25" s="29" t="n">
         <v>1947686</v>
@@ -2446,10 +2447,10 @@
         <v>1105156</v>
       </c>
       <c r="D26" s="29" t="n">
+        <v>25949436.58</v>
+      </c>
+      <c r="E26" s="29" t="n">
         <v>23.4803</v>
-      </c>
-      <c r="E26" s="29" t="n">
-        <v>25949436.58</v>
       </c>
       <c r="F26" s="29" t="n">
         <v>2007782</v>
@@ -2468,10 +2469,10 @@
         <v>1100442</v>
       </c>
       <c r="D27" s="29" t="n">
+        <v>25360728.72</v>
+      </c>
+      <c r="E27" s="29" t="n">
         <v>23.0459</v>
-      </c>
-      <c r="E27" s="29" t="n">
-        <v>25360728.72</v>
       </c>
       <c r="F27" s="29" t="n">
         <v>1975517</v>
@@ -2490,10 +2491,10 @@
         <v>1107796</v>
       </c>
       <c r="D28" s="29" t="n">
+        <v>24787213.8</v>
+      </c>
+      <c r="E28" s="29" t="n">
         <v>22.3752</v>
-      </c>
-      <c r="E28" s="29" t="n">
-        <v>24787213.8</v>
       </c>
       <c r="F28" s="29" t="n">
         <v>2055846</v>
@@ -2512,10 +2513,10 @@
         <v>1122747</v>
       </c>
       <c r="D29" s="29" t="n">
+        <v>24158955.55</v>
+      </c>
+      <c r="E29" s="29" t="n">
         <v>21.5177</v>
-      </c>
-      <c r="E29" s="29" t="n">
-        <v>24158955.55</v>
       </c>
       <c r="F29" s="29" t="n">
         <v>2025335</v>
@@ -2534,10 +2535,10 @@
         <v>1112954</v>
       </c>
       <c r="D30" s="29" t="n">
+        <v>23334441.76</v>
+      </c>
+      <c r="E30" s="29" t="n">
         <v>20.9662</v>
-      </c>
-      <c r="E30" s="29" t="n">
-        <v>23334441.76</v>
       </c>
       <c r="F30" s="29" t="n">
         <v>1878891</v>
@@ -2556,10 +2557,10 @@
         <v>1041698</v>
       </c>
       <c r="D31" s="29" t="n">
+        <v>21803736.22</v>
+      </c>
+      <c r="E31" s="29" t="n">
         <v>20.931</v>
-      </c>
-      <c r="E31" s="29" t="n">
-        <v>21803736.22</v>
       </c>
       <c r="F31" s="29" t="n">
         <v>1754956</v>
@@ -2578,10 +2579,10 @@
         <v>1084547</v>
       </c>
       <c r="D32" s="29" t="n">
+        <v>21740162.77</v>
+      </c>
+      <c r="E32" s="29" t="n">
         <v>20.0454</v>
-      </c>
-      <c r="E32" s="29" t="n">
-        <v>21740162.77</v>
       </c>
       <c r="F32" s="29" t="n">
         <v>1800627</v>
@@ -2600,10 +2601,10 @@
         <v>1076499</v>
       </c>
       <c r="D33" s="29" t="n">
+        <v>21857303.91</v>
+      </c>
+      <c r="E33" s="29" t="n">
         <v>20.3041</v>
-      </c>
-      <c r="E33" s="29" t="n">
-        <v>21857303.91</v>
       </c>
       <c r="F33" s="29" t="n">
         <v>1634038</v>
@@ -2622,10 +2623,10 @@
         <v>1033052</v>
       </c>
       <c r="D34" s="29" t="n">
+        <v>20114336.07</v>
+      </c>
+      <c r="E34" s="29" t="n">
         <v>19.4708</v>
-      </c>
-      <c r="E34" s="29" t="n">
-        <v>20114336.07</v>
       </c>
       <c r="F34" s="29" t="n">
         <v>1565905</v>
@@ -2644,10 +2645,10 @@
         <v>1015032</v>
       </c>
       <c r="D35" s="29" t="n">
+        <v>19846350.89</v>
+      </c>
+      <c r="E35" s="29" t="n">
         <v>19.5524</v>
-      </c>
-      <c r="E35" s="29" t="n">
-        <v>19846350.89</v>
       </c>
       <c r="F35" s="29" t="n">
         <v>1553824.85</v>
@@ -2666,10 +2667,10 @@
         <v>966952</v>
       </c>
       <c r="D36" s="29" t="n">
+        <v>18774466.3</v>
+      </c>
+      <c r="E36" s="29" t="n">
         <v>19.4161</v>
-      </c>
-      <c r="E36" s="29" t="n">
-        <v>18774466.3</v>
       </c>
       <c r="F36" s="29" t="n">
         <v>1636867.42</v>
@@ -2688,10 +2689,10 @@
         <v>940919</v>
       </c>
       <c r="D37" s="29" t="n">
+        <v>17403260.72</v>
+      </c>
+      <c r="E37" s="29" t="n">
         <v>18.496</v>
-      </c>
-      <c r="E37" s="29" t="n">
-        <v>17403260.72</v>
       </c>
       <c r="F37" s="29" t="n">
         <v>1483910.16</v>
@@ -2710,10 +2711,10 @@
         <v>873931</v>
       </c>
       <c r="D38" s="29" t="n">
+        <v>16291231.64</v>
+      </c>
+      <c r="E38" s="29" t="n">
         <v>18.6413</v>
-      </c>
-      <c r="E38" s="29" t="n">
-        <v>16291231.64</v>
       </c>
       <c r="F38" s="29" t="n">
         <v>1411535.39</v>
@@ -2732,10 +2733,10 @@
         <v>943976</v>
       </c>
       <c r="D39" s="29" t="n">
+        <v>17342172.99</v>
+      </c>
+      <c r="E39" s="29" t="n">
         <v>18.3714</v>
-      </c>
-      <c r="E39" s="29" t="n">
-        <v>17342172.99</v>
       </c>
       <c r="F39" s="29" t="n">
         <v>1332466</v>
@@ -2754,10 +2755,10 @@
         <v>950415</v>
       </c>
       <c r="D40" s="29" t="n">
+        <v>16247589.86</v>
+      </c>
+      <c r="E40" s="29" t="n">
         <v>17.0953</v>
-      </c>
-      <c r="E40" s="29" t="n">
-        <v>16247589.86</v>
       </c>
       <c r="F40" s="29" t="n">
         <v>1194827.08</v>
@@ -2776,10 +2777,10 @@
         <v>963455</v>
       </c>
       <c r="D41" s="29" t="n">
+        <v>15952244.04</v>
+      </c>
+      <c r="E41" s="29" t="n">
         <v>16.5573</v>
-      </c>
-      <c r="E41" s="29" t="n">
-        <v>15952244.04</v>
       </c>
       <c r="F41" s="29" t="n">
         <v>1104386</v>
@@ -2798,10 +2799,10 @@
         <v>960444</v>
       </c>
       <c r="D42" s="29" t="n">
+        <v>15558081.65</v>
+      </c>
+      <c r="E42" s="29" t="n">
         <v>16.1988</v>
-      </c>
-      <c r="E42" s="29" t="n">
-        <v>15558081.65</v>
       </c>
       <c r="F42" s="29" t="n">
         <v>985695</v>
@@ -2820,10 +2821,10 @@
         <v>938723</v>
       </c>
       <c r="D43" s="29" t="n">
+        <v>14820768.74</v>
+      </c>
+      <c r="E43" s="29" t="n">
         <v>15.7882</v>
-      </c>
-      <c r="E43" s="29" t="n">
-        <v>14820768.74</v>
       </c>
       <c r="F43" s="29" t="n">
         <v>945360</v>
@@ -2842,10 +2843,10 @@
         <v>907027</v>
       </c>
       <c r="D44" s="29" t="n">
+        <v>14100176.55</v>
+      </c>
+      <c r="E44" s="29" t="n">
         <v>15.5455</v>
-      </c>
-      <c r="E44" s="29" t="n">
-        <v>14100176.55</v>
       </c>
       <c r="F44" s="29" t="n">
         <v>997685</v>
@@ -2864,10 +2865,10 @@
         <v>902716</v>
       </c>
       <c r="D45" s="29" t="n">
+        <v>13659735.69</v>
+      </c>
+      <c r="E45" s="29" t="n">
         <v>15.1318</v>
-      </c>
-      <c r="E45" s="29" t="n">
-        <v>13659735.69</v>
       </c>
       <c r="F45" s="29" t="n">
         <v>822972</v>
@@ -2886,10 +2887,10 @@
         <v>894544</v>
       </c>
       <c r="D46" s="29" t="n">
+        <v>13161080</v>
+      </c>
+      <c r="E46" s="29" t="n">
         <v>14.7126</v>
-      </c>
-      <c r="E46" s="29" t="n">
-        <v>13161080</v>
       </c>
       <c r="F46" s="29" t="n">
         <v>778920</v>
@@ -2908,10 +2909,10 @@
         <v>934331</v>
       </c>
       <c r="D47" s="29" t="n">
+        <v>14530697</v>
+      </c>
+      <c r="E47" s="29" t="n">
         <v>15.552</v>
-      </c>
-      <c r="E47" s="29" t="n">
-        <v>14530697</v>
       </c>
       <c r="F47" s="29" t="n">
         <v>664718</v>
@@ -2930,10 +2931,10 @@
         <v>888755</v>
       </c>
       <c r="D48" s="29" t="n">
+        <v>14025988</v>
+      </c>
+      <c r="E48" s="29" t="n">
         <v>15.7816</v>
-      </c>
-      <c r="E48" s="29" t="n">
-        <v>14025988</v>
       </c>
       <c r="F48" s="29" t="n">
         <v>715956</v>
@@ -2952,10 +2953,10 @@
         <v>903429</v>
       </c>
       <c r="D49" s="29" t="n">
+        <v>14017118</v>
+      </c>
+      <c r="E49" s="29" t="n">
         <v>15.5155</v>
-      </c>
-      <c r="E49" s="29" t="n">
-        <v>14017118</v>
       </c>
       <c r="F49" s="29" t="n">
         <v>690086</v>
@@ -2974,10 +2975,10 @@
         <v>877283</v>
       </c>
       <c r="D50" s="29" t="n">
+        <v>13619957</v>
+      </c>
+      <c r="E50" s="29" t="n">
         <v>15.5252</v>
-      </c>
-      <c r="E50" s="29" t="n">
-        <v>13619957</v>
       </c>
       <c r="F50" s="29" t="n">
         <v>590348</v>
@@ -2996,10 +2997,10 @@
         <v>743902</v>
       </c>
       <c r="D51" s="29" t="n">
+        <v>11138777</v>
+      </c>
+      <c r="E51" s="29" t="n">
         <v>14.9734</v>
-      </c>
-      <c r="E51" s="29" t="n">
-        <v>11138777</v>
       </c>
       <c r="F51" s="29" t="n">
         <v>576072</v>
@@ -3018,10 +3019,10 @@
         <v>713173</v>
       </c>
       <c r="D52" s="29" t="n">
+        <v>10309524</v>
+      </c>
+      <c r="E52" s="29" t="n">
         <v>14.4559</v>
-      </c>
-      <c r="E52" s="29" t="n">
-        <v>10309524</v>
       </c>
       <c r="F52" s="29" t="n">
         <v>489349</v>
@@ -3040,10 +3041,10 @@
         <v>702862</v>
       </c>
       <c r="D53" s="29" t="n">
+        <v>10359427</v>
+      </c>
+      <c r="E53" s="29" t="n">
         <v>14.7389</v>
-      </c>
-      <c r="E53" s="29" t="n">
-        <v>10359427</v>
       </c>
       <c r="F53" s="29" t="n">
         <v>464805</v>
@@ -3062,10 +3063,10 @@
         <v>650534</v>
       </c>
       <c r="D54" s="29" t="n">
+        <v>9556911</v>
+      </c>
+      <c r="E54" s="29" t="n">
         <v>14.6909</v>
-      </c>
-      <c r="E54" s="29" t="n">
-        <v>9556911</v>
       </c>
       <c r="F54" s="29" t="n">
         <v>437753</v>
@@ -3084,10 +3085,10 @@
         <v>625474</v>
       </c>
       <c r="D55" s="29" t="n">
+        <v>8804553</v>
+      </c>
+      <c r="E55" s="29" t="n">
         <v>14.0766</v>
-      </c>
-      <c r="E55" s="29" t="n">
-        <v>8804553</v>
       </c>
       <c r="F55" s="29" t="n">
         <v>429148</v>
@@ -3106,10 +3107,10 @@
         <v>623468</v>
       </c>
       <c r="D56" s="29" t="n">
+        <v>8974794</v>
+      </c>
+      <c r="E56" s="29" t="n">
         <v>14.395</v>
-      </c>
-      <c r="E56" s="29" t="n">
-        <v>8974794</v>
       </c>
       <c r="F56" s="29" t="n">
         <v>411646</v>
@@ -3128,10 +3129,10 @@
         <v>609337</v>
       </c>
       <c r="D57" s="29" t="n">
+        <v>8479339</v>
+      </c>
+      <c r="E57" s="29" t="n">
         <v>13.9157</v>
-      </c>
-      <c r="E57" s="29" t="n">
-        <v>8479339</v>
       </c>
       <c r="F57" s="29" t="n">
         <v>420991</v>
@@ -3150,10 +3151,10 @@
         <v>561534</v>
       </c>
       <c r="D58" s="29" t="n">
+        <v>7787799</v>
+      </c>
+      <c r="E58" s="29" t="n">
         <v>13.8688</v>
-      </c>
-      <c r="E58" s="29" t="n">
-        <v>7787799</v>
       </c>
       <c r="F58" s="29" t="n">
         <v>347295</v>
@@ -3172,10 +3173,10 @@
         <v>558741</v>
       </c>
       <c r="D59" s="29" t="n">
+        <v>7824891</v>
+      </c>
+      <c r="E59" s="29" t="n">
         <v>14.0045</v>
-      </c>
-      <c r="E59" s="29" t="n">
-        <v>7824891</v>
       </c>
       <c r="F59" s="29" t="n">
         <v>368281</v>
@@ -3194,10 +3195,10 @@
         <v>532694</v>
       </c>
       <c r="D60" s="29" t="n">
+        <v>7579843</v>
+      </c>
+      <c r="E60" s="29" t="n">
         <v>14.2293</v>
-      </c>
-      <c r="E60" s="29" t="n">
-        <v>7579843</v>
       </c>
       <c r="F60" s="29" t="n">
         <v>349530</v>
@@ -3216,10 +3217,10 @@
         <v>509872</v>
       </c>
       <c r="D61" s="29" t="n">
+        <v>6953126</v>
+      </c>
+      <c r="E61" s="29" t="n">
         <v>13.637</v>
-      </c>
-      <c r="E61" s="29" t="n">
-        <v>6953126</v>
       </c>
       <c r="F61" s="29" t="n">
         <v>327896</v>
@@ -3238,10 +3239,10 @@
         <v>518374</v>
       </c>
       <c r="D62" s="29" t="n">
+        <v>6818349</v>
+      </c>
+      <c r="E62" s="29" t="n">
         <v>13.1533</v>
-      </c>
-      <c r="E62" s="29" t="n">
-        <v>6818349</v>
       </c>
       <c r="F62" s="29" t="n">
         <v>305015</v>
@@ -3260,10 +3261,10 @@
         <v>530105</v>
       </c>
       <c r="D63" s="29" t="n">
+        <v>7086642</v>
+      </c>
+      <c r="E63" s="29" t="n">
         <v>13.3684</v>
-      </c>
-      <c r="E63" s="29" t="n">
-        <v>7086642</v>
       </c>
       <c r="F63" s="29" t="n">
         <v>311305</v>
@@ -3282,10 +3283,10 @@
         <v>526155</v>
       </c>
       <c r="D64" s="29" t="n">
+        <v>6975974</v>
+      </c>
+      <c r="E64" s="29" t="n">
         <v>13.2584</v>
-      </c>
-      <c r="E64" s="29" t="n">
-        <v>6975974</v>
       </c>
       <c r="F64" s="29" t="n">
         <v>326392</v>
@@ -3304,10 +3305,10 @@
         <v>503180</v>
       </c>
       <c r="D65" s="29" t="n">
+        <v>6535621</v>
+      </c>
+      <c r="E65" s="29" t="n">
         <v>12.9886</v>
-      </c>
-      <c r="E65" s="29" t="n">
-        <v>6535621</v>
       </c>
       <c r="F65" s="29" t="n">
         <v>303773</v>
@@ -3326,10 +3327,10 @@
         <v>548626</v>
       </c>
       <c r="D66" s="29" t="n">
+        <v>7098264</v>
+      </c>
+      <c r="E66" s="29" t="n">
         <v>12.9383</v>
-      </c>
-      <c r="E66" s="29" t="n">
-        <v>7098264</v>
       </c>
       <c r="F66" s="29" t="n">
         <v>275298</v>
@@ -3348,10 +3349,10 @@
         <v>568164</v>
       </c>
       <c r="D67" s="29" t="n">
+        <v>7295854</v>
+      </c>
+      <c r="E67" s="29" t="n">
         <v>12.8411</v>
-      </c>
-      <c r="E67" s="29" t="n">
-        <v>7295854</v>
       </c>
       <c r="F67" s="29" t="n">
         <v>239891</v>
@@ -3370,10 +3371,10 @@
         <v>550790</v>
       </c>
       <c r="D68" s="29" t="n">
+        <v>6989359</v>
+      </c>
+      <c r="E68" s="29" t="n">
         <v>12.6897</v>
-      </c>
-      <c r="E68" s="29" t="n">
-        <v>6989359</v>
       </c>
       <c r="F68" s="29" t="n">
         <v>257020</v>
@@ -3391,10 +3392,10 @@
         <v>531871</v>
       </c>
       <c r="D69" s="29" t="n">
+        <v>6708665</v>
+      </c>
+      <c r="E69" s="29" t="n">
         <v>12.6133</v>
-      </c>
-      <c r="E69" s="29" t="n">
-        <v>6708665</v>
       </c>
       <c r="F69" s="29" t="n">
         <v>231949</v>
@@ -3412,10 +3413,10 @@
         <v>539831</v>
       </c>
       <c r="D70" s="29" t="n">
+        <v>6790562</v>
+      </c>
+      <c r="E70" s="29" t="n">
         <v>12.5791</v>
-      </c>
-      <c r="E70" s="29" t="n">
-        <v>6790562</v>
       </c>
       <c r="F70" s="29" t="n">
         <v>218732</v>
@@ -3433,10 +3434,10 @@
         <v>547815</v>
       </c>
       <c r="D71" s="29" t="n">
+        <v>6674515</v>
+      </c>
+      <c r="E71" s="29" t="n">
         <v>12.1839</v>
-      </c>
-      <c r="E71" s="29" t="n">
-        <v>6674515</v>
       </c>
       <c r="F71" s="29" t="n">
         <v>207506</v>
@@ -3454,10 +3455,10 @@
         <v>556065</v>
       </c>
       <c r="D72" s="29" t="n">
+        <v>6752456</v>
+      </c>
+      <c r="E72" s="29" t="n">
         <v>12.1433</v>
-      </c>
-      <c r="E72" s="29" t="n">
-        <v>6752456</v>
       </c>
       <c r="F72" s="29" t="n">
         <v>187491</v>
@@ -3475,10 +3476,10 @@
         <v>573658</v>
       </c>
       <c r="D73" s="29" t="n">
+        <v>6676427</v>
+      </c>
+      <c r="E73" s="29" t="n">
         <v>11.6383</v>
-      </c>
-      <c r="E73" s="29" t="n">
-        <v>6676427</v>
       </c>
       <c r="F73" s="29" t="n">
         <v>167078</v>
@@ -3496,10 +3497,10 @@
         <v>627367</v>
       </c>
       <c r="D74" s="29" t="n">
+        <v>6992959</v>
+      </c>
+      <c r="E74" s="29" t="n">
         <v>11.1465</v>
-      </c>
-      <c r="E74" s="29" t="n">
-        <v>6992959</v>
       </c>
       <c r="F74" s="29" t="n">
         <v>151274</v>
@@ -3786,8 +3787,8 @@
   </sheetPr>
   <dimension ref="B2:K34"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
@@ -3882,7 +3883,7 @@
     <row r="12">
       <c r="B12" s="29" t="inlineStr">
         <is>
-          <t>China, Continental</t>
+          <t>China, mainland</t>
         </is>
       </c>
       <c r="C12" s="29" t="n">
@@ -3924,7 +3925,7 @@
     <row r="15">
       <c r="B15" s="29" t="inlineStr">
         <is>
-          <t>Kazajstán</t>
+          <t>Kazakhstan</t>
         </is>
       </c>
       <c r="C15" s="29" t="n">
@@ -3938,7 +3939,7 @@
     <row r="16">
       <c r="B16" s="29" t="inlineStr">
         <is>
-          <t>Brasil</t>
+          <t>Brazil</t>
         </is>
       </c>
       <c r="C16" s="29" t="n">
@@ -3966,7 +3967,7 @@
     <row r="18">
       <c r="B18" s="29" t="inlineStr">
         <is>
-          <t>Afganistán</t>
+          <t>Afghanistan</t>
         </is>
       </c>
       <c r="C18" s="29" t="n">
@@ -3980,7 +3981,7 @@
     <row r="19">
       <c r="B19" s="29" t="inlineStr">
         <is>
-          <t>Italia</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="C19" s="29" t="n">
@@ -3994,7 +3995,7 @@
     <row r="20">
       <c r="B20" s="29" t="inlineStr">
         <is>
-          <t>México</t>
+          <t>Mexico</t>
         </is>
       </c>
       <c r="C20" s="29" t="n">
@@ -4008,7 +4009,7 @@
     <row r="21">
       <c r="B21" s="29" t="inlineStr">
         <is>
-          <t>Irán (República Islámica del)</t>
+          <t>Iran (Islamic Republic of)</t>
         </is>
       </c>
       <c r="C21" s="29" t="n">
@@ -4116,7 +4117,7 @@
   <dimension ref="B2:K45"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="Q25" sqref="Q25"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
@@ -4229,7 +4230,7 @@
     <row r="13">
       <c r="B13" s="29" t="inlineStr">
         <is>
-          <t>España</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="C13" s="29" t="n">
@@ -4243,7 +4244,7 @@
     <row r="14">
       <c r="B14" s="29" t="inlineStr">
         <is>
-          <t>Brasil</t>
+          <t>Brazil</t>
         </is>
       </c>
       <c r="C14" s="29" t="n">
@@ -4271,7 +4272,7 @@
     <row r="16">
       <c r="B16" s="29" t="inlineStr">
         <is>
-          <t>Estados Unidos de América</t>
+          <t>United States of America</t>
         </is>
       </c>
       <c r="C16" s="29" t="n">
@@ -4285,7 +4286,7 @@
     <row r="17">
       <c r="B17" s="29" t="inlineStr">
         <is>
-          <t>México</t>
+          <t>Mexico</t>
         </is>
       </c>
       <c r="C17" s="29" t="n">
@@ -4299,7 +4300,7 @@
     <row r="18">
       <c r="B18" s="29" t="inlineStr">
         <is>
-          <t>Países Bajos (Reino de los)</t>
+          <t>Netherlands (Kingdom of the)</t>
         </is>
       </c>
       <c r="C18" s="29" t="n">
@@ -4313,7 +4314,7 @@
     <row r="19">
       <c r="B19" s="29" t="inlineStr">
         <is>
-          <t>China, Continental</t>
+          <t>China, mainland</t>
         </is>
       </c>
       <c r="C19" s="29" t="n">
@@ -4327,7 +4328,7 @@
     <row r="20">
       <c r="B20" s="29" t="inlineStr">
         <is>
-          <t>Marruecos</t>
+          <t>Morocco</t>
         </is>
       </c>
       <c r="C20" s="29" t="n">
@@ -4537,8 +4538,8 @@
   </sheetPr>
   <dimension ref="B2:K36"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
@@ -4633,7 +4634,7 @@
     <row r="12">
       <c r="B12" s="29" t="inlineStr">
         <is>
-          <t>Estados Unidos de América</t>
+          <t>United States of America</t>
         </is>
       </c>
       <c r="C12" s="29" t="n">
@@ -4647,7 +4648,7 @@
     <row r="13">
       <c r="B13" s="29" t="inlineStr">
         <is>
-          <t>Países Bajos (Reino de los)</t>
+          <t>Netherlands (Kingdom of the)</t>
         </is>
       </c>
       <c r="C13" s="29" t="n">
@@ -4661,7 +4662,7 @@
     <row r="14">
       <c r="B14" s="29" t="inlineStr">
         <is>
-          <t>Alemania</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="C14" s="29" t="n">
@@ -4675,7 +4676,7 @@
     <row r="15">
       <c r="B15" s="29" t="inlineStr">
         <is>
-          <t>Francia</t>
+          <t>France</t>
         </is>
       </c>
       <c r="C15" s="29" t="n">
@@ -4689,7 +4690,7 @@
     <row r="16">
       <c r="B16" s="29" t="inlineStr">
         <is>
-          <t>Canadá</t>
+          <t>Canada</t>
         </is>
       </c>
       <c r="C16" s="29" t="n">
@@ -4717,7 +4718,7 @@
     <row r="18">
       <c r="B18" s="29" t="inlineStr">
         <is>
-          <t>Reino Unido de Gran Bretaña e Irlanda del Norte</t>
+          <t>United Kingdom of Great Britain and Northern Ireland</t>
         </is>
       </c>
       <c r="C18" s="29" t="n">
@@ -4731,7 +4732,7 @@
     <row r="19">
       <c r="B19" s="29" t="inlineStr">
         <is>
-          <t>España</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="C19" s="29" t="n">
@@ -4759,7 +4760,7 @@
     <row r="21">
       <c r="B21" s="29" t="inlineStr">
         <is>
-          <t>Emiratos Árabes Unidos</t>
+          <t>United Arab Emirates</t>
         </is>
       </c>
       <c r="C21" s="29" t="n">
@@ -4773,35 +4774,43 @@
     <row r="22">
       <c r="B22" s="29" t="inlineStr">
         <is>
-          <t>Otros</t>
+          <t>Mexico</t>
         </is>
       </c>
       <c r="C22" s="29" t="n">
-        <v>523791.47</v>
+        <v>10283.6</v>
       </c>
       <c r="D22" s="31" t="n">
-        <v>0.239012275497117</v>
+        <v>0.004692528949167792</v>
       </c>
       <c r="E22" s="29" t="n"/>
     </row>
     <row r="23">
       <c r="B23" s="29" t="inlineStr">
         <is>
+          <t>Otros</t>
+        </is>
+      </c>
+      <c r="C23" s="29" t="n">
+        <v>513507.8699999999</v>
+      </c>
+      <c r="D23" s="31" t="n">
+        <v>0.2343197465479492</v>
+      </c>
+      <c r="E23" s="29" t="n"/>
+    </row>
+    <row r="24">
+      <c r="B24" s="29" t="inlineStr">
+        <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="C23" s="29" t="n">
+      <c r="C24" s="29" t="n">
         <v>2191483.55</v>
       </c>
-      <c r="D23" s="31" t="n">
+      <c r="D24" s="31" t="n">
         <v>1</v>
       </c>
-      <c r="E23" s="29" t="n"/>
-    </row>
-    <row r="24">
-      <c r="B24" s="29" t="n"/>
-      <c r="C24" s="29" t="n"/>
-      <c r="D24" s="31" t="n"/>
       <c r="E24" s="29" t="n"/>
     </row>
     <row r="25">
@@ -4811,58 +4820,59 @@
       <c r="E25" s="29" t="n"/>
     </row>
     <row r="26">
-      <c r="B26" s="15" t="n"/>
+      <c r="B26" s="29" t="n"/>
       <c r="C26" s="37" t="n"/>
-      <c r="D26" s="34" t="n"/>
+      <c r="D26" s="31" t="n"/>
+      <c r="E26" s="29" t="n"/>
     </row>
     <row r="27">
       <c r="B27" s="15" t="n"/>
-      <c r="C27" s="37" t="n"/>
+      <c r="C27" s="38" t="n"/>
       <c r="D27" s="34" t="n"/>
     </row>
     <row r="28">
       <c r="B28" s="15" t="n"/>
-      <c r="C28" s="37" t="n"/>
+      <c r="C28" s="38" t="n"/>
       <c r="D28" s="34" t="n"/>
     </row>
     <row r="29">
       <c r="B29" s="15" t="n"/>
-      <c r="C29" s="37" t="n"/>
+      <c r="C29" s="38" t="n"/>
       <c r="D29" s="34" t="n"/>
     </row>
     <row r="30">
       <c r="B30" s="15" t="n"/>
-      <c r="C30" s="37" t="n"/>
+      <c r="C30" s="38" t="n"/>
       <c r="D30" s="34" t="n"/>
     </row>
     <row r="31">
       <c r="B31" s="15" t="n"/>
-      <c r="C31" s="37" t="n"/>
+      <c r="C31" s="38" t="n"/>
       <c r="D31" s="34" t="n"/>
     </row>
     <row r="32">
       <c r="B32" s="15" t="n"/>
-      <c r="C32" s="37" t="n"/>
+      <c r="C32" s="38" t="n"/>
       <c r="D32" s="34" t="n"/>
     </row>
     <row r="33">
       <c r="B33" s="15" t="n"/>
-      <c r="C33" s="37" t="n"/>
+      <c r="C33" s="38" t="n"/>
       <c r="D33" s="34" t="n"/>
     </row>
     <row r="34">
       <c r="B34" s="15" t="n"/>
-      <c r="C34" s="37" t="n"/>
+      <c r="C34" s="38" t="n"/>
       <c r="D34" s="34" t="n"/>
     </row>
     <row r="35">
       <c r="B35" s="15" t="n"/>
-      <c r="C35" s="37" t="n"/>
+      <c r="C35" s="38" t="n"/>
       <c r="D35" s="36" t="n"/>
     </row>
     <row r="36">
       <c r="B36" s="15" t="n"/>
-      <c r="C36" s="37" t="n"/>
+      <c r="C36" s="38" t="n"/>
       <c r="D36" s="36" t="n"/>
     </row>
   </sheetData>
@@ -4932,7 +4942,7 @@
       <c r="B7" s="14" t="n"/>
       <c r="C7" s="5" t="inlineStr">
         <is>
-          <t>Estadísticas del mercado mundial de (Producto)</t>
+          <t>Estadísticas del mercado mundial</t>
         </is>
       </c>
       <c r="D7" s="14" t="n"/>
@@ -5011,10 +5021,10 @@
         <v>392183</v>
       </c>
       <c r="D12" s="29" t="n">
+        <v>14454741.27</v>
+      </c>
+      <c r="E12" s="29" t="n">
         <v>36.8571</v>
-      </c>
-      <c r="E12" s="29" t="n">
-        <v>14454741.27</v>
       </c>
       <c r="F12" s="29" t="n">
         <v>4652.87</v>
@@ -5033,10 +5043,10 @@
         <v>388816</v>
       </c>
       <c r="D13" s="29" t="n">
+        <v>14194049.42</v>
+      </c>
+      <c r="E13" s="29" t="n">
         <v>36.5058</v>
-      </c>
-      <c r="E13" s="29" t="n">
-        <v>14194049.42</v>
       </c>
       <c r="F13" s="29" t="n">
         <v>2486.28</v>
@@ -5055,10 +5065,10 @@
         <v>382854</v>
       </c>
       <c r="D14" s="29" t="n">
+        <v>14007257.43</v>
+      </c>
+      <c r="E14" s="29" t="n">
         <v>36.5864</v>
-      </c>
-      <c r="E14" s="29" t="n">
-        <v>14007257.43</v>
       </c>
       <c r="F14" s="29" t="n">
         <v>291.18</v>
@@ -5077,10 +5087,10 @@
         <v>384699</v>
       </c>
       <c r="D15" s="29" t="n">
+        <v>13811294.56</v>
+      </c>
+      <c r="E15" s="29" t="n">
         <v>35.9016</v>
-      </c>
-      <c r="E15" s="29" t="n">
-        <v>13811294.56</v>
       </c>
       <c r="F15" s="29" t="n">
         <v>145.54</v>
@@ -5099,10 +5109,10 @@
         <v>383712</v>
       </c>
       <c r="D16" s="29" t="n">
+        <v>13541452</v>
+      </c>
+      <c r="E16" s="29" t="n">
         <v>35.29069999999999</v>
-      </c>
-      <c r="E16" s="29" t="n">
-        <v>13541452</v>
       </c>
       <c r="F16" s="29" t="n">
         <v>134.71</v>
@@ -5121,10 +5131,10 @@
         <v>380585</v>
       </c>
       <c r="D17" s="29" t="n">
+        <v>13159300</v>
+      </c>
+      <c r="E17" s="29" t="n">
         <v>34.5765</v>
-      </c>
-      <c r="E17" s="29" t="n">
-        <v>13159300</v>
       </c>
       <c r="F17" s="29" t="n">
         <v>15.24</v>
@@ -5143,10 +5153,10 @@
         <v>348820</v>
       </c>
       <c r="D18" s="29" t="n">
+        <v>12326500</v>
+      </c>
+      <c r="E18" s="29" t="n">
         <v>35.3377</v>
-      </c>
-      <c r="E18" s="29" t="n">
-        <v>12326500</v>
       </c>
       <c r="F18" s="29" t="n">
         <v>8.109999999999999</v>
@@ -5165,10 +5175,10 @@
         <v>345930</v>
       </c>
       <c r="D19" s="29" t="n">
+        <v>11876400</v>
+      </c>
+      <c r="E19" s="29" t="n">
         <v>34.3318</v>
-      </c>
-      <c r="E19" s="29" t="n">
-        <v>11876400</v>
       </c>
       <c r="F19" s="29" t="n">
         <v>4.79</v>
@@ -5187,10 +5197,10 @@
         <v>345560</v>
       </c>
       <c r="D20" s="29" t="n">
+        <v>11179600</v>
+      </c>
+      <c r="E20" s="29" t="n">
         <v>32.3521</v>
-      </c>
-      <c r="E20" s="29" t="n">
-        <v>11179600</v>
       </c>
       <c r="F20" s="29" t="n">
         <v>50.16</v>
@@ -5209,10 +5219,10 @@
         <v>335190</v>
       </c>
       <c r="D21" s="29" t="n">
+        <v>11058600</v>
+      </c>
+      <c r="E21" s="29" t="n">
         <v>32.992</v>
-      </c>
-      <c r="E21" s="29" t="n">
-        <v>11058600</v>
       </c>
       <c r="F21" s="29" t="n">
         <v>12.76</v>
@@ -5231,10 +5241,10 @@
         <v>336230</v>
       </c>
       <c r="D22" s="29" t="n">
+        <v>11223600</v>
+      </c>
+      <c r="E22" s="29" t="n">
         <v>33.3807</v>
-      </c>
-      <c r="E22" s="29" t="n">
-        <v>11223600</v>
       </c>
       <c r="F22" s="29" t="n">
         <v>2772</v>
@@ -5253,10 +5263,10 @@
         <v>333910</v>
       </c>
       <c r="D23" s="29" t="n">
+        <v>10701400</v>
+      </c>
+      <c r="E23" s="29" t="n">
         <v>32.0488</v>
-      </c>
-      <c r="E23" s="29" t="n">
-        <v>10701400</v>
       </c>
       <c r="F23" s="29" t="n">
         <v>3681</v>
@@ -5275,10 +5285,10 @@
         <v>346300</v>
       </c>
       <c r="D24" s="29" t="n">
+        <v>10889800</v>
+      </c>
+      <c r="E24" s="29" t="n">
         <v>31.4461</v>
-      </c>
-      <c r="E24" s="29" t="n">
-        <v>10889800</v>
       </c>
       <c r="F24" s="29" t="n">
         <v>3514</v>
@@ -5297,10 +5307,10 @@
         <v>354540</v>
       </c>
       <c r="D25" s="29" t="n">
+        <v>10860100</v>
+      </c>
+      <c r="E25" s="29" t="n">
         <v>30.6315</v>
-      </c>
-      <c r="E25" s="29" t="n">
-        <v>10860100</v>
       </c>
       <c r="F25" s="29" t="n">
         <v>2020</v>
@@ -5319,10 +5329,10 @@
         <v>339670</v>
       </c>
       <c r="D26" s="29" t="n">
+        <v>10749200</v>
+      </c>
+      <c r="E26" s="29" t="n">
         <v>31.646</v>
-      </c>
-      <c r="E26" s="29" t="n">
-        <v>10749200</v>
       </c>
       <c r="F26" s="29" t="n">
         <v>2260</v>
@@ -5341,10 +5351,10 @@
         <v>335660</v>
       </c>
       <c r="D27" s="29" t="n">
+        <v>10634500</v>
+      </c>
+      <c r="E27" s="29" t="n">
         <v>31.6824</v>
-      </c>
-      <c r="E27" s="29" t="n">
-        <v>10634500</v>
       </c>
       <c r="F27" s="29" t="n">
         <v>1413</v>
@@ -5363,10 +5373,10 @@
         <v>336320</v>
       </c>
       <c r="D28" s="29" t="n">
+        <v>9630300</v>
+      </c>
+      <c r="E28" s="29" t="n">
         <v>28.6343</v>
-      </c>
-      <c r="E28" s="29" t="n">
-        <v>9630300</v>
       </c>
       <c r="F28" s="29" t="n">
         <v>3</v>
@@ -5385,10 +5395,10 @@
         <v>346420</v>
       </c>
       <c r="D29" s="29" t="n">
+        <v>9505800</v>
+      </c>
+      <c r="E29" s="29" t="n">
         <v>27.4401</v>
-      </c>
-      <c r="E29" s="29" t="n">
-        <v>9505800</v>
       </c>
       <c r="F29" s="29" t="n">
         <v>11</v>
@@ -5407,10 +5417,10 @@
         <v>338940</v>
       </c>
       <c r="D30" s="29" t="n">
+        <v>8825700</v>
+      </c>
+      <c r="E30" s="29" t="n">
         <v>26.0391</v>
-      </c>
-      <c r="E30" s="29" t="n">
-        <v>8825700</v>
       </c>
       <c r="F30" s="29" t="n">
         <v>9</v>
@@ -5429,10 +5439,10 @@
         <v>319420</v>
       </c>
       <c r="D31" s="29" t="n">
+        <v>8064200</v>
+      </c>
+      <c r="E31" s="29" t="n">
         <v>25.2464</v>
-      </c>
-      <c r="E31" s="29" t="n">
-        <v>8064200</v>
       </c>
       <c r="F31" s="29" t="n">
         <v>0</v>
@@ -5451,10 +5461,10 @@
         <v>355380</v>
       </c>
       <c r="D32" s="29" t="n">
+        <v>8242300</v>
+      </c>
+      <c r="E32" s="29" t="n">
         <v>23.1929</v>
-      </c>
-      <c r="E32" s="29" t="n">
-        <v>8242300</v>
       </c>
       <c r="F32" s="29" t="n">
         <v>0</v>
@@ -5473,10 +5483,10 @@
         <v>366840</v>
       </c>
       <c r="D33" s="29" t="n">
+        <v>8648000</v>
+      </c>
+      <c r="E33" s="29" t="n">
         <v>23.5743</v>
-      </c>
-      <c r="E33" s="29" t="n">
-        <v>8648000</v>
       </c>
       <c r="F33" s="29" t="n">
         <v>0</v>
@@ -5495,10 +5505,10 @@
         <v>329910</v>
       </c>
       <c r="D34" s="29" t="n">
+        <v>7425200</v>
+      </c>
+      <c r="E34" s="29" t="n">
         <v>22.5067</v>
-      </c>
-      <c r="E34" s="29" t="n">
-        <v>7425200</v>
       </c>
       <c r="F34" s="29" t="n">
         <v>15</v>
@@ -5517,10 +5527,10 @@
         <v>309180</v>
       </c>
       <c r="D35" s="29" t="n">
+        <v>7243508</v>
+      </c>
+      <c r="E35" s="29" t="n">
         <v>23.4281</v>
-      </c>
-      <c r="E35" s="29" t="n">
-        <v>7243508</v>
       </c>
       <c r="F35" s="29" t="n">
         <v>54.26</v>
@@ -5539,10 +5549,10 @@
         <v>234130</v>
       </c>
       <c r="D36" s="29" t="n">
+        <v>5767100</v>
+      </c>
+      <c r="E36" s="29" t="n">
         <v>24.632</v>
-      </c>
-      <c r="E36" s="29" t="n">
-        <v>5767100</v>
       </c>
       <c r="F36" s="29" t="n">
         <v>84</v>
@@ -5561,10 +5571,10 @@
         <v>199870</v>
       </c>
       <c r="D37" s="29" t="n">
+        <v>4867079</v>
+      </c>
+      <c r="E37" s="29" t="n">
         <v>24.3512</v>
-      </c>
-      <c r="E37" s="29" t="n">
-        <v>4867079</v>
       </c>
       <c r="F37" s="29" t="n">
         <v>426</v>
@@ -5583,10 +5593,10 @@
         <v>158950</v>
       </c>
       <c r="D38" s="29" t="n">
+        <v>4377959</v>
+      </c>
+      <c r="E38" s="29" t="n">
         <v>27.543</v>
-      </c>
-      <c r="E38" s="29" t="n">
-        <v>4377959</v>
       </c>
       <c r="F38" s="29" t="n">
         <v>511</v>
@@ -5605,10 +5615,10 @@
         <v>242360</v>
       </c>
       <c r="D39" s="29" t="n">
+        <v>5570060</v>
+      </c>
+      <c r="E39" s="29" t="n">
         <v>22.9826</v>
-      </c>
-      <c r="E39" s="29" t="n">
-        <v>5570060</v>
       </c>
       <c r="F39" s="29" t="n">
         <v>128</v>
@@ -5627,10 +5637,10 @@
         <v>236470</v>
       </c>
       <c r="D40" s="29" t="n">
+        <v>5000000</v>
+      </c>
+      <c r="E40" s="29" t="n">
         <v>21.1443</v>
-      </c>
-      <c r="E40" s="29" t="n">
-        <v>5000000</v>
       </c>
       <c r="F40" s="29" t="n">
         <v>27</v>
@@ -5649,10 +5659,10 @@
         <v>254000</v>
       </c>
       <c r="D41" s="29" t="n">
+        <v>4700000</v>
+      </c>
+      <c r="E41" s="29" t="n">
         <v>18.5039</v>
-      </c>
-      <c r="E41" s="29" t="n">
-        <v>4700000</v>
       </c>
       <c r="F41" s="29" t="n">
         <v>0</v>
@@ -5671,10 +5681,10 @@
         <v>253000</v>
       </c>
       <c r="D42" s="29" t="n">
+        <v>4600000</v>
+      </c>
+      <c r="E42" s="29" t="n">
         <v>18.1818</v>
-      </c>
-      <c r="E42" s="29" t="n">
-        <v>4600000</v>
       </c>
       <c r="F42" s="29" t="n">
         <v>0</v>
@@ -5693,10 +5703,10 @@
         <v>200000</v>
       </c>
       <c r="D43" s="29" t="n">
+        <v>3800000</v>
+      </c>
+      <c r="E43" s="29" t="n">
         <v>19</v>
-      </c>
-      <c r="E43" s="29" t="n">
-        <v>3800000</v>
       </c>
       <c r="F43" s="29" t="n">
         <v>24</v>
@@ -5715,10 +5725,10 @@
         <v>176000</v>
       </c>
       <c r="D44" s="29" t="n">
+        <v>3000000</v>
+      </c>
+      <c r="E44" s="29" t="n">
         <v>17.0455</v>
-      </c>
-      <c r="E44" s="29" t="n">
-        <v>3000000</v>
       </c>
       <c r="F44" s="29" t="n">
         <v>4</v>
@@ -5737,10 +5747,10 @@
         <v>166000</v>
       </c>
       <c r="D45" s="29" t="n">
+        <v>2900000</v>
+      </c>
+      <c r="E45" s="29" t="n">
         <v>17.4699</v>
-      </c>
-      <c r="E45" s="29" t="n">
-        <v>2900000</v>
       </c>
       <c r="F45" s="29" t="n">
         <v>1</v>
@@ -5759,10 +5769,10 @@
         <v>220000</v>
       </c>
       <c r="D46" s="29" t="n">
+        <v>3500000</v>
+      </c>
+      <c r="E46" s="29" t="n">
         <v>15.9091</v>
-      </c>
-      <c r="E46" s="29" t="n">
-        <v>3500000</v>
       </c>
       <c r="F46" s="29" t="n">
         <v>4</v>
@@ -5781,10 +5791,10 @@
         <v>260000</v>
       </c>
       <c r="D47" s="29" t="n">
+        <v>4200000</v>
+      </c>
+      <c r="E47" s="29" t="n">
         <v>16.1538</v>
-      </c>
-      <c r="E47" s="29" t="n">
-        <v>4200000</v>
       </c>
       <c r="F47" s="29" t="n">
         <v>5</v>
@@ -5803,10 +5813,10 @@
         <v>260000</v>
       </c>
       <c r="D48" s="29" t="n">
+        <v>4100000</v>
+      </c>
+      <c r="E48" s="29" t="n">
         <v>15.7692</v>
-      </c>
-      <c r="E48" s="29" t="n">
-        <v>4100000</v>
       </c>
       <c r="F48" s="29" t="n">
         <v>2</v>
@@ -5825,10 +5835,10 @@
         <v>230000</v>
       </c>
       <c r="D49" s="29" t="n">
+        <v>3600000</v>
+      </c>
+      <c r="E49" s="29" t="n">
         <v>15.6522</v>
-      </c>
-      <c r="E49" s="29" t="n">
-        <v>3600000</v>
       </c>
       <c r="F49" s="29" t="n">
         <v>0</v>
@@ -5847,10 +5857,10 @@
         <v>212000</v>
       </c>
       <c r="D50" s="29" t="n">
+        <v>3300000</v>
+      </c>
+      <c r="E50" s="29" t="n">
         <v>15.566</v>
-      </c>
-      <c r="E50" s="29" t="n">
-        <v>3300000</v>
       </c>
       <c r="F50" s="29" t="n">
         <v>0</v>
@@ -5869,10 +5879,10 @@
         <v>135000</v>
       </c>
       <c r="D51" s="29" t="n">
+        <v>2100000</v>
+      </c>
+      <c r="E51" s="29" t="n">
         <v>15.5556</v>
-      </c>
-      <c r="E51" s="29" t="n">
-        <v>2100000</v>
       </c>
       <c r="F51" s="29" t="n">
         <v>0</v>
@@ -5891,10 +5901,10 @@
         <v>125000</v>
       </c>
       <c r="D52" s="29" t="n">
+        <v>1900000</v>
+      </c>
+      <c r="E52" s="29" t="n">
         <v>15.2</v>
-      </c>
-      <c r="E52" s="29" t="n">
-        <v>1900000</v>
       </c>
       <c r="F52" s="29" t="n">
         <v>0</v>
@@ -5913,10 +5923,10 @@
         <v>115000</v>
       </c>
       <c r="D53" s="29" t="n">
+        <v>1800000</v>
+      </c>
+      <c r="E53" s="29" t="n">
         <v>15.6522</v>
-      </c>
-      <c r="E53" s="29" t="n">
-        <v>1800000</v>
       </c>
       <c r="F53" s="29" t="n">
         <v>0</v>
@@ -5935,10 +5945,10 @@
         <v>105000</v>
       </c>
       <c r="D54" s="29" t="n">
+        <v>1690000</v>
+      </c>
+      <c r="E54" s="29" t="n">
         <v>16.0952</v>
-      </c>
-      <c r="E54" s="29" t="n">
-        <v>1690000</v>
       </c>
       <c r="F54" s="29" t="n">
         <v>0</v>
@@ -5957,10 +5967,10 @@
         <v>95000</v>
       </c>
       <c r="D55" s="29" t="n">
+        <v>1425000</v>
+      </c>
+      <c r="E55" s="29" t="n">
         <v>15</v>
-      </c>
-      <c r="E55" s="29" t="n">
-        <v>1425000</v>
       </c>
       <c r="F55" s="29" t="n">
         <v>0</v>
@@ -5979,10 +5989,10 @@
         <v>95000</v>
       </c>
       <c r="D56" s="29" t="n">
+        <v>1400000</v>
+      </c>
+      <c r="E56" s="29" t="n">
         <v>14.7368</v>
-      </c>
-      <c r="E56" s="29" t="n">
-        <v>1400000</v>
       </c>
       <c r="F56" s="29" t="n">
         <v>0</v>
@@ -6001,10 +6011,10 @@
         <v>97000</v>
       </c>
       <c r="D57" s="29" t="n">
+        <v>1400000</v>
+      </c>
+      <c r="E57" s="29" t="n">
         <v>14.433</v>
-      </c>
-      <c r="E57" s="29" t="n">
-        <v>1400000</v>
       </c>
       <c r="F57" s="29" t="n">
         <v>0</v>
@@ -6023,10 +6033,10 @@
         <v>92000</v>
       </c>
       <c r="D58" s="29" t="n">
+        <v>1350000</v>
+      </c>
+      <c r="E58" s="29" t="n">
         <v>14.6739</v>
-      </c>
-      <c r="E58" s="29" t="n">
-        <v>1350000</v>
       </c>
       <c r="F58" s="29" t="n">
         <v>0</v>
@@ -6045,10 +6055,10 @@
         <v>87000</v>
       </c>
       <c r="D59" s="29" t="n">
+        <v>1280000</v>
+      </c>
+      <c r="E59" s="29" t="n">
         <v>14.7126</v>
-      </c>
-      <c r="E59" s="29" t="n">
-        <v>1280000</v>
       </c>
       <c r="F59" s="29" t="n">
         <v>0</v>
@@ -6067,10 +6077,10 @@
         <v>87000</v>
       </c>
       <c r="D60" s="29" t="n">
+        <v>1280000</v>
+      </c>
+      <c r="E60" s="29" t="n">
         <v>14.7126</v>
-      </c>
-      <c r="E60" s="29" t="n">
-        <v>1280000</v>
       </c>
       <c r="F60" s="29" t="n">
         <v>0</v>
@@ -6089,10 +6099,10 @@
         <v>87000</v>
       </c>
       <c r="D61" s="29" t="n">
+        <v>1290000</v>
+      </c>
+      <c r="E61" s="29" t="n">
         <v>14.8276</v>
-      </c>
-      <c r="E61" s="29" t="n">
-        <v>1290000</v>
       </c>
       <c r="F61" s="29" t="n">
         <v>0</v>
@@ -6111,10 +6121,10 @@
         <v>87000</v>
       </c>
       <c r="D62" s="29" t="n">
+        <v>1280000</v>
+      </c>
+      <c r="E62" s="29" t="n">
         <v>14.7126</v>
-      </c>
-      <c r="E62" s="29" t="n">
-        <v>1280000</v>
       </c>
       <c r="F62" s="29" t="n">
         <v>0</v>
@@ -6133,10 +6143,10 @@
         <v>80000</v>
       </c>
       <c r="D63" s="29" t="n">
+        <v>1150000</v>
+      </c>
+      <c r="E63" s="29" t="n">
         <v>14.375</v>
-      </c>
-      <c r="E63" s="29" t="n">
-        <v>1150000</v>
       </c>
       <c r="F63" s="29" t="n">
         <v>0</v>
@@ -6155,10 +6165,10 @@
         <v>80000</v>
       </c>
       <c r="D64" s="29" t="n">
+        <v>1220000</v>
+      </c>
+      <c r="E64" s="29" t="n">
         <v>15.25</v>
-      </c>
-      <c r="E64" s="29" t="n">
-        <v>1220000</v>
       </c>
       <c r="F64" s="29" t="n">
         <v>0</v>
@@ -6177,10 +6187,10 @@
         <v>70000</v>
       </c>
       <c r="D65" s="29" t="n">
+        <v>1055000</v>
+      </c>
+      <c r="E65" s="29" t="n">
         <v>15.0714</v>
-      </c>
-      <c r="E65" s="29" t="n">
-        <v>1055000</v>
       </c>
       <c r="F65" s="29" t="n">
         <v>0</v>
@@ -6199,10 +6209,10 @@
         <v>105000</v>
       </c>
       <c r="D66" s="29" t="n">
+        <v>1500000</v>
+      </c>
+      <c r="E66" s="29" t="n">
         <v>14.2857</v>
-      </c>
-      <c r="E66" s="29" t="n">
-        <v>1500000</v>
       </c>
       <c r="F66" s="29" t="n">
         <v>0</v>
@@ -6221,10 +6231,10 @@
         <v>105000</v>
       </c>
       <c r="D67" s="29" t="n">
+        <v>1450000</v>
+      </c>
+      <c r="E67" s="29" t="n">
         <v>13.8095</v>
-      </c>
-      <c r="E67" s="29" t="n">
-        <v>1450000</v>
       </c>
       <c r="F67" s="29" t="n">
         <v>0</v>
@@ -6243,10 +6253,10 @@
         <v>110000</v>
       </c>
       <c r="D68" s="29" t="n">
+        <v>1400000</v>
+      </c>
+      <c r="E68" s="29" t="n">
         <v>12.7273</v>
-      </c>
-      <c r="E68" s="29" t="n">
-        <v>1400000</v>
       </c>
       <c r="F68" s="29" t="n">
         <v>0</v>
@@ -6264,10 +6274,10 @@
         <v>110000</v>
       </c>
       <c r="D69" s="29" t="n">
+        <v>1390000</v>
+      </c>
+      <c r="E69" s="29" t="n">
         <v>12.6364</v>
-      </c>
-      <c r="E69" s="29" t="n">
-        <v>1390000</v>
       </c>
       <c r="F69" s="29" t="n">
         <v>0</v>
@@ -6285,10 +6295,10 @@
         <v>115000</v>
       </c>
       <c r="D70" s="29" t="n">
+        <v>1450000</v>
+      </c>
+      <c r="E70" s="29" t="n">
         <v>12.6087</v>
-      </c>
-      <c r="E70" s="29" t="n">
-        <v>1450000</v>
       </c>
       <c r="F70" s="29" t="n">
         <v>0</v>
@@ -6306,10 +6316,10 @@
         <v>115000</v>
       </c>
       <c r="D71" s="29" t="n">
+        <v>1380000</v>
+      </c>
+      <c r="E71" s="29" t="n">
         <v>12</v>
-      </c>
-      <c r="E71" s="29" t="n">
-        <v>1380000</v>
       </c>
       <c r="F71" s="29" t="n">
         <v>0</v>
@@ -6327,10 +6337,10 @@
         <v>130000</v>
       </c>
       <c r="D72" s="29" t="n">
+        <v>1545000</v>
+      </c>
+      <c r="E72" s="29" t="n">
         <v>11.8846</v>
-      </c>
-      <c r="E72" s="29" t="n">
-        <v>1545000</v>
       </c>
       <c r="F72" s="29" t="n">
         <v>0</v>
@@ -6348,10 +6358,10 @@
         <v>150000</v>
       </c>
       <c r="D73" s="29" t="n">
+        <v>1730000</v>
+      </c>
+      <c r="E73" s="29" t="n">
         <v>11.5333</v>
-      </c>
-      <c r="E73" s="29" t="n">
-        <v>1730000</v>
       </c>
       <c r="F73" s="29" t="n">
         <v>0</v>
@@ -6369,10 +6379,10 @@
         <v>210000</v>
       </c>
       <c r="D74" s="29" t="n">
+        <v>2260000</v>
+      </c>
+      <c r="E74" s="29" t="n">
         <v>10.7619</v>
-      </c>
-      <c r="E74" s="29" t="n">
-        <v>2260000</v>
       </c>
       <c r="F74" s="29" t="n">
         <v>0</v>
@@ -6708,7 +6718,7 @@
       <c r="B7" s="14" t="n"/>
       <c r="C7" s="5" t="inlineStr">
         <is>
-          <t>Estadísticas del mercado mundial de (Producto)</t>
+          <t>Estadísticas del mercado mundial</t>
         </is>
       </c>
       <c r="D7" s="14" t="n"/>
@@ -6787,10 +6797,10 @@
         <v>68000</v>
       </c>
       <c r="D12" s="29" t="n">
+        <v>1498000</v>
+      </c>
+      <c r="E12" s="29" t="n">
         <v>22.0294</v>
-      </c>
-      <c r="E12" s="29" t="n">
-        <v>1498000</v>
       </c>
       <c r="F12" s="29" t="n">
         <v>213.48</v>
@@ -6809,10 +6819,10 @@
         <v>68000</v>
       </c>
       <c r="D13" s="29" t="n">
+        <v>1498000</v>
+      </c>
+      <c r="E13" s="29" t="n">
         <v>22.0294</v>
-      </c>
-      <c r="E13" s="29" t="n">
-        <v>1498000</v>
       </c>
       <c r="F13" s="29" t="n">
         <v>436.73</v>
@@ -6831,10 +6841,10 @@
         <v>75000</v>
       </c>
       <c r="D14" s="29" t="n">
+        <v>1478000</v>
+      </c>
+      <c r="E14" s="29" t="n">
         <v>19.7067</v>
-      </c>
-      <c r="E14" s="29" t="n">
-        <v>1478000</v>
       </c>
       <c r="F14" s="29" t="n">
         <v>63.57</v>
@@ -6853,10 +6863,10 @@
         <v>61000</v>
       </c>
       <c r="D15" s="29" t="n">
+        <v>1368000</v>
+      </c>
+      <c r="E15" s="29" t="n">
         <v>22.4262</v>
-      </c>
-      <c r="E15" s="29" t="n">
-        <v>1368000</v>
       </c>
       <c r="F15" s="29" t="n">
         <v>84.63</v>
@@ -6875,10 +6885,10 @@
         <v>57000</v>
       </c>
       <c r="D16" s="29" t="n">
+        <v>1266000</v>
+      </c>
+      <c r="E16" s="29" t="n">
         <v>22.2105</v>
-      </c>
-      <c r="E16" s="29" t="n">
-        <v>1266000</v>
       </c>
       <c r="F16" s="29" t="n">
         <v>258.75</v>
@@ -6897,10 +6907,10 @@
         <v>54000</v>
       </c>
       <c r="D17" s="29" t="n">
+        <v>1231000</v>
+      </c>
+      <c r="E17" s="29" t="n">
         <v>22.7963</v>
-      </c>
-      <c r="E17" s="29" t="n">
-        <v>1231000</v>
       </c>
       <c r="F17" s="29" t="n">
         <v>451.19</v>
@@ -6919,10 +6929,10 @@
         <v>50000</v>
       </c>
       <c r="D18" s="29" t="n">
+        <v>1097000</v>
+      </c>
+      <c r="E18" s="29" t="n">
         <v>21.94</v>
-      </c>
-      <c r="E18" s="29" t="n">
-        <v>1097000</v>
       </c>
       <c r="F18" s="29" t="n">
         <v>591.63</v>
@@ -6941,10 +6951,10 @@
         <v>45000</v>
       </c>
       <c r="D19" s="29" t="n">
+        <v>935000</v>
+      </c>
+      <c r="E19" s="29" t="n">
         <v>20.7778</v>
-      </c>
-      <c r="E19" s="29" t="n">
-        <v>935000</v>
       </c>
       <c r="F19" s="29" t="n">
         <v>533.5599999999999</v>
@@ -6963,10 +6973,10 @@
         <v>42000</v>
       </c>
       <c r="D20" s="29" t="n">
+        <v>863000</v>
+      </c>
+      <c r="E20" s="29" t="n">
         <v>20.5476</v>
-      </c>
-      <c r="E20" s="29" t="n">
-        <v>863000</v>
       </c>
       <c r="F20" s="29" t="n">
         <v>400.55</v>
@@ -6985,10 +6995,10 @@
         <v>37000</v>
       </c>
       <c r="D21" s="29" t="n">
+        <v>761000</v>
+      </c>
+      <c r="E21" s="29" t="n">
         <v>20.5676</v>
-      </c>
-      <c r="E21" s="29" t="n">
-        <v>761000</v>
       </c>
       <c r="F21" s="29" t="n">
         <v>326.34</v>
@@ -7007,10 +7017,10 @@
         <v>42000</v>
       </c>
       <c r="D22" s="29" t="n">
+        <v>868000</v>
+      </c>
+      <c r="E22" s="29" t="n">
         <v>20.6667</v>
-      </c>
-      <c r="E22" s="29" t="n">
-        <v>868000</v>
       </c>
       <c r="F22" s="29" t="n">
         <v>384</v>
@@ -7029,10 +7039,10 @@
         <v>38000</v>
       </c>
       <c r="D23" s="29" t="n">
+        <v>791000</v>
+      </c>
+      <c r="E23" s="29" t="n">
         <v>20.8158</v>
-      </c>
-      <c r="E23" s="29" t="n">
-        <v>791000</v>
       </c>
       <c r="F23" s="29" t="n">
         <v>63</v>
@@ -7051,10 +7061,10 @@
         <v>39500</v>
       </c>
       <c r="D24" s="29" t="n">
+        <v>739900</v>
+      </c>
+      <c r="E24" s="29" t="n">
         <v>18.7316</v>
-      </c>
-      <c r="E24" s="29" t="n">
-        <v>739900</v>
       </c>
       <c r="F24" s="29" t="n">
         <v>193</v>
@@ -7073,10 +7083,10 @@
         <v>42469</v>
       </c>
       <c r="D25" s="29" t="n">
+        <v>931687.99</v>
+      </c>
+      <c r="E25" s="29" t="n">
         <v>21.9381</v>
-      </c>
-      <c r="E25" s="29" t="n">
-        <v>931687.99</v>
       </c>
       <c r="F25" s="29" t="n">
         <v>389</v>
@@ -7095,10 +7105,10 @@
         <v>41391</v>
       </c>
       <c r="D26" s="29" t="n">
+        <v>904054.36</v>
+      </c>
+      <c r="E26" s="29" t="n">
         <v>21.8416</v>
-      </c>
-      <c r="E26" s="29" t="n">
-        <v>904054.36</v>
       </c>
       <c r="F26" s="29" t="n">
         <v>777</v>
@@ -7117,10 +7127,10 @@
         <v>40286</v>
       </c>
       <c r="D27" s="29" t="n">
+        <v>876007.99</v>
+      </c>
+      <c r="E27" s="29" t="n">
         <v>21.7446</v>
-      </c>
-      <c r="E27" s="29" t="n">
-        <v>876007.99</v>
       </c>
       <c r="F27" s="29" t="n">
         <v>787</v>
@@ -7139,10 +7149,10 @@
         <v>39160</v>
       </c>
       <c r="D28" s="29" t="n">
+        <v>847701.58</v>
+      </c>
+      <c r="E28" s="29" t="n">
         <v>21.6473</v>
-      </c>
-      <c r="E28" s="29" t="n">
-        <v>847701.58</v>
       </c>
       <c r="F28" s="29" t="n">
         <v>628</v>
@@ -7161,10 +7171,10 @@
         <v>38025</v>
       </c>
       <c r="D29" s="29" t="n">
+        <v>819427</v>
+      </c>
+      <c r="E29" s="29" t="n">
         <v>21.5499</v>
-      </c>
-      <c r="E29" s="29" t="n">
-        <v>819427</v>
       </c>
       <c r="F29" s="29" t="n">
         <v>633</v>
@@ -7183,10 +7193,10 @@
         <v>36925</v>
       </c>
       <c r="D30" s="29" t="n">
+        <v>792199.13</v>
+      </c>
+      <c r="E30" s="29" t="n">
         <v>21.4541</v>
-      </c>
-      <c r="E30" s="29" t="n">
-        <v>792199.13</v>
       </c>
       <c r="F30" s="29" t="n">
         <v>704</v>
@@ -7205,10 +7215,10 @@
         <v>35533</v>
       </c>
       <c r="D31" s="29" t="n">
+        <v>758528.6800000001</v>
+      </c>
+      <c r="E31" s="29" t="n">
         <v>21.347</v>
-      </c>
-      <c r="E31" s="29" t="n">
-        <v>758528.6800000001</v>
       </c>
       <c r="F31" s="29" t="n">
         <v>408</v>
@@ -7227,10 +7237,10 @@
         <v>31771</v>
       </c>
       <c r="D32" s="29" t="n">
+        <v>674080.08</v>
+      </c>
+      <c r="E32" s="29" t="n">
         <v>21.2171</v>
-      </c>
-      <c r="E32" s="29" t="n">
-        <v>674080.08</v>
       </c>
       <c r="F32" s="29" t="n">
         <v>1220</v>
@@ -7249,10 +7259,10 @@
         <v>31557</v>
       </c>
       <c r="D33" s="29" t="n">
+        <v>665402.67</v>
+      </c>
+      <c r="E33" s="29" t="n">
         <v>21.0857</v>
-      </c>
-      <c r="E33" s="29" t="n">
-        <v>665402.67</v>
       </c>
       <c r="F33" s="29" t="n">
         <v>594</v>
@@ -7271,10 +7281,10 @@
         <v>31261</v>
       </c>
       <c r="D34" s="29" t="n">
+        <v>657153.03</v>
+      </c>
+      <c r="E34" s="29" t="n">
         <v>21.0213</v>
-      </c>
-      <c r="E34" s="29" t="n">
-        <v>657153.03</v>
       </c>
       <c r="F34" s="29" t="n">
         <v>517</v>
@@ -7293,10 +7303,10 @@
         <v>31500</v>
       </c>
       <c r="D35" s="29" t="n">
+        <v>645000</v>
+      </c>
+      <c r="E35" s="29" t="n">
         <v>20.4762</v>
-      </c>
-      <c r="E35" s="29" t="n">
-        <v>645000</v>
       </c>
       <c r="F35" s="29" t="n">
         <v>322</v>
@@ -7315,10 +7325,10 @@
         <v>31003</v>
       </c>
       <c r="D36" s="29" t="n">
+        <v>648469.78</v>
+      </c>
+      <c r="E36" s="29" t="n">
         <v>20.9165</v>
-      </c>
-      <c r="E36" s="29" t="n">
-        <v>648469.78</v>
       </c>
       <c r="F36" s="29" t="n">
         <v>110.21</v>
@@ -7337,10 +7347,10 @@
         <v>30961</v>
       </c>
       <c r="D37" s="29" t="n">
+        <v>645787.8</v>
+      </c>
+      <c r="E37" s="29" t="n">
         <v>20.8578</v>
-      </c>
-      <c r="E37" s="29" t="n">
-        <v>645787.8</v>
       </c>
       <c r="F37" s="29" t="n">
         <v>0</v>
@@ -7359,10 +7369,10 @@
         <v>31080</v>
       </c>
       <c r="D38" s="29" t="n">
+        <v>646357.08</v>
+      </c>
+      <c r="E38" s="29" t="n">
         <v>20.7966</v>
-      </c>
-      <c r="E38" s="29" t="n">
-        <v>646357.08</v>
       </c>
       <c r="F38" s="29" t="n">
         <v>0</v>
@@ -7381,10 +7391,10 @@
         <v>31300</v>
       </c>
       <c r="D39" s="29" t="n">
+        <v>640000</v>
+      </c>
+      <c r="E39" s="29" t="n">
         <v>20.4473</v>
-      </c>
-      <c r="E39" s="29" t="n">
-        <v>640000</v>
       </c>
       <c r="F39" s="29" t="n">
         <v>0</v>
@@ -7403,10 +7413,10 @@
         <v>30734</v>
       </c>
       <c r="D40" s="29" t="n">
+        <v>635000</v>
+      </c>
+      <c r="E40" s="29" t="n">
         <v>20.661</v>
-      </c>
-      <c r="E40" s="29" t="n">
-        <v>635000</v>
       </c>
       <c r="F40" s="29" t="n">
         <v>0</v>
@@ -7425,10 +7435,10 @@
         <v>30594</v>
       </c>
       <c r="D41" s="29" t="n">
+        <v>630000</v>
+      </c>
+      <c r="E41" s="29" t="n">
         <v>20.5924</v>
-      </c>
-      <c r="E41" s="29" t="n">
-        <v>630000</v>
       </c>
       <c r="F41" s="29" t="n">
         <v>6</v>
@@ -7447,10 +7457,10 @@
         <v>31184</v>
       </c>
       <c r="D42" s="29" t="n">
+        <v>625000</v>
+      </c>
+      <c r="E42" s="29" t="n">
         <v>20.0421</v>
-      </c>
-      <c r="E42" s="29" t="n">
-        <v>625000</v>
       </c>
       <c r="F42" s="29" t="n">
         <v>0</v>
@@ -7469,10 +7479,10 @@
         <v>31000</v>
       </c>
       <c r="D43" s="29" t="n">
+        <v>620000</v>
+      </c>
+      <c r="E43" s="29" t="n">
         <v>20</v>
-      </c>
-      <c r="E43" s="29" t="n">
-        <v>620000</v>
       </c>
       <c r="F43" s="29" t="n">
         <v>0</v>
@@ -7491,10 +7501,10 @@
         <v>29000</v>
       </c>
       <c r="D44" s="29" t="n">
+        <v>633000</v>
+      </c>
+      <c r="E44" s="29" t="n">
         <v>21.8276</v>
-      </c>
-      <c r="E44" s="29" t="n">
-        <v>633000</v>
       </c>
       <c r="F44" s="29" t="n">
         <v>0</v>
@@ -7513,10 +7523,10 @@
         <v>30500</v>
       </c>
       <c r="D45" s="29" t="n">
+        <v>615000</v>
+      </c>
+      <c r="E45" s="29" t="n">
         <v>20.1639</v>
-      </c>
-      <c r="E45" s="29" t="n">
-        <v>615000</v>
       </c>
       <c r="F45" s="29" t="n">
         <v>0</v>
@@ -7535,10 +7545,10 @@
         <v>30000</v>
       </c>
       <c r="D46" s="29" t="n">
+        <v>610000</v>
+      </c>
+      <c r="E46" s="29" t="n">
         <v>20.3333</v>
-      </c>
-      <c r="E46" s="29" t="n">
-        <v>610000</v>
       </c>
       <c r="F46" s="29" t="n">
         <v>0</v>
@@ -7557,10 +7567,10 @@
         <v>29500</v>
       </c>
       <c r="D47" s="29" t="n">
+        <v>600000</v>
+      </c>
+      <c r="E47" s="29" t="n">
         <v>20.339</v>
-      </c>
-      <c r="E47" s="29" t="n">
-        <v>600000</v>
       </c>
       <c r="F47" s="29" t="n">
         <v>45</v>
@@ -7579,10 +7589,10 @@
         <v>29000</v>
       </c>
       <c r="D48" s="29" t="n">
+        <v>580000</v>
+      </c>
+      <c r="E48" s="29" t="n">
         <v>20</v>
-      </c>
-      <c r="E48" s="29" t="n">
-        <v>580000</v>
       </c>
       <c r="F48" s="29" t="n">
         <v>0</v>
@@ -7601,10 +7611,10 @@
         <v>28000</v>
       </c>
       <c r="D49" s="29" t="n">
+        <v>550000</v>
+      </c>
+      <c r="E49" s="29" t="n">
         <v>19.6429</v>
-      </c>
-      <c r="E49" s="29" t="n">
-        <v>550000</v>
       </c>
       <c r="F49" s="29" t="n">
         <v>0</v>
@@ -7623,10 +7633,10 @@
         <v>28000</v>
       </c>
       <c r="D50" s="29" t="n">
+        <v>530000</v>
+      </c>
+      <c r="E50" s="29" t="n">
         <v>18.9286</v>
-      </c>
-      <c r="E50" s="29" t="n">
-        <v>530000</v>
       </c>
       <c r="F50" s="29" t="n">
         <v>0</v>
@@ -7645,10 +7655,10 @@
         <v>26500</v>
       </c>
       <c r="D51" s="29" t="n">
+        <v>500000</v>
+      </c>
+      <c r="E51" s="29" t="n">
         <v>18.8679</v>
-      </c>
-      <c r="E51" s="29" t="n">
-        <v>500000</v>
       </c>
       <c r="F51" s="29" t="n">
         <v>0</v>
@@ -7667,10 +7677,10 @@
         <v>25000</v>
       </c>
       <c r="D52" s="29" t="n">
+        <v>470000</v>
+      </c>
+      <c r="E52" s="29" t="n">
         <v>18.8</v>
-      </c>
-      <c r="E52" s="29" t="n">
-        <v>470000</v>
       </c>
       <c r="F52" s="29" t="n">
         <v>0</v>
@@ -7689,10 +7699,10 @@
         <v>23500</v>
       </c>
       <c r="D53" s="29" t="n">
+        <v>440000</v>
+      </c>
+      <c r="E53" s="29" t="n">
         <v>18.7234</v>
-      </c>
-      <c r="E53" s="29" t="n">
-        <v>440000</v>
       </c>
       <c r="F53" s="29" t="n">
         <v>0</v>
@@ -7711,10 +7721,10 @@
         <v>22000</v>
       </c>
       <c r="D54" s="29" t="n">
+        <v>400000</v>
+      </c>
+      <c r="E54" s="29" t="n">
         <v>18.1818</v>
-      </c>
-      <c r="E54" s="29" t="n">
-        <v>400000</v>
       </c>
       <c r="F54" s="29" t="n">
         <v>0</v>
@@ -7733,10 +7743,10 @@
         <v>21500</v>
       </c>
       <c r="D55" s="29" t="n">
+        <v>370000</v>
+      </c>
+      <c r="E55" s="29" t="n">
         <v>17.2093</v>
-      </c>
-      <c r="E55" s="29" t="n">
-        <v>370000</v>
       </c>
       <c r="F55" s="29" t="n">
         <v>0</v>
@@ -7755,10 +7765,10 @@
         <v>20000</v>
       </c>
       <c r="D56" s="29" t="n">
+        <v>340000</v>
+      </c>
+      <c r="E56" s="29" t="n">
         <v>17</v>
-      </c>
-      <c r="E56" s="29" t="n">
-        <v>340000</v>
       </c>
       <c r="F56" s="29" t="n">
         <v>0</v>
@@ -7777,10 +7787,10 @@
         <v>18500</v>
       </c>
       <c r="D57" s="29" t="n">
+        <v>310000</v>
+      </c>
+      <c r="E57" s="29" t="n">
         <v>16.7568</v>
-      </c>
-      <c r="E57" s="29" t="n">
-        <v>310000</v>
       </c>
       <c r="F57" s="29" t="n">
         <v>0</v>
@@ -7799,10 +7809,10 @@
         <v>18000</v>
       </c>
       <c r="D58" s="29" t="n">
+        <v>290000</v>
+      </c>
+      <c r="E58" s="29" t="n">
         <v>16.1111</v>
-      </c>
-      <c r="E58" s="29" t="n">
-        <v>290000</v>
       </c>
       <c r="F58" s="29" t="n">
         <v>0</v>
@@ -7821,10 +7831,10 @@
         <v>17000</v>
       </c>
       <c r="D59" s="29" t="n">
+        <v>275000</v>
+      </c>
+      <c r="E59" s="29" t="n">
         <v>16.1765</v>
-      </c>
-      <c r="E59" s="29" t="n">
-        <v>275000</v>
       </c>
       <c r="F59" s="29" t="n">
         <v>0</v>
@@ -7843,10 +7853,10 @@
         <v>17000</v>
       </c>
       <c r="D60" s="29" t="n">
+        <v>270000</v>
+      </c>
+      <c r="E60" s="29" t="n">
         <v>15.8824</v>
-      </c>
-      <c r="E60" s="29" t="n">
-        <v>270000</v>
       </c>
       <c r="F60" s="29" t="n">
         <v>0</v>
@@ -7865,10 +7875,10 @@
         <v>16000</v>
       </c>
       <c r="D61" s="29" t="n">
+        <v>250000</v>
+      </c>
+      <c r="E61" s="29" t="n">
         <v>15.625</v>
-      </c>
-      <c r="E61" s="29" t="n">
-        <v>250000</v>
       </c>
       <c r="F61" s="29" t="n">
         <v>0</v>
@@ -7887,10 +7897,10 @@
         <v>15500</v>
       </c>
       <c r="D62" s="29" t="n">
+        <v>230000</v>
+      </c>
+      <c r="E62" s="29" t="n">
         <v>14.8387</v>
-      </c>
-      <c r="E62" s="29" t="n">
-        <v>230000</v>
       </c>
       <c r="F62" s="29" t="n">
         <v>0</v>
@@ -7909,10 +7919,10 @@
         <v>15000</v>
       </c>
       <c r="D63" s="29" t="n">
+        <v>220000</v>
+      </c>
+      <c r="E63" s="29" t="n">
         <v>14.6667</v>
-      </c>
-      <c r="E63" s="29" t="n">
-        <v>220000</v>
       </c>
       <c r="F63" s="29" t="n">
         <v>0</v>
@@ -7931,10 +7941,10 @@
         <v>14000</v>
       </c>
       <c r="D64" s="29" t="n">
+        <v>200000</v>
+      </c>
+      <c r="E64" s="29" t="n">
         <v>14.2857</v>
-      </c>
-      <c r="E64" s="29" t="n">
-        <v>200000</v>
       </c>
       <c r="F64" s="29" t="n">
         <v>0</v>
@@ -7953,10 +7963,10 @@
         <v>13000</v>
       </c>
       <c r="D65" s="29" t="n">
+        <v>195000</v>
+      </c>
+      <c r="E65" s="29" t="n">
         <v>15</v>
-      </c>
-      <c r="E65" s="29" t="n">
-        <v>195000</v>
       </c>
       <c r="F65" s="29" t="n">
         <v>0</v>
@@ -7975,10 +7985,10 @@
         <v>12600</v>
       </c>
       <c r="D66" s="29" t="n">
+        <v>190000</v>
+      </c>
+      <c r="E66" s="29" t="n">
         <v>15.0794</v>
-      </c>
-      <c r="E66" s="29" t="n">
-        <v>190000</v>
       </c>
       <c r="F66" s="29" t="n">
         <v>0</v>
@@ -7997,10 +8007,10 @@
         <v>12500</v>
       </c>
       <c r="D67" s="29" t="n">
+        <v>183000</v>
+      </c>
+      <c r="E67" s="29" t="n">
         <v>14.64</v>
-      </c>
-      <c r="E67" s="29" t="n">
-        <v>183000</v>
       </c>
       <c r="F67" s="29" t="n">
         <v>0</v>
@@ -8019,10 +8029,10 @@
         <v>12000</v>
       </c>
       <c r="D68" s="29" t="n">
+        <v>180000</v>
+      </c>
+      <c r="E68" s="29" t="n">
         <v>15</v>
-      </c>
-      <c r="E68" s="29" t="n">
-        <v>180000</v>
       </c>
       <c r="F68" s="29" t="n">
         <v>0</v>
@@ -8040,10 +8050,10 @@
         <v>11500</v>
       </c>
       <c r="D69" s="29" t="n">
+        <v>165000</v>
+      </c>
+      <c r="E69" s="29" t="n">
         <v>14.3478</v>
-      </c>
-      <c r="E69" s="29" t="n">
-        <v>165000</v>
       </c>
       <c r="F69" s="29" t="n">
         <v>0</v>
@@ -8061,10 +8071,10 @@
         <v>10900</v>
       </c>
       <c r="D70" s="29" t="n">
+        <v>155000</v>
+      </c>
+      <c r="E70" s="29" t="n">
         <v>14.2202</v>
-      </c>
-      <c r="E70" s="29" t="n">
-        <v>155000</v>
       </c>
       <c r="F70" s="29" t="n">
         <v>0</v>
@@ -8082,10 +8092,10 @@
         <v>10500</v>
       </c>
       <c r="D71" s="29" t="n">
+        <v>150000</v>
+      </c>
+      <c r="E71" s="29" t="n">
         <v>14.2857</v>
-      </c>
-      <c r="E71" s="29" t="n">
-        <v>150000</v>
       </c>
       <c r="F71" s="29" t="n">
         <v>0</v>
@@ -8103,10 +8113,10 @@
         <v>10000</v>
       </c>
       <c r="D72" s="29" t="n">
+        <v>140000</v>
+      </c>
+      <c r="E72" s="29" t="n">
         <v>14</v>
-      </c>
-      <c r="E72" s="29" t="n">
-        <v>140000</v>
       </c>
       <c r="F72" s="29" t="n">
         <v>0</v>
@@ -8124,10 +8134,10 @@
         <v>9800</v>
       </c>
       <c r="D73" s="29" t="n">
+        <v>135000</v>
+      </c>
+      <c r="E73" s="29" t="n">
         <v>13.7755</v>
-      </c>
-      <c r="E73" s="29" t="n">
-        <v>135000</v>
       </c>
       <c r="F73" s="29" t="n">
         <v>0</v>
@@ -8145,10 +8155,10 @@
         <v>9500</v>
       </c>
       <c r="D74" s="29" t="n">
+        <v>130000</v>
+      </c>
+      <c r="E74" s="29" t="n">
         <v>13.6842</v>
-      </c>
-      <c r="E74" s="29" t="n">
-        <v>130000</v>
       </c>
       <c r="F74" s="29" t="n">
         <v>0</v>
@@ -8484,7 +8494,7 @@
       <c r="B7" s="14" t="n"/>
       <c r="C7" s="5" t="inlineStr">
         <is>
-          <t>Estadísticas del mercado mundial de (Producto)</t>
+          <t>Estadísticas del mercado mundial</t>
         </is>
       </c>
       <c r="D7" s="14" t="n"/>
@@ -8563,10 +8573,10 @@
         <v>54812</v>
       </c>
       <c r="D12" s="29" t="n">
+        <v>1403214</v>
+      </c>
+      <c r="E12" s="29" t="n">
         <v>25.6005</v>
-      </c>
-      <c r="E12" s="29" t="n">
-        <v>1403214</v>
       </c>
       <c r="F12" s="29" t="n">
         <v>1821.59</v>
@@ -8585,10 +8595,10 @@
         <v>62724</v>
       </c>
       <c r="D13" s="29" t="n">
+        <v>1587230</v>
+      </c>
+      <c r="E13" s="29" t="n">
         <v>25.305</v>
-      </c>
-      <c r="E13" s="29" t="n">
-        <v>1587230</v>
       </c>
       <c r="F13" s="29" t="n">
         <v>2331.86</v>
@@ -8607,10 +8617,10 @@
         <v>66875</v>
       </c>
       <c r="D14" s="29" t="n">
+        <v>1638638</v>
+      </c>
+      <c r="E14" s="29" t="n">
         <v>24.503</v>
-      </c>
-      <c r="E14" s="29" t="n">
-        <v>1638638</v>
       </c>
       <c r="F14" s="29" t="n">
         <v>577.24</v>
@@ -8629,10 +8639,10 @@
         <v>69090</v>
       </c>
       <c r="D15" s="29" t="n">
+        <v>1724856</v>
+      </c>
+      <c r="E15" s="29" t="n">
         <v>24.9653</v>
-      </c>
-      <c r="E15" s="29" t="n">
-        <v>1724856</v>
       </c>
       <c r="F15" s="29" t="n">
         <v>736.12</v>
@@ -8651,10 +8661,10 @@
         <v>72176</v>
       </c>
       <c r="D16" s="29" t="n">
+        <v>1777059</v>
+      </c>
+      <c r="E16" s="29" t="n">
         <v>24.6212</v>
-      </c>
-      <c r="E16" s="29" t="n">
-        <v>1777059</v>
       </c>
       <c r="F16" s="29" t="n">
         <v>1268.18</v>
@@ -8673,10 +8683,10 @@
         <v>73518</v>
       </c>
       <c r="D17" s="29" t="n">
+        <v>1753942</v>
+      </c>
+      <c r="E17" s="29" t="n">
         <v>23.8573</v>
-      </c>
-      <c r="E17" s="29" t="n">
-        <v>1753942</v>
       </c>
       <c r="F17" s="29" t="n">
         <v>1544.33</v>
@@ -8695,10 +8705,10 @@
         <v>77411</v>
       </c>
       <c r="D18" s="29" t="n">
+        <v>1813422</v>
+      </c>
+      <c r="E18" s="29" t="n">
         <v>23.4259</v>
-      </c>
-      <c r="E18" s="29" t="n">
-        <v>1813422</v>
       </c>
       <c r="F18" s="29" t="n">
         <v>365.65</v>
@@ -8717,10 +8727,10 @@
         <v>78663</v>
       </c>
       <c r="D19" s="29" t="n">
+        <v>1854356</v>
+      </c>
+      <c r="E19" s="29" t="n">
         <v>23.5734</v>
-      </c>
-      <c r="E19" s="29" t="n">
-        <v>1854356</v>
       </c>
       <c r="F19" s="29" t="n">
         <v>532.59</v>
@@ -8739,10 +8749,10 @@
         <v>79052</v>
       </c>
       <c r="D20" s="29" t="n">
+        <v>1719620</v>
+      </c>
+      <c r="E20" s="29" t="n">
         <v>21.753</v>
-      </c>
-      <c r="E20" s="29" t="n">
-        <v>1719620</v>
       </c>
       <c r="F20" s="29" t="n">
         <v>303.62</v>
@@ -8761,10 +8771,10 @@
         <v>79149</v>
       </c>
       <c r="D21" s="29" t="n">
+        <v>1707302</v>
+      </c>
+      <c r="E21" s="29" t="n">
         <v>21.5707</v>
-      </c>
-      <c r="E21" s="29" t="n">
-        <v>1707302</v>
       </c>
       <c r="F21" s="29" t="n">
         <v>174.03</v>
@@ -8783,10 +8793,10 @@
         <v>78769</v>
       </c>
       <c r="D22" s="29" t="n">
+        <v>1699550</v>
+      </c>
+      <c r="E22" s="29" t="n">
         <v>21.5764</v>
-      </c>
-      <c r="E22" s="29" t="n">
-        <v>1699550</v>
       </c>
       <c r="F22" s="29" t="n">
         <v>466</v>
@@ -8805,10 +8815,10 @@
         <v>79642</v>
       </c>
       <c r="D23" s="29" t="n">
+        <v>1688687</v>
+      </c>
+      <c r="E23" s="29" t="n">
         <v>21.2035</v>
-      </c>
-      <c r="E23" s="29" t="n">
-        <v>1688687</v>
       </c>
       <c r="F23" s="29" t="n">
         <v>641</v>
@@ -8827,10 +8837,10 @@
         <v>80079</v>
       </c>
       <c r="D24" s="29" t="n">
+        <v>1647988</v>
+      </c>
+      <c r="E24" s="29" t="n">
         <v>20.5795</v>
-      </c>
-      <c r="E24" s="29" t="n">
-        <v>1647988</v>
       </c>
       <c r="F24" s="29" t="n">
         <v>342</v>
@@ -8849,10 +8859,10 @@
         <v>79571</v>
       </c>
       <c r="D25" s="29" t="n">
+        <v>1611695</v>
+      </c>
+      <c r="E25" s="29" t="n">
         <v>20.2548</v>
-      </c>
-      <c r="E25" s="29" t="n">
-        <v>1611695</v>
       </c>
       <c r="F25" s="29" t="n">
         <v>157</v>
@@ -8871,10 +8881,10 @@
         <v>82637</v>
       </c>
       <c r="D26" s="29" t="n">
+        <v>1679191</v>
+      </c>
+      <c r="E26" s="29" t="n">
         <v>20.3201</v>
-      </c>
-      <c r="E26" s="29" t="n">
-        <v>1679191</v>
       </c>
       <c r="F26" s="29" t="n">
         <v>34</v>
@@ -8893,10 +8903,10 @@
         <v>85490</v>
       </c>
       <c r="D27" s="29" t="n">
+        <v>1749935</v>
+      </c>
+      <c r="E27" s="29" t="n">
         <v>20.4695</v>
-      </c>
-      <c r="E27" s="29" t="n">
-        <v>1749935</v>
       </c>
       <c r="F27" s="29" t="n">
         <v>114</v>
@@ -8915,10 +8925,10 @@
         <v>84919</v>
       </c>
       <c r="D28" s="29" t="n">
+        <v>1661130</v>
+      </c>
+      <c r="E28" s="29" t="n">
         <v>19.5613</v>
-      </c>
-      <c r="E28" s="29" t="n">
-        <v>1661130</v>
       </c>
       <c r="F28" s="29" t="n">
         <v>161</v>
@@ -8937,10 +8947,10 @@
         <v>88714</v>
       </c>
       <c r="D29" s="29" t="n">
+        <v>1765605</v>
+      </c>
+      <c r="E29" s="29" t="n">
         <v>19.9022</v>
-      </c>
-      <c r="E29" s="29" t="n">
-        <v>1765605</v>
       </c>
       <c r="F29" s="29" t="n">
         <v>64</v>
@@ -8959,10 +8969,10 @@
         <v>92543</v>
       </c>
       <c r="D30" s="29" t="n">
+        <v>1825000</v>
+      </c>
+      <c r="E30" s="29" t="n">
         <v>19.7206</v>
-      </c>
-      <c r="E30" s="29" t="n">
-        <v>1825000</v>
       </c>
       <c r="F30" s="29" t="n">
         <v>20</v>
@@ -8981,10 +8991,10 @@
         <v>92635</v>
       </c>
       <c r="D31" s="29" t="n">
+        <v>1750000</v>
+      </c>
+      <c r="E31" s="29" t="n">
         <v>18.8913</v>
-      </c>
-      <c r="E31" s="29" t="n">
-        <v>1750000</v>
       </c>
       <c r="F31" s="29" t="n">
         <v>29</v>
@@ -9003,10 +9013,10 @@
         <v>96005</v>
       </c>
       <c r="D32" s="29" t="n">
+        <v>1735000</v>
+      </c>
+      <c r="E32" s="29" t="n">
         <v>18.072</v>
-      </c>
-      <c r="E32" s="29" t="n">
-        <v>1735000</v>
       </c>
       <c r="F32" s="29" t="n">
         <v>5</v>
@@ -9025,10 +9035,10 @@
         <v>102215</v>
       </c>
       <c r="D33" s="29" t="n">
+        <v>1820000</v>
+      </c>
+      <c r="E33" s="29" t="n">
         <v>17.8056</v>
-      </c>
-      <c r="E33" s="29" t="n">
-        <v>1820000</v>
       </c>
       <c r="F33" s="29" t="n">
         <v>3</v>
@@ -9047,10 +9057,10 @@
         <v>100194</v>
       </c>
       <c r="D34" s="29" t="n">
+        <v>1775000</v>
+      </c>
+      <c r="E34" s="29" t="n">
         <v>17.7156</v>
-      </c>
-      <c r="E34" s="29" t="n">
-        <v>1775000</v>
       </c>
       <c r="F34" s="29" t="n">
         <v>8</v>
@@ -9069,10 +9079,10 @@
         <v>107612</v>
       </c>
       <c r="D35" s="29" t="n">
+        <v>1865000</v>
+      </c>
+      <c r="E35" s="29" t="n">
         <v>17.3308</v>
-      </c>
-      <c r="E35" s="29" t="n">
-        <v>1865000</v>
       </c>
       <c r="F35" s="29" t="n">
         <v>17.65</v>
@@ -9091,10 +9101,10 @@
         <v>101555</v>
       </c>
       <c r="D36" s="29" t="n">
+        <v>1793000</v>
+      </c>
+      <c r="E36" s="29" t="n">
         <v>17.6555</v>
-      </c>
-      <c r="E36" s="29" t="n">
-        <v>1793000</v>
       </c>
       <c r="F36" s="29" t="n">
         <v>39</v>
@@ -9113,10 +9123,10 @@
         <v>104419</v>
       </c>
       <c r="D37" s="29" t="n">
+        <v>1885000</v>
+      </c>
+      <c r="E37" s="29" t="n">
         <v>18.0523</v>
-      </c>
-      <c r="E37" s="29" t="n">
-        <v>1885000</v>
       </c>
       <c r="F37" s="29" t="n">
         <v>297</v>
@@ -9135,10 +9145,10 @@
         <v>98161</v>
       </c>
       <c r="D38" s="29" t="n">
+        <v>1750000</v>
+      </c>
+      <c r="E38" s="29" t="n">
         <v>17.8279</v>
-      </c>
-      <c r="E38" s="29" t="n">
-        <v>1750000</v>
       </c>
       <c r="F38" s="29" t="n">
         <v>131</v>
@@ -9157,10 +9167,10 @@
         <v>109577</v>
       </c>
       <c r="D39" s="29" t="n">
+        <v>1900000</v>
+      </c>
+      <c r="E39" s="29" t="n">
         <v>17.3394</v>
-      </c>
-      <c r="E39" s="29" t="n">
-        <v>1900000</v>
       </c>
       <c r="F39" s="29" t="n">
         <v>100</v>
@@ -9179,10 +9189,10 @@
         <v>119793</v>
       </c>
       <c r="D40" s="29" t="n">
+        <v>1800000</v>
+      </c>
+      <c r="E40" s="29" t="n">
         <v>15.0259</v>
-      </c>
-      <c r="E40" s="29" t="n">
-        <v>1800000</v>
       </c>
       <c r="F40" s="29" t="n">
         <v>56</v>
@@ -9201,10 +9211,10 @@
         <v>113248</v>
       </c>
       <c r="D41" s="29" t="n">
+        <v>1750000</v>
+      </c>
+      <c r="E41" s="29" t="n">
         <v>15.4528</v>
-      </c>
-      <c r="E41" s="29" t="n">
-        <v>1750000</v>
       </c>
       <c r="F41" s="29" t="n">
         <v>14</v>
@@ -9223,10 +9233,10 @@
         <v>90559</v>
       </c>
       <c r="D42" s="29" t="n">
+        <v>1650000</v>
+      </c>
+      <c r="E42" s="29" t="n">
         <v>18.2202</v>
-      </c>
-      <c r="E42" s="29" t="n">
-        <v>1650000</v>
       </c>
       <c r="F42" s="29" t="n">
         <v>15</v>
@@ -9245,10 +9255,10 @@
         <v>109182</v>
       </c>
       <c r="D43" s="29" t="n">
+        <v>1620000</v>
+      </c>
+      <c r="E43" s="29" t="n">
         <v>14.8376</v>
-      </c>
-      <c r="E43" s="29" t="n">
-        <v>1620000</v>
       </c>
       <c r="F43" s="29" t="n">
         <v>0</v>
@@ -9267,10 +9277,10 @@
         <v>108648</v>
       </c>
       <c r="D44" s="29" t="n">
+        <v>1880000</v>
+      </c>
+      <c r="E44" s="29" t="n">
         <v>17.3036</v>
-      </c>
-      <c r="E44" s="29" t="n">
-        <v>1880000</v>
       </c>
       <c r="F44" s="29" t="n">
         <v>1</v>
@@ -9289,10 +9299,10 @@
         <v>98309</v>
       </c>
       <c r="D45" s="29" t="n">
+        <v>1650000</v>
+      </c>
+      <c r="E45" s="29" t="n">
         <v>16.7838</v>
-      </c>
-      <c r="E45" s="29" t="n">
-        <v>1650000</v>
       </c>
       <c r="F45" s="29" t="n">
         <v>298</v>
@@ -9311,10 +9321,10 @@
         <v>102013</v>
       </c>
       <c r="D46" s="29" t="n">
+        <v>1500000</v>
+      </c>
+      <c r="E46" s="29" t="n">
         <v>14.704</v>
-      </c>
-      <c r="E46" s="29" t="n">
-        <v>1500000</v>
       </c>
       <c r="F46" s="29" t="n">
         <v>0</v>
@@ -9333,10 +9343,10 @@
         <v>95000</v>
       </c>
       <c r="D47" s="29" t="n">
+        <v>1950000</v>
+      </c>
+      <c r="E47" s="29" t="n">
         <v>20.5263</v>
-      </c>
-      <c r="E47" s="29" t="n">
-        <v>1950000</v>
       </c>
       <c r="F47" s="29" t="n">
         <v>4</v>
@@ -9355,10 +9365,10 @@
         <v>95000</v>
       </c>
       <c r="D48" s="29" t="n">
+        <v>1927146</v>
+      </c>
+      <c r="E48" s="29" t="n">
         <v>20.2857</v>
-      </c>
-      <c r="E48" s="29" t="n">
-        <v>1927146</v>
       </c>
       <c r="F48" s="29" t="n">
         <v>0</v>
@@ -9377,10 +9387,10 @@
         <v>95000</v>
       </c>
       <c r="D49" s="29" t="n">
+        <v>2000000</v>
+      </c>
+      <c r="E49" s="29" t="n">
         <v>21.0526</v>
-      </c>
-      <c r="E49" s="29" t="n">
-        <v>2000000</v>
       </c>
       <c r="F49" s="29" t="n">
         <v>0</v>
@@ -9399,10 +9409,10 @@
         <v>95000</v>
       </c>
       <c r="D50" s="29" t="n">
+        <v>2077913</v>
+      </c>
+      <c r="E50" s="29" t="n">
         <v>21.8728</v>
-      </c>
-      <c r="E50" s="29" t="n">
-        <v>2077913</v>
       </c>
       <c r="F50" s="29" t="n">
         <v>0</v>
@@ -9421,10 +9431,10 @@
         <v>79000</v>
       </c>
       <c r="D51" s="29" t="n">
+        <v>1700000</v>
+      </c>
+      <c r="E51" s="29" t="n">
         <v>21.519</v>
-      </c>
-      <c r="E51" s="29" t="n">
-        <v>1700000</v>
       </c>
       <c r="F51" s="29" t="n">
         <v>0</v>
@@ -9443,10 +9453,10 @@
         <v>75000</v>
       </c>
       <c r="D52" s="29" t="n">
+        <v>1500000</v>
+      </c>
+      <c r="E52" s="29" t="n">
         <v>20</v>
-      </c>
-      <c r="E52" s="29" t="n">
-        <v>1500000</v>
       </c>
       <c r="F52" s="29" t="n">
         <v>0</v>
@@ -9465,10 +9475,10 @@
         <v>74000</v>
       </c>
       <c r="D53" s="29" t="n">
+        <v>1400000</v>
+      </c>
+      <c r="E53" s="29" t="n">
         <v>18.9189</v>
-      </c>
-      <c r="E53" s="29" t="n">
-        <v>1400000</v>
       </c>
       <c r="F53" s="29" t="n">
         <v>0</v>
@@ -9487,10 +9497,10 @@
         <v>72000</v>
       </c>
       <c r="D54" s="29" t="n">
+        <v>1500000</v>
+      </c>
+      <c r="E54" s="29" t="n">
         <v>20.8333</v>
-      </c>
-      <c r="E54" s="29" t="n">
-        <v>1500000</v>
       </c>
       <c r="F54" s="29" t="n">
         <v>0</v>
@@ -9509,10 +9519,10 @@
         <v>76000</v>
       </c>
       <c r="D55" s="29" t="n">
+        <v>1450000</v>
+      </c>
+      <c r="E55" s="29" t="n">
         <v>19.0789</v>
-      </c>
-      <c r="E55" s="29" t="n">
-        <v>1450000</v>
       </c>
       <c r="F55" s="29" t="n">
         <v>0</v>
@@ -9531,10 +9541,10 @@
         <v>78000</v>
       </c>
       <c r="D56" s="29" t="n">
+        <v>1750000</v>
+      </c>
+      <c r="E56" s="29" t="n">
         <v>22.4359</v>
-      </c>
-      <c r="E56" s="29" t="n">
-        <v>1750000</v>
       </c>
       <c r="F56" s="29" t="n">
         <v>0</v>
@@ -9553,10 +9563,10 @@
         <v>87000</v>
       </c>
       <c r="D57" s="29" t="n">
+        <v>1595000</v>
+      </c>
+      <c r="E57" s="29" t="n">
         <v>18.3333</v>
-      </c>
-      <c r="E57" s="29" t="n">
-        <v>1595000</v>
       </c>
       <c r="F57" s="29" t="n">
         <v>0</v>
@@ -9575,10 +9585,10 @@
         <v>78000</v>
       </c>
       <c r="D58" s="29" t="n">
+        <v>1400000</v>
+      </c>
+      <c r="E58" s="29" t="n">
         <v>17.9487</v>
-      </c>
-      <c r="E58" s="29" t="n">
-        <v>1400000</v>
       </c>
       <c r="F58" s="29" t="n">
         <v>0</v>
@@ -9597,10 +9607,10 @@
         <v>79000</v>
       </c>
       <c r="D59" s="29" t="n">
+        <v>1600000</v>
+      </c>
+      <c r="E59" s="29" t="n">
         <v>20.2532</v>
-      </c>
-      <c r="E59" s="29" t="n">
-        <v>1600000</v>
       </c>
       <c r="F59" s="29" t="n">
         <v>0</v>
@@ -9619,10 +9629,10 @@
         <v>75000</v>
       </c>
       <c r="D60" s="29" t="n">
+        <v>1400000</v>
+      </c>
+      <c r="E60" s="29" t="n">
         <v>18.6667</v>
-      </c>
-      <c r="E60" s="29" t="n">
-        <v>1400000</v>
       </c>
       <c r="F60" s="29" t="n">
         <v>0</v>
@@ -9641,10 +9651,10 @@
         <v>70000</v>
       </c>
       <c r="D61" s="29" t="n">
+        <v>1200000</v>
+      </c>
+      <c r="E61" s="29" t="n">
         <v>17.1429</v>
-      </c>
-      <c r="E61" s="29" t="n">
-        <v>1200000</v>
       </c>
       <c r="F61" s="29" t="n">
         <v>0</v>
@@ -9663,10 +9673,10 @@
         <v>72000</v>
       </c>
       <c r="D62" s="29" t="n">
+        <v>1080000</v>
+      </c>
+      <c r="E62" s="29" t="n">
         <v>15</v>
-      </c>
-      <c r="E62" s="29" t="n">
-        <v>1080000</v>
       </c>
       <c r="F62" s="29" t="n">
         <v>0</v>
@@ -9685,10 +9695,10 @@
         <v>78000</v>
       </c>
       <c r="D63" s="29" t="n">
+        <v>1350000</v>
+      </c>
+      <c r="E63" s="29" t="n">
         <v>17.3077</v>
-      </c>
-      <c r="E63" s="29" t="n">
-        <v>1350000</v>
       </c>
       <c r="F63" s="29" t="n">
         <v>0</v>
@@ -9707,10 +9717,10 @@
         <v>80000</v>
       </c>
       <c r="D64" s="29" t="n">
+        <v>1370000</v>
+      </c>
+      <c r="E64" s="29" t="n">
         <v>17.125</v>
-      </c>
-      <c r="E64" s="29" t="n">
-        <v>1370000</v>
       </c>
       <c r="F64" s="29" t="n">
         <v>0</v>
@@ -9729,10 +9739,10 @@
         <v>76000</v>
       </c>
       <c r="D65" s="29" t="n">
+        <v>1320000</v>
+      </c>
+      <c r="E65" s="29" t="n">
         <v>17.3684</v>
-      </c>
-      <c r="E65" s="29" t="n">
-        <v>1320000</v>
       </c>
       <c r="F65" s="29" t="n">
         <v>0</v>
@@ -9751,10 +9761,10 @@
         <v>80000</v>
       </c>
       <c r="D66" s="29" t="n">
+        <v>1398856</v>
+      </c>
+      <c r="E66" s="29" t="n">
         <v>17.4857</v>
-      </c>
-      <c r="E66" s="29" t="n">
-        <v>1398856</v>
       </c>
       <c r="F66" s="29" t="n">
         <v>0</v>
@@ -9773,10 +9783,10 @@
         <v>80000</v>
       </c>
       <c r="D67" s="29" t="n">
+        <v>1440000</v>
+      </c>
+      <c r="E67" s="29" t="n">
         <v>18</v>
-      </c>
-      <c r="E67" s="29" t="n">
-        <v>1440000</v>
       </c>
       <c r="F67" s="29" t="n">
         <v>0</v>
@@ -9795,10 +9805,10 @@
         <v>83000</v>
       </c>
       <c r="D68" s="29" t="n">
+        <v>1393000</v>
+      </c>
+      <c r="E68" s="29" t="n">
         <v>16.7831</v>
-      </c>
-      <c r="E68" s="29" t="n">
-        <v>1393000</v>
       </c>
       <c r="F68" s="29" t="n">
         <v>0</v>
@@ -9816,10 +9826,10 @@
         <v>80000</v>
       </c>
       <c r="D69" s="29" t="n">
+        <v>1400000</v>
+      </c>
+      <c r="E69" s="29" t="n">
         <v>17.5</v>
-      </c>
-      <c r="E69" s="29" t="n">
-        <v>1400000</v>
       </c>
       <c r="F69" s="29" t="n">
         <v>0</v>
@@ -9837,10 +9847,10 @@
         <v>80000</v>
       </c>
       <c r="D70" s="29" t="n">
+        <v>1320000</v>
+      </c>
+      <c r="E70" s="29" t="n">
         <v>16.5</v>
-      </c>
-      <c r="E70" s="29" t="n">
-        <v>1320000</v>
       </c>
       <c r="F70" s="29" t="n">
         <v>0</v>
@@ -9858,10 +9868,10 @@
         <v>80000</v>
       </c>
       <c r="D71" s="29" t="n">
+        <v>1320000</v>
+      </c>
+      <c r="E71" s="29" t="n">
         <v>16.5</v>
-      </c>
-      <c r="E71" s="29" t="n">
-        <v>1320000</v>
       </c>
       <c r="F71" s="29" t="n">
         <v>0</v>
@@ -9879,10 +9889,10 @@
         <v>80000</v>
       </c>
       <c r="D72" s="29" t="n">
+        <v>1202000</v>
+      </c>
+      <c r="E72" s="29" t="n">
         <v>15.025</v>
-      </c>
-      <c r="E72" s="29" t="n">
-        <v>1202000</v>
       </c>
       <c r="F72" s="29" t="n">
         <v>0</v>
@@ -9900,10 +9910,10 @@
         <v>88000</v>
       </c>
       <c r="D73" s="29" t="n">
+        <v>1188000</v>
+      </c>
+      <c r="E73" s="29" t="n">
         <v>13.5</v>
-      </c>
-      <c r="E73" s="29" t="n">
-        <v>1188000</v>
       </c>
       <c r="F73" s="29" t="n">
         <v>0</v>
@@ -9921,10 +9931,10 @@
         <v>92000</v>
       </c>
       <c r="D74" s="29" t="n">
+        <v>1133000</v>
+      </c>
+      <c r="E74" s="29" t="n">
         <v>12.3152</v>
-      </c>
-      <c r="E74" s="29" t="n">
-        <v>1133000</v>
       </c>
       <c r="F74" s="29" t="n">
         <v>0</v>
@@ -10260,7 +10270,7 @@
       <c r="B7" s="14" t="n"/>
       <c r="C7" s="5" t="inlineStr">
         <is>
-          <t>Estadísticas del mercado mundial de (Producto)</t>
+          <t>Estadísticas del mercado mundial</t>
         </is>
       </c>
       <c r="D7" s="14" t="n"/>
@@ -10339,10 +10349,10 @@
         <v>54575</v>
       </c>
       <c r="D12" s="29" t="n">
+        <v>1371382.19</v>
+      </c>
+      <c r="E12" s="29" t="n">
         <v>25.1282</v>
-      </c>
-      <c r="E12" s="29" t="n">
-        <v>1371382.19</v>
       </c>
       <c r="F12" s="29" t="n">
         <v>4773.12</v>
@@ -10361,10 +10371,10 @@
         <v>49383</v>
       </c>
       <c r="D13" s="29" t="n">
+        <v>1214412.76</v>
+      </c>
+      <c r="E13" s="29" t="n">
         <v>24.5917</v>
-      </c>
-      <c r="E13" s="29" t="n">
-        <v>1214412.76</v>
       </c>
       <c r="F13" s="29" t="n">
         <v>16205.28</v>
@@ -10383,10 +10393,10 @@
         <v>56284</v>
       </c>
       <c r="D14" s="29" t="n">
+        <v>1395170.92</v>
+      </c>
+      <c r="E14" s="29" t="n">
         <v>24.7879</v>
-      </c>
-      <c r="E14" s="29" t="n">
-        <v>1395170.92</v>
       </c>
       <c r="F14" s="29" t="n">
         <v>10132.15</v>
@@ -10405,10 +10415,10 @@
         <v>51258</v>
       </c>
       <c r="D15" s="29" t="n">
+        <v>1165397.02</v>
+      </c>
+      <c r="E15" s="29" t="n">
         <v>22.736</v>
-      </c>
-      <c r="E15" s="29" t="n">
-        <v>1165397.02</v>
       </c>
       <c r="F15" s="29" t="n">
         <v>20112.73</v>
@@ -10427,10 +10437,10 @@
         <v>45747</v>
       </c>
       <c r="D16" s="29" t="n">
+        <v>1041152.75</v>
+      </c>
+      <c r="E16" s="29" t="n">
         <v>22.7592</v>
-      </c>
-      <c r="E16" s="29" t="n">
-        <v>1041152.75</v>
       </c>
       <c r="F16" s="29" t="n">
         <v>2025.03</v>
@@ -10449,10 +10459,10 @@
         <v>42004</v>
       </c>
       <c r="D17" s="29" t="n">
+        <v>893857.26</v>
+      </c>
+      <c r="E17" s="29" t="n">
         <v>21.2803</v>
-      </c>
-      <c r="E17" s="29" t="n">
-        <v>893857.26</v>
       </c>
       <c r="F17" s="29" t="n">
         <v>3096.37</v>
@@ -10471,10 +10481,10 @@
         <v>38793</v>
       </c>
       <c r="D18" s="29" t="n">
+        <v>812498</v>
+      </c>
+      <c r="E18" s="29" t="n">
         <v>20.9444</v>
-      </c>
-      <c r="E18" s="29" t="n">
-        <v>812498</v>
       </c>
       <c r="F18" s="29" t="n">
         <v>6966.67</v>
@@ -10493,10 +10503,10 @@
         <v>43397</v>
       </c>
       <c r="D19" s="29" t="n">
+        <v>898004</v>
+      </c>
+      <c r="E19" s="29" t="n">
         <v>20.6928</v>
-      </c>
-      <c r="E19" s="29" t="n">
-        <v>898004</v>
       </c>
       <c r="F19" s="29" t="n">
         <v>2216.62</v>
@@ -10515,10 +10525,10 @@
         <v>46256</v>
       </c>
       <c r="D20" s="29" t="n">
+        <v>973028</v>
+      </c>
+      <c r="E20" s="29" t="n">
         <v>21.0357</v>
-      </c>
-      <c r="E20" s="29" t="n">
-        <v>973028</v>
       </c>
       <c r="F20" s="29" t="n">
         <v>4894.83</v>
@@ -10537,10 +10547,10 @@
         <v>43078</v>
       </c>
       <c r="D21" s="29" t="n">
+        <v>914681</v>
+      </c>
+      <c r="E21" s="29" t="n">
         <v>21.2331</v>
-      </c>
-      <c r="E21" s="29" t="n">
-        <v>914681</v>
       </c>
       <c r="F21" s="29" t="n">
         <v>59023.84</v>
@@ -10559,10 +10569,10 @@
         <v>37116</v>
       </c>
       <c r="D22" s="29" t="n">
+        <v>774205</v>
+      </c>
+      <c r="E22" s="29" t="n">
         <v>20.8591</v>
-      </c>
-      <c r="E22" s="29" t="n">
-        <v>774205</v>
       </c>
       <c r="F22" s="29" t="n">
         <v>41603</v>
@@ -10581,10 +10591,10 @@
         <v>40855</v>
       </c>
       <c r="D23" s="29" t="n">
+        <v>832064.6</v>
+      </c>
+      <c r="E23" s="29" t="n">
         <v>20.3663</v>
-      </c>
-      <c r="E23" s="29" t="n">
-        <v>832064.6</v>
       </c>
       <c r="F23" s="29" t="n">
         <v>24188</v>
@@ -10603,10 +10613,10 @@
         <v>24756</v>
       </c>
       <c r="D24" s="29" t="n">
+        <v>462206.7</v>
+      </c>
+      <c r="E24" s="29" t="n">
         <v>18.6705</v>
-      </c>
-      <c r="E24" s="29" t="n">
-        <v>462206.7</v>
       </c>
       <c r="F24" s="29" t="n">
         <v>38609</v>
@@ -10625,10 +10635,10 @@
         <v>20000</v>
       </c>
       <c r="D25" s="29" t="n">
+        <v>334600</v>
+      </c>
+      <c r="E25" s="29" t="n">
         <v>16.73</v>
-      </c>
-      <c r="E25" s="29" t="n">
-        <v>334600</v>
       </c>
       <c r="F25" s="29" t="n">
         <v>20000</v>
@@ -10647,10 +10657,10 @@
         <v>17600</v>
       </c>
       <c r="D26" s="29" t="n">
+        <v>273110</v>
+      </c>
+      <c r="E26" s="29" t="n">
         <v>15.5176</v>
-      </c>
-      <c r="E26" s="29" t="n">
-        <v>273110</v>
       </c>
       <c r="F26" s="29" t="n">
         <v>776</v>
@@ -10669,10 +10679,10 @@
         <v>16100</v>
       </c>
       <c r="D27" s="29" t="n">
+        <v>215750</v>
+      </c>
+      <c r="E27" s="29" t="n">
         <v>13.4006</v>
-      </c>
-      <c r="E27" s="29" t="n">
-        <v>215750</v>
       </c>
       <c r="F27" s="29" t="n">
         <v>69</v>
@@ -10691,10 +10701,10 @@
         <v>12100</v>
       </c>
       <c r="D28" s="29" t="n">
+        <v>185070</v>
+      </c>
+      <c r="E28" s="29" t="n">
         <v>15.295</v>
-      </c>
-      <c r="E28" s="29" t="n">
-        <v>185070</v>
       </c>
       <c r="F28" s="29" t="n">
         <v>427</v>
@@ -10713,10 +10723,10 @@
         <v>10300</v>
       </c>
       <c r="D29" s="29" t="n">
+        <v>156130</v>
+      </c>
+      <c r="E29" s="29" t="n">
         <v>15.1583</v>
-      </c>
-      <c r="E29" s="29" t="n">
-        <v>156130</v>
       </c>
       <c r="F29" s="29" t="n">
         <v>82</v>
@@ -10735,10 +10745,10 @@
         <v>11600</v>
       </c>
       <c r="D30" s="29" t="n">
+        <v>175870</v>
+      </c>
+      <c r="E30" s="29" t="n">
         <v>15.1612</v>
-      </c>
-      <c r="E30" s="29" t="n">
-        <v>175870</v>
       </c>
       <c r="F30" s="29" t="n">
         <v>67</v>
@@ -10757,10 +10767,10 @@
         <v>10000</v>
       </c>
       <c r="D31" s="29" t="n">
+        <v>152700</v>
+      </c>
+      <c r="E31" s="29" t="n">
         <v>15.27</v>
-      </c>
-      <c r="E31" s="29" t="n">
-        <v>152700</v>
       </c>
       <c r="F31" s="29" t="n">
         <v>38</v>
@@ -10779,10 +10789,10 @@
         <v>9000</v>
       </c>
       <c r="D32" s="29" t="n">
+        <v>138800</v>
+      </c>
+      <c r="E32" s="29" t="n">
         <v>15.4222</v>
-      </c>
-      <c r="E32" s="29" t="n">
-        <v>138800</v>
       </c>
       <c r="F32" s="29" t="n">
         <v>57</v>
@@ -10801,10 +10811,10 @@
         <v>10000</v>
       </c>
       <c r="D33" s="29" t="n">
+        <v>144800</v>
+      </c>
+      <c r="E33" s="29" t="n">
         <v>14.48</v>
-      </c>
-      <c r="E33" s="29" t="n">
-        <v>144800</v>
       </c>
       <c r="F33" s="29" t="n">
         <v>27</v>
@@ -10823,10 +10833,10 @@
         <v>8000</v>
       </c>
       <c r="D34" s="29" t="n">
+        <v>119200</v>
+      </c>
+      <c r="E34" s="29" t="n">
         <v>14.9</v>
-      </c>
-      <c r="E34" s="29" t="n">
-        <v>119200</v>
       </c>
       <c r="F34" s="29" t="n">
         <v>34</v>
@@ -10845,10 +10855,10 @@
         <v>6500</v>
       </c>
       <c r="D35" s="29" t="n">
+        <v>97000</v>
+      </c>
+      <c r="E35" s="29" t="n">
         <v>14.9231</v>
-      </c>
-      <c r="E35" s="29" t="n">
-        <v>97000</v>
       </c>
       <c r="F35" s="29" t="n">
         <v>58</v>
@@ -10956,722 +10966,387 @@
       <c r="J43" s="30" t="n"/>
     </row>
     <row r="44">
-      <c r="B44" s="29" t="inlineStr">
-        <is>
-          <t>1991</t>
-        </is>
-      </c>
-      <c r="C44" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="D44" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="E44" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="F44" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G44" s="29" t="n">
-        <v>0</v>
-      </c>
+      <c r="B44" s="28" t="n">
+        <v>1991</v>
+      </c>
+      <c r="C44" s="29" t="inlineStr"/>
+      <c r="D44" s="29" t="inlineStr"/>
+      <c r="E44" s="29" t="inlineStr"/>
+      <c r="F44" s="29" t="inlineStr"/>
+      <c r="G44" s="29" t="inlineStr"/>
       <c r="H44" s="29" t="n"/>
       <c r="J44" s="30" t="n"/>
     </row>
     <row r="45">
-      <c r="B45" s="29" t="inlineStr">
-        <is>
-          <t>1990</t>
-        </is>
-      </c>
-      <c r="C45" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="D45" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="E45" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="F45" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G45" s="29" t="n">
-        <v>0</v>
-      </c>
+      <c r="B45" s="28" t="n">
+        <v>1990</v>
+      </c>
+      <c r="C45" s="29" t="inlineStr"/>
+      <c r="D45" s="29" t="inlineStr"/>
+      <c r="E45" s="29" t="inlineStr"/>
+      <c r="F45" s="29" t="inlineStr"/>
+      <c r="G45" s="29" t="inlineStr"/>
       <c r="H45" s="29" t="n"/>
       <c r="J45" s="30" t="n"/>
     </row>
     <row r="46">
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>1989</t>
-        </is>
-      </c>
-      <c r="C46" t="n">
-        <v>0</v>
-      </c>
-      <c r="D46" t="n">
-        <v>0</v>
-      </c>
-      <c r="E46" t="n">
-        <v>0</v>
-      </c>
-      <c r="F46" t="n">
-        <v>0</v>
-      </c>
-      <c r="G46" t="n">
-        <v>0</v>
-      </c>
+      <c r="B46" s="28" t="n">
+        <v>1989</v>
+      </c>
+      <c r="C46" s="29" t="inlineStr"/>
+      <c r="D46" s="29" t="inlineStr"/>
+      <c r="E46" s="29" t="inlineStr"/>
+      <c r="F46" s="29" t="inlineStr"/>
+      <c r="G46" s="29" t="inlineStr"/>
+      <c r="H46" s="29" t="n"/>
       <c r="J46" s="30" t="n"/>
     </row>
     <row r="47">
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>1988</t>
-        </is>
-      </c>
-      <c r="C47" t="n">
-        <v>0</v>
-      </c>
-      <c r="D47" t="n">
-        <v>0</v>
-      </c>
-      <c r="E47" t="n">
-        <v>0</v>
-      </c>
-      <c r="F47" t="n">
-        <v>0</v>
-      </c>
-      <c r="G47" t="n">
-        <v>0</v>
-      </c>
+      <c r="B47" s="28" t="n">
+        <v>1988</v>
+      </c>
+      <c r="C47" s="29" t="inlineStr"/>
+      <c r="D47" s="29" t="inlineStr"/>
+      <c r="E47" s="29" t="inlineStr"/>
+      <c r="F47" s="29" t="inlineStr"/>
+      <c r="G47" s="29" t="inlineStr"/>
+      <c r="H47" s="29" t="n"/>
       <c r="J47" s="30" t="n"/>
     </row>
     <row r="48">
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>1987</t>
-        </is>
-      </c>
-      <c r="C48" t="n">
-        <v>0</v>
-      </c>
-      <c r="D48" t="n">
-        <v>0</v>
-      </c>
-      <c r="E48" t="n">
-        <v>0</v>
-      </c>
-      <c r="F48" t="n">
-        <v>0</v>
-      </c>
-      <c r="G48" t="n">
-        <v>0</v>
-      </c>
+      <c r="B48" s="28" t="n">
+        <v>1987</v>
+      </c>
+      <c r="C48" s="29" t="inlineStr"/>
+      <c r="D48" s="29" t="inlineStr"/>
+      <c r="E48" s="29" t="inlineStr"/>
+      <c r="F48" s="29" t="inlineStr"/>
+      <c r="G48" s="29" t="inlineStr"/>
+      <c r="H48" s="29" t="n"/>
       <c r="J48" s="30" t="n"/>
     </row>
     <row r="49">
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>1986</t>
-        </is>
-      </c>
-      <c r="C49" t="n">
-        <v>0</v>
-      </c>
-      <c r="D49" t="n">
-        <v>0</v>
-      </c>
-      <c r="E49" t="n">
-        <v>0</v>
-      </c>
-      <c r="F49" t="n">
-        <v>0</v>
-      </c>
-      <c r="G49" t="n">
-        <v>0</v>
-      </c>
+      <c r="B49" s="28" t="n">
+        <v>1986</v>
+      </c>
+      <c r="C49" s="29" t="inlineStr"/>
+      <c r="D49" s="29" t="inlineStr"/>
+      <c r="E49" s="29" t="inlineStr"/>
+      <c r="F49" s="29" t="inlineStr"/>
+      <c r="G49" s="29" t="inlineStr"/>
+      <c r="H49" s="29" t="n"/>
       <c r="J49" s="30" t="n"/>
     </row>
     <row r="50">
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>1985</t>
-        </is>
-      </c>
-      <c r="C50" t="n">
-        <v>0</v>
-      </c>
-      <c r="D50" t="n">
-        <v>0</v>
-      </c>
-      <c r="E50" t="n">
-        <v>0</v>
-      </c>
-      <c r="F50" t="n">
-        <v>0</v>
-      </c>
-      <c r="G50" t="n">
-        <v>0</v>
-      </c>
+      <c r="B50" s="28" t="n">
+        <v>1985</v>
+      </c>
+      <c r="C50" s="29" t="inlineStr"/>
+      <c r="D50" s="29" t="inlineStr"/>
+      <c r="E50" s="29" t="inlineStr"/>
+      <c r="F50" s="29" t="inlineStr"/>
+      <c r="G50" s="29" t="inlineStr"/>
+      <c r="H50" s="29" t="n"/>
       <c r="J50" s="30" t="n"/>
     </row>
     <row r="51">
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>1984</t>
-        </is>
-      </c>
-      <c r="C51" t="n">
-        <v>0</v>
-      </c>
-      <c r="D51" t="n">
-        <v>0</v>
-      </c>
-      <c r="E51" t="n">
-        <v>0</v>
-      </c>
-      <c r="F51" t="n">
-        <v>0</v>
-      </c>
-      <c r="G51" t="n">
-        <v>0</v>
-      </c>
+      <c r="B51" s="28" t="n">
+        <v>1984</v>
+      </c>
+      <c r="C51" s="29" t="inlineStr"/>
+      <c r="D51" s="29" t="inlineStr"/>
+      <c r="E51" s="29" t="inlineStr"/>
+      <c r="F51" s="29" t="inlineStr"/>
+      <c r="G51" s="29" t="inlineStr"/>
+      <c r="H51" s="29" t="n"/>
       <c r="J51" s="30" t="n"/>
     </row>
     <row r="52">
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>1983</t>
-        </is>
-      </c>
-      <c r="C52" t="n">
-        <v>0</v>
-      </c>
-      <c r="D52" t="n">
-        <v>0</v>
-      </c>
-      <c r="E52" t="n">
-        <v>0</v>
-      </c>
-      <c r="F52" t="n">
-        <v>0</v>
-      </c>
-      <c r="G52" t="n">
-        <v>0</v>
-      </c>
+      <c r="B52" s="28" t="n">
+        <v>1983</v>
+      </c>
+      <c r="C52" s="29" t="inlineStr"/>
+      <c r="D52" s="29" t="inlineStr"/>
+      <c r="E52" s="29" t="inlineStr"/>
+      <c r="F52" s="29" t="inlineStr"/>
+      <c r="G52" s="29" t="inlineStr"/>
+      <c r="H52" s="29" t="n"/>
       <c r="J52" s="30" t="n"/>
     </row>
     <row r="53">
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>1982</t>
-        </is>
-      </c>
-      <c r="C53" t="n">
-        <v>0</v>
-      </c>
-      <c r="D53" t="n">
-        <v>0</v>
-      </c>
-      <c r="E53" t="n">
-        <v>0</v>
-      </c>
-      <c r="F53" t="n">
-        <v>0</v>
-      </c>
-      <c r="G53" t="n">
-        <v>0</v>
-      </c>
+      <c r="B53" s="28" t="n">
+        <v>1982</v>
+      </c>
+      <c r="C53" s="29" t="inlineStr"/>
+      <c r="D53" s="29" t="inlineStr"/>
+      <c r="E53" s="29" t="inlineStr"/>
+      <c r="F53" s="29" t="inlineStr"/>
+      <c r="G53" s="29" t="inlineStr"/>
+      <c r="H53" s="29" t="n"/>
       <c r="J53" s="30" t="n"/>
     </row>
     <row r="54">
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>1981</t>
-        </is>
-      </c>
-      <c r="C54" t="n">
-        <v>0</v>
-      </c>
-      <c r="D54" t="n">
-        <v>0</v>
-      </c>
-      <c r="E54" t="n">
-        <v>0</v>
-      </c>
-      <c r="F54" t="n">
-        <v>0</v>
-      </c>
-      <c r="G54" t="n">
-        <v>0</v>
-      </c>
+      <c r="B54" s="28" t="n">
+        <v>1981</v>
+      </c>
+      <c r="C54" s="29" t="inlineStr"/>
+      <c r="D54" s="29" t="inlineStr"/>
+      <c r="E54" s="29" t="inlineStr"/>
+      <c r="F54" s="29" t="inlineStr"/>
+      <c r="G54" s="29" t="inlineStr"/>
+      <c r="H54" s="29" t="n"/>
       <c r="J54" s="30" t="n"/>
     </row>
     <row r="55">
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>1980</t>
-        </is>
-      </c>
-      <c r="C55" t="n">
-        <v>0</v>
-      </c>
-      <c r="D55" t="n">
-        <v>0</v>
-      </c>
-      <c r="E55" t="n">
-        <v>0</v>
-      </c>
-      <c r="F55" t="n">
-        <v>0</v>
-      </c>
-      <c r="G55" t="n">
-        <v>0</v>
-      </c>
+      <c r="B55" s="28" t="n">
+        <v>1980</v>
+      </c>
+      <c r="C55" s="29" t="inlineStr"/>
+      <c r="D55" s="29" t="inlineStr"/>
+      <c r="E55" s="29" t="inlineStr"/>
+      <c r="F55" s="29" t="inlineStr"/>
+      <c r="G55" s="29" t="inlineStr"/>
+      <c r="H55" s="29" t="n"/>
       <c r="J55" s="30" t="n"/>
     </row>
     <row r="56">
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>1979</t>
-        </is>
-      </c>
-      <c r="C56" t="n">
-        <v>0</v>
-      </c>
-      <c r="D56" t="n">
-        <v>0</v>
-      </c>
-      <c r="E56" t="n">
-        <v>0</v>
-      </c>
-      <c r="F56" t="n">
-        <v>0</v>
-      </c>
-      <c r="G56" t="n">
-        <v>0</v>
-      </c>
+      <c r="B56" s="28" t="n">
+        <v>1979</v>
+      </c>
+      <c r="C56" s="29" t="inlineStr"/>
+      <c r="D56" s="29" t="inlineStr"/>
+      <c r="E56" s="29" t="inlineStr"/>
+      <c r="F56" s="29" t="inlineStr"/>
+      <c r="G56" s="29" t="inlineStr"/>
+      <c r="H56" s="29" t="n"/>
       <c r="J56" s="30" t="n"/>
     </row>
     <row r="57">
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>1978</t>
-        </is>
-      </c>
-      <c r="C57" t="n">
-        <v>0</v>
-      </c>
-      <c r="D57" t="n">
-        <v>0</v>
-      </c>
-      <c r="E57" t="n">
-        <v>0</v>
-      </c>
-      <c r="F57" t="n">
-        <v>0</v>
-      </c>
-      <c r="G57" t="n">
-        <v>0</v>
-      </c>
+      <c r="B57" s="28" t="n">
+        <v>1978</v>
+      </c>
+      <c r="C57" s="29" t="inlineStr"/>
+      <c r="D57" s="29" t="inlineStr"/>
+      <c r="E57" s="29" t="inlineStr"/>
+      <c r="F57" s="29" t="inlineStr"/>
+      <c r="G57" s="29" t="inlineStr"/>
+      <c r="H57" s="29" t="n"/>
       <c r="J57" s="30" t="n"/>
     </row>
     <row r="58">
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>1977</t>
-        </is>
-      </c>
-      <c r="C58" t="n">
-        <v>0</v>
-      </c>
-      <c r="D58" t="n">
-        <v>0</v>
-      </c>
-      <c r="E58" t="n">
-        <v>0</v>
-      </c>
-      <c r="F58" t="n">
-        <v>0</v>
-      </c>
-      <c r="G58" t="n">
-        <v>0</v>
-      </c>
+      <c r="B58" s="28" t="n">
+        <v>1977</v>
+      </c>
+      <c r="C58" s="29" t="inlineStr"/>
+      <c r="D58" s="29" t="inlineStr"/>
+      <c r="E58" s="29" t="inlineStr"/>
+      <c r="F58" s="29" t="inlineStr"/>
+      <c r="G58" s="29" t="inlineStr"/>
+      <c r="H58" s="29" t="n"/>
       <c r="J58" s="30" t="n"/>
     </row>
     <row r="59">
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>1976</t>
-        </is>
-      </c>
-      <c r="C59" t="n">
-        <v>0</v>
-      </c>
-      <c r="D59" t="n">
-        <v>0</v>
-      </c>
-      <c r="E59" t="n">
-        <v>0</v>
-      </c>
-      <c r="F59" t="n">
-        <v>0</v>
-      </c>
-      <c r="G59" t="n">
-        <v>0</v>
-      </c>
+      <c r="B59" s="28" t="n">
+        <v>1976</v>
+      </c>
+      <c r="C59" s="29" t="inlineStr"/>
+      <c r="D59" s="29" t="inlineStr"/>
+      <c r="E59" s="29" t="inlineStr"/>
+      <c r="F59" s="29" t="inlineStr"/>
+      <c r="G59" s="29" t="inlineStr"/>
+      <c r="H59" s="29" t="n"/>
       <c r="J59" s="30" t="n"/>
     </row>
     <row r="60">
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>1975</t>
-        </is>
-      </c>
-      <c r="C60" t="n">
-        <v>0</v>
-      </c>
-      <c r="D60" t="n">
-        <v>0</v>
-      </c>
-      <c r="E60" t="n">
-        <v>0</v>
-      </c>
-      <c r="F60" t="n">
-        <v>0</v>
-      </c>
-      <c r="G60" t="n">
-        <v>0</v>
-      </c>
+      <c r="B60" s="28" t="n">
+        <v>1975</v>
+      </c>
+      <c r="C60" s="29" t="inlineStr"/>
+      <c r="D60" s="29" t="inlineStr"/>
+      <c r="E60" s="29" t="inlineStr"/>
+      <c r="F60" s="29" t="inlineStr"/>
+      <c r="G60" s="29" t="inlineStr"/>
+      <c r="H60" s="29" t="n"/>
       <c r="J60" s="30" t="n"/>
     </row>
     <row r="61">
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>1974</t>
-        </is>
-      </c>
-      <c r="C61" t="n">
-        <v>0</v>
-      </c>
-      <c r="D61" t="n">
-        <v>0</v>
-      </c>
-      <c r="E61" t="n">
-        <v>0</v>
-      </c>
-      <c r="F61" t="n">
-        <v>0</v>
-      </c>
-      <c r="G61" t="n">
-        <v>0</v>
-      </c>
+      <c r="B61" s="28" t="n">
+        <v>1974</v>
+      </c>
+      <c r="C61" s="29" t="inlineStr"/>
+      <c r="D61" s="29" t="inlineStr"/>
+      <c r="E61" s="29" t="inlineStr"/>
+      <c r="F61" s="29" t="inlineStr"/>
+      <c r="G61" s="29" t="inlineStr"/>
+      <c r="H61" s="29" t="n"/>
       <c r="J61" s="30" t="n"/>
     </row>
     <row r="62">
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>1973</t>
-        </is>
-      </c>
-      <c r="C62" t="n">
-        <v>0</v>
-      </c>
-      <c r="D62" t="n">
-        <v>0</v>
-      </c>
-      <c r="E62" t="n">
-        <v>0</v>
-      </c>
-      <c r="F62" t="n">
-        <v>0</v>
-      </c>
-      <c r="G62" t="n">
-        <v>0</v>
-      </c>
+      <c r="B62" s="28" t="n">
+        <v>1973</v>
+      </c>
+      <c r="C62" s="29" t="inlineStr"/>
+      <c r="D62" s="29" t="inlineStr"/>
+      <c r="E62" s="29" t="inlineStr"/>
+      <c r="F62" s="29" t="inlineStr"/>
+      <c r="G62" s="29" t="inlineStr"/>
+      <c r="H62" s="29" t="n"/>
       <c r="J62" s="30" t="n"/>
     </row>
     <row r="63">
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>1972</t>
-        </is>
-      </c>
-      <c r="C63" t="n">
-        <v>0</v>
-      </c>
-      <c r="D63" t="n">
-        <v>0</v>
-      </c>
-      <c r="E63" t="n">
-        <v>0</v>
-      </c>
-      <c r="F63" t="n">
-        <v>0</v>
-      </c>
-      <c r="G63" t="n">
-        <v>0</v>
-      </c>
+      <c r="B63" s="28" t="n">
+        <v>1972</v>
+      </c>
+      <c r="C63" s="29" t="inlineStr"/>
+      <c r="D63" s="29" t="inlineStr"/>
+      <c r="E63" s="29" t="inlineStr"/>
+      <c r="F63" s="29" t="inlineStr"/>
+      <c r="G63" s="29" t="inlineStr"/>
+      <c r="H63" s="29" t="n"/>
       <c r="J63" s="30" t="n"/>
     </row>
     <row r="64">
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>1971</t>
-        </is>
-      </c>
-      <c r="C64" t="n">
-        <v>0</v>
-      </c>
-      <c r="D64" t="n">
-        <v>0</v>
-      </c>
-      <c r="E64" t="n">
-        <v>0</v>
-      </c>
-      <c r="F64" t="n">
-        <v>0</v>
-      </c>
-      <c r="G64" t="n">
-        <v>0</v>
-      </c>
+      <c r="B64" s="28" t="n">
+        <v>1971</v>
+      </c>
+      <c r="C64" s="29" t="inlineStr"/>
+      <c r="D64" s="29" t="inlineStr"/>
+      <c r="E64" s="29" t="inlineStr"/>
+      <c r="F64" s="29" t="inlineStr"/>
+      <c r="G64" s="29" t="inlineStr"/>
+      <c r="H64" s="29" t="n"/>
       <c r="J64" s="30" t="n"/>
     </row>
     <row r="65">
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>1970</t>
-        </is>
-      </c>
-      <c r="C65" t="n">
-        <v>0</v>
-      </c>
-      <c r="D65" t="n">
-        <v>0</v>
-      </c>
-      <c r="E65" t="n">
-        <v>0</v>
-      </c>
-      <c r="F65" t="n">
-        <v>0</v>
-      </c>
-      <c r="G65" t="n">
-        <v>0</v>
-      </c>
+      <c r="B65" s="28" t="n">
+        <v>1970</v>
+      </c>
+      <c r="C65" s="29" t="inlineStr"/>
+      <c r="D65" s="29" t="inlineStr"/>
+      <c r="E65" s="29" t="inlineStr"/>
+      <c r="F65" s="29" t="inlineStr"/>
+      <c r="G65" s="29" t="inlineStr"/>
+      <c r="H65" s="29" t="n"/>
       <c r="J65" s="30" t="n"/>
     </row>
     <row r="66">
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>1969</t>
-        </is>
-      </c>
-      <c r="C66" t="n">
-        <v>0</v>
-      </c>
-      <c r="D66" t="n">
-        <v>0</v>
-      </c>
-      <c r="E66" t="n">
-        <v>0</v>
-      </c>
-      <c r="F66" t="n">
-        <v>0</v>
-      </c>
-      <c r="G66" t="n">
-        <v>0</v>
-      </c>
+      <c r="B66" s="28" t="n">
+        <v>1969</v>
+      </c>
+      <c r="C66" s="29" t="inlineStr"/>
+      <c r="D66" s="29" t="inlineStr"/>
+      <c r="E66" s="29" t="inlineStr"/>
+      <c r="F66" s="29" t="inlineStr"/>
+      <c r="G66" s="29" t="inlineStr"/>
+      <c r="H66" s="29" t="n"/>
       <c r="J66" s="30" t="n"/>
     </row>
     <row r="67">
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>1968</t>
-        </is>
-      </c>
-      <c r="C67" t="n">
-        <v>0</v>
-      </c>
-      <c r="D67" t="n">
-        <v>0</v>
-      </c>
-      <c r="E67" t="n">
-        <v>0</v>
-      </c>
-      <c r="F67" t="n">
-        <v>0</v>
-      </c>
-      <c r="G67" t="n">
-        <v>0</v>
-      </c>
+      <c r="B67" s="28" t="n">
+        <v>1968</v>
+      </c>
+      <c r="C67" s="29" t="inlineStr"/>
+      <c r="D67" s="29" t="inlineStr"/>
+      <c r="E67" s="29" t="inlineStr"/>
+      <c r="F67" s="29" t="inlineStr"/>
+      <c r="G67" s="29" t="inlineStr"/>
+      <c r="H67" s="29" t="n"/>
       <c r="J67" s="30" t="n"/>
     </row>
     <row r="68">
-      <c r="B68" t="inlineStr">
-        <is>
-          <t>1967</t>
-        </is>
-      </c>
-      <c r="C68" t="n">
-        <v>0</v>
-      </c>
-      <c r="D68" t="n">
-        <v>0</v>
-      </c>
-      <c r="E68" t="n">
-        <v>0</v>
-      </c>
-      <c r="F68" t="n">
-        <v>0</v>
-      </c>
-      <c r="G68" t="n">
-        <v>0</v>
-      </c>
+      <c r="B68" s="28" t="n">
+        <v>1967</v>
+      </c>
+      <c r="C68" s="29" t="inlineStr"/>
+      <c r="D68" s="29" t="inlineStr"/>
+      <c r="E68" s="29" t="inlineStr"/>
+      <c r="F68" s="29" t="inlineStr"/>
+      <c r="G68" s="29" t="inlineStr"/>
+      <c r="H68" s="29" t="n"/>
     </row>
     <row r="69">
-      <c r="B69" t="inlineStr">
-        <is>
-          <t>1966</t>
-        </is>
-      </c>
-      <c r="C69" t="n">
-        <v>0</v>
-      </c>
-      <c r="D69" t="n">
-        <v>0</v>
-      </c>
-      <c r="E69" t="n">
-        <v>0</v>
-      </c>
-      <c r="F69" t="n">
-        <v>0</v>
-      </c>
-      <c r="G69" t="n">
-        <v>0</v>
-      </c>
+      <c r="B69" s="28" t="n">
+        <v>1966</v>
+      </c>
+      <c r="C69" s="29" t="inlineStr"/>
+      <c r="D69" s="29" t="inlineStr"/>
+      <c r="E69" s="29" t="inlineStr"/>
+      <c r="F69" s="29" t="inlineStr"/>
+      <c r="G69" s="29" t="inlineStr"/>
+      <c r="H69" s="29" t="n"/>
     </row>
     <row r="70">
-      <c r="B70" t="inlineStr">
-        <is>
-          <t>1965</t>
-        </is>
-      </c>
-      <c r="C70" t="n">
-        <v>0</v>
-      </c>
-      <c r="D70" t="n">
-        <v>0</v>
-      </c>
-      <c r="E70" t="n">
-        <v>0</v>
-      </c>
-      <c r="F70" t="n">
-        <v>0</v>
-      </c>
-      <c r="G70" t="n">
-        <v>0</v>
-      </c>
+      <c r="B70" s="28" t="n">
+        <v>1965</v>
+      </c>
+      <c r="C70" s="29" t="inlineStr"/>
+      <c r="D70" s="29" t="inlineStr"/>
+      <c r="E70" s="29" t="inlineStr"/>
+      <c r="F70" s="29" t="inlineStr"/>
+      <c r="G70" s="29" t="inlineStr"/>
+      <c r="H70" s="29" t="n"/>
     </row>
     <row r="71">
-      <c r="B71" t="inlineStr">
-        <is>
-          <t>1964</t>
-        </is>
-      </c>
-      <c r="C71" t="n">
-        <v>0</v>
-      </c>
-      <c r="D71" t="n">
-        <v>0</v>
-      </c>
-      <c r="E71" t="n">
-        <v>0</v>
-      </c>
-      <c r="F71" t="n">
-        <v>0</v>
-      </c>
-      <c r="G71" t="n">
-        <v>0</v>
-      </c>
+      <c r="B71" s="28" t="n">
+        <v>1964</v>
+      </c>
+      <c r="C71" s="29" t="inlineStr"/>
+      <c r="D71" s="29" t="inlineStr"/>
+      <c r="E71" s="29" t="inlineStr"/>
+      <c r="F71" s="29" t="inlineStr"/>
+      <c r="G71" s="29" t="inlineStr"/>
+      <c r="H71" s="29" t="n"/>
     </row>
     <row r="72">
-      <c r="B72" t="inlineStr">
-        <is>
-          <t>1963</t>
-        </is>
-      </c>
-      <c r="C72" t="n">
-        <v>0</v>
-      </c>
-      <c r="D72" t="n">
-        <v>0</v>
-      </c>
-      <c r="E72" t="n">
-        <v>0</v>
-      </c>
-      <c r="F72" t="n">
-        <v>0</v>
-      </c>
-      <c r="G72" t="n">
-        <v>0</v>
-      </c>
+      <c r="B72" s="28" t="n">
+        <v>1963</v>
+      </c>
+      <c r="C72" s="29" t="inlineStr"/>
+      <c r="D72" s="29" t="inlineStr"/>
+      <c r="E72" s="29" t="inlineStr"/>
+      <c r="F72" s="29" t="inlineStr"/>
+      <c r="G72" s="29" t="inlineStr"/>
+      <c r="H72" s="29" t="n"/>
     </row>
     <row r="73">
-      <c r="B73" t="inlineStr">
-        <is>
-          <t>1962</t>
-        </is>
-      </c>
-      <c r="C73" t="n">
-        <v>0</v>
-      </c>
-      <c r="D73" t="n">
-        <v>0</v>
-      </c>
-      <c r="E73" t="n">
-        <v>0</v>
-      </c>
-      <c r="F73" t="n">
-        <v>0</v>
-      </c>
-      <c r="G73" t="n">
-        <v>0</v>
-      </c>
+      <c r="B73" s="28" t="n">
+        <v>1962</v>
+      </c>
+      <c r="C73" s="29" t="inlineStr"/>
+      <c r="D73" s="29" t="inlineStr"/>
+      <c r="E73" s="29" t="inlineStr"/>
+      <c r="F73" s="29" t="inlineStr"/>
+      <c r="G73" s="29" t="inlineStr"/>
+      <c r="H73" s="29" t="n"/>
     </row>
     <row r="74">
-      <c r="B74" t="inlineStr">
-        <is>
-          <t>1961</t>
-        </is>
-      </c>
-      <c r="C74" t="n">
-        <v>0</v>
-      </c>
-      <c r="D74" t="n">
-        <v>0</v>
-      </c>
-      <c r="E74" t="n">
-        <v>0</v>
-      </c>
-      <c r="F74" t="n">
-        <v>0</v>
-      </c>
-      <c r="G74" t="n">
-        <v>0</v>
-      </c>
+      <c r="B74" s="28" t="n">
+        <v>1961</v>
+      </c>
+      <c r="C74" s="29" t="inlineStr"/>
+      <c r="D74" s="29" t="inlineStr"/>
+      <c r="E74" s="29" t="inlineStr"/>
+      <c r="F74" s="29" t="inlineStr"/>
+      <c r="G74" s="29" t="inlineStr"/>
+      <c r="H74" s="29" t="n"/>
     </row>
     <row r="75">
-      <c r="C75" s="17" t="n"/>
-      <c r="D75" s="17" t="n"/>
-      <c r="E75" s="18" t="n"/>
+      <c r="B75" s="29" t="n"/>
+      <c r="C75" s="29" t="n"/>
+      <c r="D75" s="29" t="n"/>
+      <c r="E75" s="29" t="n"/>
+      <c r="F75" s="29" t="n"/>
+      <c r="G75" s="29" t="n"/>
+      <c r="H75" s="29" t="n"/>
     </row>
     <row r="76">
-      <c r="C76" s="17" t="n"/>
-      <c r="D76" s="17" t="n"/>
-      <c r="E76" s="18" t="n"/>
+      <c r="B76" s="29" t="n"/>
+      <c r="C76" s="29" t="n"/>
+      <c r="D76" s="29" t="n"/>
+      <c r="E76" s="29" t="n"/>
+      <c r="F76" s="29" t="n"/>
+      <c r="G76" s="29" t="n"/>
+      <c r="H76" s="29" t="n"/>
     </row>
     <row r="77">
       <c r="C77" s="17" t="n"/>
@@ -11981,7 +11656,7 @@
       <c r="B7" s="14" t="n"/>
       <c r="C7" s="5" t="inlineStr">
         <is>
-          <t>Estadísticas del mercado mundial de (Producto)</t>
+          <t>Estadísticas del mercado mundial</t>
         </is>
       </c>
       <c r="D7" s="14" t="n"/>
@@ -12060,10 +11735,10 @@
         <v>30535</v>
       </c>
       <c r="D12" s="29" t="n">
+        <v>862387</v>
+      </c>
+      <c r="E12" s="29" t="n">
         <v>28.2426</v>
-      </c>
-      <c r="E12" s="29" t="n">
-        <v>862387</v>
       </c>
       <c r="F12" s="29" t="inlineStr"/>
       <c r="G12" s="29" t="n">
@@ -12080,10 +11755,10 @@
         <v>27466</v>
       </c>
       <c r="D13" s="29" t="n">
+        <v>699853</v>
+      </c>
+      <c r="E13" s="29" t="n">
         <v>25.4807</v>
-      </c>
-      <c r="E13" s="29" t="n">
-        <v>699853</v>
       </c>
       <c r="F13" s="29" t="inlineStr"/>
       <c r="G13" s="29" t="n">
@@ -12100,10 +11775,10 @@
         <v>23859</v>
       </c>
       <c r="D14" s="29" t="n">
+        <v>607057</v>
+      </c>
+      <c r="E14" s="29" t="n">
         <v>25.4435</v>
-      </c>
-      <c r="E14" s="29" t="n">
-        <v>607057</v>
       </c>
       <c r="F14" s="29" t="inlineStr"/>
       <c r="G14" s="29" t="n">
@@ -12120,10 +11795,10 @@
         <v>24518</v>
       </c>
       <c r="D15" s="29" t="n">
+        <v>634404</v>
+      </c>
+      <c r="E15" s="29" t="n">
         <v>25.875</v>
-      </c>
-      <c r="E15" s="29" t="n">
-        <v>634404</v>
       </c>
       <c r="F15" s="29" t="inlineStr"/>
       <c r="G15" s="29" t="n">
@@ -12140,10 +11815,10 @@
         <v>22212</v>
       </c>
       <c r="D16" s="29" t="n">
+        <v>589825</v>
+      </c>
+      <c r="E16" s="29" t="n">
         <v>26.5543</v>
-      </c>
-      <c r="E16" s="29" t="n">
-        <v>589825</v>
       </c>
       <c r="F16" s="29" t="inlineStr"/>
       <c r="G16" s="29" t="n">
@@ -12160,10 +11835,10 @@
         <v>23324</v>
       </c>
       <c r="D17" s="29" t="n">
+        <v>581478</v>
+      </c>
+      <c r="E17" s="29" t="n">
         <v>24.9305</v>
-      </c>
-      <c r="E17" s="29" t="n">
-        <v>581478</v>
       </c>
       <c r="F17" s="29" t="inlineStr"/>
       <c r="G17" s="29" t="n">
@@ -12180,10 +11855,10 @@
         <v>23413</v>
       </c>
       <c r="D18" s="29" t="n">
+        <v>541298</v>
+      </c>
+      <c r="E18" s="29" t="n">
         <v>23.1195</v>
-      </c>
-      <c r="E18" s="29" t="n">
-        <v>541298</v>
       </c>
       <c r="F18" s="29" t="inlineStr"/>
       <c r="G18" s="29" t="n">
@@ -12200,10 +11875,10 @@
         <v>23105</v>
       </c>
       <c r="D19" s="29" t="n">
+        <v>596430</v>
+      </c>
+      <c r="E19" s="29" t="n">
         <v>25.8139</v>
-      </c>
-      <c r="E19" s="29" t="n">
-        <v>596430</v>
       </c>
       <c r="F19" s="29" t="inlineStr"/>
       <c r="G19" s="29" t="n">
@@ -12220,10 +11895,10 @@
         <v>20762</v>
       </c>
       <c r="D20" s="29" t="n">
+        <v>521596</v>
+      </c>
+      <c r="E20" s="29" t="n">
         <v>25.1226</v>
-      </c>
-      <c r="E20" s="29" t="n">
-        <v>521596</v>
       </c>
       <c r="F20" s="29" t="inlineStr"/>
       <c r="G20" s="29" t="n">
@@ -12240,10 +11915,10 @@
         <v>21996</v>
       </c>
       <c r="D21" s="29" t="n">
+        <v>589939</v>
+      </c>
+      <c r="E21" s="29" t="n">
         <v>26.8203</v>
-      </c>
-      <c r="E21" s="29" t="n">
-        <v>589939</v>
       </c>
       <c r="F21" s="29" t="inlineStr"/>
       <c r="G21" s="29" t="n">
@@ -12260,10 +11935,10 @@
         <v>22021</v>
       </c>
       <c r="D22" s="29" t="n">
+        <v>565900</v>
+      </c>
+      <c r="E22" s="29" t="n">
         <v>25.6982</v>
-      </c>
-      <c r="E22" s="29" t="n">
-        <v>565900</v>
       </c>
       <c r="F22" s="29" t="n">
         <v>0</v>
@@ -12282,10 +11957,10 @@
         <v>22789</v>
       </c>
       <c r="D23" s="29" t="n">
+        <v>575386</v>
+      </c>
+      <c r="E23" s="29" t="n">
         <v>25.2484</v>
-      </c>
-      <c r="E23" s="29" t="n">
-        <v>575386</v>
       </c>
       <c r="F23" s="29" t="n">
         <v>0</v>
@@ -12304,10 +11979,10 @@
         <v>19695</v>
       </c>
       <c r="D24" s="29" t="n">
+        <v>499330</v>
+      </c>
+      <c r="E24" s="29" t="n">
         <v>25.3531</v>
-      </c>
-      <c r="E24" s="29" t="n">
-        <v>499330</v>
       </c>
       <c r="F24" s="29" t="n">
         <v>0</v>
@@ -12326,10 +12001,10 @@
         <v>18861</v>
       </c>
       <c r="D25" s="29" t="n">
+        <v>478392</v>
+      </c>
+      <c r="E25" s="29" t="n">
         <v>25.3641</v>
-      </c>
-      <c r="E25" s="29" t="n">
-        <v>478392</v>
       </c>
       <c r="F25" s="29" t="n">
         <v>28</v>
@@ -12348,10 +12023,10 @@
         <v>17544</v>
       </c>
       <c r="D26" s="29" t="n">
+        <v>402959</v>
+      </c>
+      <c r="E26" s="29" t="n">
         <v>22.9685</v>
-      </c>
-      <c r="E26" s="29" t="n">
-        <v>402959</v>
       </c>
       <c r="F26" s="29" t="n">
         <v>59</v>
@@ -12370,10 +12045,10 @@
         <v>15746</v>
       </c>
       <c r="D27" s="29" t="n">
+        <v>340464</v>
+      </c>
+      <c r="E27" s="29" t="n">
         <v>21.6223</v>
-      </c>
-      <c r="E27" s="29" t="n">
-        <v>340464</v>
       </c>
       <c r="F27" s="29" t="n">
         <v>57</v>
@@ -12392,10 +12067,10 @@
         <v>21576</v>
       </c>
       <c r="D28" s="29" t="n">
+        <v>495323</v>
+      </c>
+      <c r="E28" s="29" t="n">
         <v>22.9571</v>
-      </c>
-      <c r="E28" s="29" t="n">
-        <v>495323</v>
       </c>
       <c r="F28" s="29" t="n">
         <v>0</v>
@@ -12414,10 +12089,10 @@
         <v>21350</v>
       </c>
       <c r="D29" s="29" t="n">
+        <v>500021</v>
+      </c>
+      <c r="E29" s="29" t="n">
         <v>23.4202</v>
-      </c>
-      <c r="E29" s="29" t="n">
-        <v>500021</v>
       </c>
       <c r="F29" s="29" t="n">
         <v>0</v>
@@ -12436,10 +12111,10 @@
         <v>15981</v>
       </c>
       <c r="D30" s="29" t="n">
+        <v>352742</v>
+      </c>
+      <c r="E30" s="29" t="n">
         <v>22.0726</v>
-      </c>
-      <c r="E30" s="29" t="n">
-        <v>352742</v>
       </c>
       <c r="F30" s="29" t="n">
         <v>0</v>
@@ -12458,10 +12133,10 @@
         <v>15499</v>
       </c>
       <c r="D31" s="29" t="n">
+        <v>340863</v>
+      </c>
+      <c r="E31" s="29" t="n">
         <v>21.9926</v>
-      </c>
-      <c r="E31" s="29" t="n">
-        <v>340863</v>
       </c>
       <c r="F31" s="29" t="n">
         <v>0</v>
@@ -12480,10 +12155,10 @@
         <v>16266</v>
       </c>
       <c r="D32" s="29" t="n">
+        <v>349498</v>
+      </c>
+      <c r="E32" s="29" t="n">
         <v>21.4864</v>
-      </c>
-      <c r="E32" s="29" t="n">
-        <v>349498</v>
       </c>
       <c r="F32" s="29" t="n">
         <v>0</v>
@@ -12502,10 +12177,10 @@
         <v>16875</v>
       </c>
       <c r="D33" s="29" t="n">
+        <v>352300</v>
+      </c>
+      <c r="E33" s="29" t="n">
         <v>20.877</v>
-      </c>
-      <c r="E33" s="29" t="n">
-        <v>352300</v>
       </c>
       <c r="F33" s="29" t="n">
         <v>17</v>
@@ -12524,10 +12199,10 @@
         <v>14198</v>
       </c>
       <c r="D34" s="29" t="n">
+        <v>264431</v>
+      </c>
+      <c r="E34" s="29" t="n">
         <v>18.6245</v>
-      </c>
-      <c r="E34" s="29" t="n">
-        <v>264431</v>
       </c>
       <c r="F34" s="29" t="n">
         <v>1</v>
@@ -12546,10 +12221,10 @@
         <v>11399</v>
       </c>
       <c r="D35" s="29" t="n">
+        <v>139768</v>
+      </c>
+      <c r="E35" s="29" t="n">
         <v>12.2614</v>
-      </c>
-      <c r="E35" s="29" t="n">
-        <v>139768</v>
       </c>
       <c r="F35" s="29" t="n">
         <v>27.76</v>
@@ -12568,10 +12243,10 @@
         <v>11453</v>
       </c>
       <c r="D36" s="29" t="n">
+        <v>139093</v>
+      </c>
+      <c r="E36" s="29" t="n">
         <v>12.1447</v>
-      </c>
-      <c r="E36" s="29" t="n">
-        <v>139093</v>
       </c>
       <c r="F36" s="29" t="n">
         <v>30</v>
@@ -12590,10 +12265,10 @@
         <v>13855</v>
       </c>
       <c r="D37" s="29" t="n">
+        <v>142237</v>
+      </c>
+      <c r="E37" s="29" t="n">
         <v>10.2661</v>
-      </c>
-      <c r="E37" s="29" t="n">
-        <v>142237</v>
       </c>
       <c r="F37" s="29" t="n">
         <v>97</v>
@@ -12612,10 +12287,10 @@
         <v>13594</v>
       </c>
       <c r="D38" s="29" t="n">
+        <v>118530</v>
+      </c>
+      <c r="E38" s="29" t="n">
         <v>8.719299999999999</v>
-      </c>
-      <c r="E38" s="29" t="n">
-        <v>118530</v>
       </c>
       <c r="F38" s="29" t="n">
         <v>63</v>
@@ -12634,10 +12309,10 @@
         <v>13926</v>
       </c>
       <c r="D39" s="29" t="n">
+        <v>119599.2</v>
+      </c>
+      <c r="E39" s="29" t="n">
         <v>8.588200000000001</v>
-      </c>
-      <c r="E39" s="29" t="n">
-        <v>119599.2</v>
       </c>
       <c r="F39" s="29" t="n">
         <v>15</v>
@@ -12656,10 +12331,10 @@
         <v>13294</v>
       </c>
       <c r="D40" s="29" t="n">
+        <v>127414</v>
+      </c>
+      <c r="E40" s="29" t="n">
         <v>9.584299999999999</v>
-      </c>
-      <c r="E40" s="29" t="n">
-        <v>127414</v>
       </c>
       <c r="F40" s="29" t="n">
         <v>11</v>
@@ -12678,10 +12353,10 @@
         <v>11506</v>
       </c>
       <c r="D41" s="29" t="n">
+        <v>86866</v>
+      </c>
+      <c r="E41" s="29" t="n">
         <v>7.549600000000001</v>
-      </c>
-      <c r="E41" s="29" t="n">
-        <v>86866</v>
       </c>
       <c r="F41" s="29" t="n">
         <v>22</v>
@@ -12700,10 +12375,10 @@
         <v>11730</v>
       </c>
       <c r="D42" s="29" t="n">
+        <v>91219</v>
+      </c>
+      <c r="E42" s="29" t="n">
         <v>7.7766</v>
-      </c>
-      <c r="E42" s="29" t="n">
-        <v>91219</v>
       </c>
       <c r="F42" s="29" t="n">
         <v>0</v>
@@ -12722,10 +12397,10 @@
         <v>9687</v>
       </c>
       <c r="D43" s="29" t="n">
+        <v>71898</v>
+      </c>
+      <c r="E43" s="29" t="n">
         <v>7.4221</v>
-      </c>
-      <c r="E43" s="29" t="n">
-        <v>71898</v>
       </c>
       <c r="F43" s="29" t="n">
         <v>0</v>
@@ -12744,10 +12419,10 @@
         <v>9629</v>
       </c>
       <c r="D44" s="29" t="n">
+        <v>64136</v>
+      </c>
+      <c r="E44" s="29" t="n">
         <v>6.660699999999999</v>
-      </c>
-      <c r="E44" s="29" t="n">
-        <v>64136</v>
       </c>
       <c r="F44" s="29" t="n">
         <v>0</v>
@@ -12766,10 +12441,10 @@
         <v>7842</v>
       </c>
       <c r="D45" s="29" t="n">
+        <v>47488</v>
+      </c>
+      <c r="E45" s="29" t="n">
         <v>6.0556</v>
-      </c>
-      <c r="E45" s="29" t="n">
-        <v>47488</v>
       </c>
       <c r="F45" s="29" t="n">
         <v>0</v>
@@ -12788,10 +12463,10 @@
         <v>7413</v>
       </c>
       <c r="D46" s="29" t="n">
+        <v>40414</v>
+      </c>
+      <c r="E46" s="29" t="n">
         <v>5.4518</v>
-      </c>
-      <c r="E46" s="29" t="n">
-        <v>40414</v>
       </c>
       <c r="F46" s="29" t="n">
         <v>0</v>
@@ -12810,10 +12485,10 @@
         <v>6840</v>
       </c>
       <c r="D47" s="29" t="n">
+        <v>34880</v>
+      </c>
+      <c r="E47" s="29" t="n">
         <v>5.099399999999999</v>
-      </c>
-      <c r="E47" s="29" t="n">
-        <v>34880</v>
       </c>
       <c r="F47" s="29" t="n">
         <v>0</v>
@@ -12832,10 +12507,10 @@
         <v>6592</v>
       </c>
       <c r="D48" s="29" t="n">
+        <v>31022</v>
+      </c>
+      <c r="E48" s="29" t="n">
         <v>4.706</v>
-      </c>
-      <c r="E48" s="29" t="n">
-        <v>31022</v>
       </c>
       <c r="F48" s="29" t="n">
         <v>0</v>
@@ -12854,10 +12529,10 @@
         <v>5915</v>
       </c>
       <c r="D49" s="29" t="n">
+        <v>24678</v>
+      </c>
+      <c r="E49" s="29" t="n">
         <v>4.1721</v>
-      </c>
-      <c r="E49" s="29" t="n">
-        <v>24678</v>
       </c>
       <c r="F49" s="29" t="n">
         <v>0</v>
@@ -12876,10 +12551,10 @@
         <v>6395</v>
       </c>
       <c r="D50" s="29" t="n">
+        <v>26019</v>
+      </c>
+      <c r="E50" s="29" t="n">
         <v>4.0686</v>
-      </c>
-      <c r="E50" s="29" t="n">
-        <v>26019</v>
       </c>
       <c r="F50" s="29" t="n">
         <v>0</v>
@@ -12898,10 +12573,10 @@
         <v>6288</v>
       </c>
       <c r="D51" s="29" t="n">
+        <v>26309</v>
+      </c>
+      <c r="E51" s="29" t="n">
         <v>4.184</v>
-      </c>
-      <c r="E51" s="29" t="n">
-        <v>26309</v>
       </c>
       <c r="F51" s="29" t="n">
         <v>0</v>
@@ -12920,10 +12595,10 @@
         <v>6507</v>
       </c>
       <c r="D52" s="29" t="n">
+        <v>29099</v>
+      </c>
+      <c r="E52" s="29" t="n">
         <v>4.472</v>
-      </c>
-      <c r="E52" s="29" t="n">
-        <v>29099</v>
       </c>
       <c r="F52" s="29" t="n">
         <v>0</v>
@@ -12942,10 +12617,10 @@
         <v>5990</v>
       </c>
       <c r="D53" s="29" t="n">
+        <v>29488</v>
+      </c>
+      <c r="E53" s="29" t="n">
         <v>4.922899999999999</v>
-      </c>
-      <c r="E53" s="29" t="n">
-        <v>29488</v>
       </c>
       <c r="F53" s="29" t="n">
         <v>0</v>
@@ -12964,10 +12639,10 @@
         <v>5514</v>
       </c>
       <c r="D54" s="29" t="n">
+        <v>28059</v>
+      </c>
+      <c r="E54" s="29" t="n">
         <v>5.0887</v>
-      </c>
-      <c r="E54" s="29" t="n">
-        <v>28059</v>
       </c>
       <c r="F54" s="29" t="n">
         <v>0</v>
@@ -12986,10 +12661,10 @@
         <v>5671</v>
       </c>
       <c r="D55" s="29" t="n">
+        <v>30328</v>
+      </c>
+      <c r="E55" s="29" t="n">
         <v>5.347899999999999</v>
-      </c>
-      <c r="E55" s="29" t="n">
-        <v>30328</v>
       </c>
       <c r="F55" s="29" t="n">
         <v>0</v>
@@ -13008,10 +12683,10 @@
         <v>5157</v>
       </c>
       <c r="D56" s="29" t="n">
+        <v>22205</v>
+      </c>
+      <c r="E56" s="29" t="n">
         <v>4.305800000000001</v>
-      </c>
-      <c r="E56" s="29" t="n">
-        <v>22205</v>
       </c>
       <c r="F56" s="29" t="n">
         <v>0</v>
@@ -13030,10 +12705,10 @@
         <v>4284</v>
       </c>
       <c r="D57" s="29" t="n">
+        <v>17589</v>
+      </c>
+      <c r="E57" s="29" t="n">
         <v>4.1057</v>
-      </c>
-      <c r="E57" s="29" t="n">
-        <v>17589</v>
       </c>
       <c r="F57" s="29" t="n">
         <v>0</v>
@@ -13052,10 +12727,10 @@
         <v>4285</v>
       </c>
       <c r="D58" s="29" t="n">
+        <v>12045</v>
+      </c>
+      <c r="E58" s="29" t="n">
         <v>2.811</v>
-      </c>
-      <c r="E58" s="29" t="n">
-        <v>12045</v>
       </c>
       <c r="F58" s="29" t="n">
         <v>0</v>
@@ -13074,10 +12749,10 @@
         <v>3926</v>
       </c>
       <c r="D59" s="29" t="n">
+        <v>10165</v>
+      </c>
+      <c r="E59" s="29" t="n">
         <v>2.5891</v>
-      </c>
-      <c r="E59" s="29" t="n">
-        <v>10165</v>
       </c>
       <c r="F59" s="29" t="n">
         <v>0</v>
@@ -13096,10 +12771,10 @@
         <v>4109</v>
       </c>
       <c r="D60" s="29" t="n">
+        <v>8520</v>
+      </c>
+      <c r="E60" s="29" t="n">
         <v>2.0735</v>
-      </c>
-      <c r="E60" s="29" t="n">
-        <v>8520</v>
       </c>
       <c r="F60" s="29" t="n">
         <v>10</v>
@@ -13118,10 +12793,10 @@
         <v>4348</v>
       </c>
       <c r="D61" s="29" t="n">
+        <v>8701</v>
+      </c>
+      <c r="E61" s="29" t="n">
         <v>2.0011</v>
-      </c>
-      <c r="E61" s="29" t="n">
-        <v>8701</v>
       </c>
       <c r="F61" s="29" t="n">
         <v>356</v>
@@ -13140,10 +12815,10 @@
         <v>5211</v>
       </c>
       <c r="D62" s="29" t="n">
+        <v>7296</v>
+      </c>
+      <c r="E62" s="29" t="n">
         <v>1.4001</v>
-      </c>
-      <c r="E62" s="29" t="n">
-        <v>7296</v>
       </c>
       <c r="F62" s="29" t="n">
         <v>1142</v>
@@ -13162,10 +12837,10 @@
         <v>5764</v>
       </c>
       <c r="D63" s="29" t="n">
+        <v>7229</v>
+      </c>
+      <c r="E63" s="29" t="n">
         <v>1.2542</v>
-      </c>
-      <c r="E63" s="29" t="n">
-        <v>7229</v>
       </c>
       <c r="F63" s="29" t="n">
         <v>1425</v>
@@ -13184,10 +12859,10 @@
         <v>5692</v>
       </c>
       <c r="D64" s="29" t="n">
+        <v>6069</v>
+      </c>
+      <c r="E64" s="29" t="n">
         <v>1.0662</v>
-      </c>
-      <c r="E64" s="29" t="n">
-        <v>6069</v>
       </c>
       <c r="F64" s="29" t="n">
         <v>2527</v>
@@ -13206,10 +12881,10 @@
         <v>4777</v>
       </c>
       <c r="D65" s="29" t="n">
+        <v>5221</v>
+      </c>
+      <c r="E65" s="29" t="n">
         <v>1.0929</v>
-      </c>
-      <c r="E65" s="29" t="n">
-        <v>5221</v>
       </c>
       <c r="F65" s="29" t="n">
         <v>2494</v>
@@ -13228,10 +12903,10 @@
         <v>4971</v>
       </c>
       <c r="D66" s="29" t="n">
+        <v>4931</v>
+      </c>
+      <c r="E66" s="29" t="n">
         <v>0.992</v>
-      </c>
-      <c r="E66" s="29" t="n">
-        <v>4931</v>
       </c>
       <c r="F66" s="29" t="n">
         <v>2934</v>
@@ -13250,10 +12925,10 @@
         <v>4665</v>
       </c>
       <c r="D67" s="29" t="n">
+        <v>4275</v>
+      </c>
+      <c r="E67" s="29" t="n">
         <v>0.9164</v>
-      </c>
-      <c r="E67" s="29" t="n">
-        <v>4275</v>
       </c>
       <c r="F67" s="29" t="n">
         <v>2378</v>
@@ -13272,10 +12947,10 @@
         <v>4833</v>
       </c>
       <c r="D68" s="29" t="n">
+        <v>4603</v>
+      </c>
+      <c r="E68" s="29" t="n">
         <v>0.9524</v>
-      </c>
-      <c r="E68" s="29" t="n">
-        <v>4603</v>
       </c>
       <c r="F68" s="29" t="n">
         <v>1463</v>
@@ -13293,10 +12968,10 @@
         <v>4862</v>
       </c>
       <c r="D69" s="29" t="n">
+        <v>3946</v>
+      </c>
+      <c r="E69" s="29" t="n">
         <v>0.8116</v>
-      </c>
-      <c r="E69" s="29" t="n">
-        <v>3946</v>
       </c>
       <c r="F69" s="29" t="n">
         <v>892</v>
@@ -13314,10 +12989,10 @@
         <v>6144</v>
       </c>
       <c r="D70" s="29" t="n">
+        <v>4294</v>
+      </c>
+      <c r="E70" s="29" t="n">
         <v>0.6989</v>
-      </c>
-      <c r="E70" s="29" t="n">
-        <v>4294</v>
       </c>
       <c r="F70" s="29" t="n">
         <v>347</v>
@@ -13335,10 +13010,10 @@
         <v>6127</v>
       </c>
       <c r="D71" s="29" t="n">
+        <v>4082</v>
+      </c>
+      <c r="E71" s="29" t="n">
         <v>0.6662</v>
-      </c>
-      <c r="E71" s="29" t="n">
-        <v>4082</v>
       </c>
       <c r="F71" s="29" t="n">
         <v>153</v>
@@ -13356,10 +13031,10 @@
         <v>5641</v>
       </c>
       <c r="D72" s="29" t="n">
+        <v>3790</v>
+      </c>
+      <c r="E72" s="29" t="n">
         <v>0.6718999999999999</v>
-      </c>
-      <c r="E72" s="29" t="n">
-        <v>3790</v>
       </c>
       <c r="F72" s="29" t="n">
         <v>334</v>
@@ -13377,10 +13052,10 @@
         <v>6271</v>
       </c>
       <c r="D73" s="29" t="n">
+        <v>4034</v>
+      </c>
+      <c r="E73" s="29" t="n">
         <v>0.6433</v>
-      </c>
-      <c r="E73" s="29" t="n">
-        <v>4034</v>
       </c>
       <c r="F73" s="29" t="n">
         <v>207</v>
@@ -13398,10 +13073,10 @@
         <v>6197</v>
       </c>
       <c r="D74" s="29" t="n">
+        <v>7878</v>
+      </c>
+      <c r="E74" s="29" t="n">
         <v>1.2713</v>
-      </c>
-      <c r="E74" s="29" t="n">
-        <v>7878</v>
       </c>
       <c r="F74" s="29" t="n">
         <v>589</v>
